--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -390,32 +397,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Region</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LA to Auckland on 14 March – flight AA83</t>
+          <t>Iran to Bali to Auckland, arrived on 26 February – flight EK450</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -423,7 +435,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2">
+        <v>43889</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -431,26 +446,26 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Plymouth</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Singapore to Auckland on 25 February – flight NZ283</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -458,34 +473,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
+      <c r="G3" s="2">
+        <v>43894</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wairarapa</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Doha to Auckland, arrived on 23 February – flight QR0920</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -493,34 +511,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G4" s="2">
+        <v>43895</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Singapore to Auckland on 25 February – flight NZ283</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -528,34 +549,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G5" s="2">
+        <v>43896</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marlborough</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Doha to Auckland on 23 February – flight QR0920</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -563,34 +587,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Marlborough</t>
+      <c r="G6" s="2">
+        <v>43897</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marlborough</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Houston to Auckland on 6 March – flight NZ029</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -598,34 +625,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Marlborough</t>
+      <c r="G7" s="2">
+        <v>43904</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Doha to Auckland on 10 March – flight QR920, Auckland to Christchurch on 10 March – flight JQ225</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -633,34 +663,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G8" s="2">
+        <v>43905</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kapiti Coast</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cruise ship travel then flew Sydney to Wellington on 18 March, flight details to come</t>
+          <t>Brisbane to Wellington, arrived on 14 March – flight NZ828</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -668,7 +701,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="2">
+        <v>43905</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -676,26 +712,27 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kapiti Coast</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cruise ship travel then flew Sydney to Wellington on 18 March, flight details to come</t>
+          <t>Los Angeles to Auckland on 14 March – flight AA83
+			Auckland to Wellington on 14 March – flight NZ419</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -703,7 +740,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="2">
+        <v>43907</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -711,7 +751,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -720,17 +760,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Hereford Conference in Queenstown</t>
+          <t>Los Angeles to Auckland on 14 March – flight AA83
+			Auckland to Wellington on 14 March – flight NZ419</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -738,7 +779,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="2">
+        <v>43907</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -746,26 +790,26 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hawke’s Bay</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Barcelona via Dubai to Auckland, arrived on 18 March, flight EK448, Auckland to Napier on 19 March – flight NZ5021</t>
+          <t>Singapore to Auckland on 7 March – flight NZ283, Auckland to Dunedin on 8 March – flight NZ675</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -773,34 +817,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Hawke’s Bay</t>
+      <c r="G12" s="2">
+        <v>43907</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hawke’s Bay</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>Teens</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Barcelona via Dubai to Auckland, arrived on 18 March, flight EK448, Auckland to Napier on 19 March – flight NZ5021</t>
+          <t>Related to case 11.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -808,19 +855,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Hawke’s Bay</t>
+      <c r="G13" s="2">
+        <v>43907</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -830,12 +880,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Dubai to Auckland, arrived on 14 March – flight EK448</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -843,34 +893,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G14" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney to Wellington on 20 March – flight QF161</t>
+          <t>International travel – arrived 8 March, flight details to come</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -878,34 +931,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G15" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>San Francisco to Auckland, arrived on 13 March – flight NZ7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -913,34 +969,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G16" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Travelled from USA, flight details to come</t>
+          <t>Canada to New Zealand, arrived on 12 March – flight details to come</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -948,34 +1007,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G17" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Invercargill</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Travelled from USA, flight details to come</t>
+          <t>Australia to New Zealand, arrived on 10 March, flight details to come</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -983,34 +1045,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G18" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Southland</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
+          <t>Singapore to Christchurch, arrived on 16 March – flight SQ297</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1018,34 +1083,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G19" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
+          <t>Sydney to Auckland, arrived on 8 March – flight NZ112</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1053,34 +1121,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G20" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>80s</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Singapore to Auckland on 15 March – flight SQ285</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1088,34 +1159,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Nelson</t>
+      <c r="G21" s="2">
+        <v>43908</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Dubai to Auckland, arrived on 9 March – flight EK448,  Auckland to New Plymouth on 9 March – flight NZ8041</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1123,34 +1197,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G22" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dubai to Auckland, arrived on 19 March – flight EK447, Auckland to Dunedin on 19 March – flight JQ285</t>
+          <t>Vancouver to Auckland, arrived on 15 March – flight NZ23, Auckland to New Plymouth on 15 March – flight NZ8035</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1158,34 +1235,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G23" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>London to LA on 14 March, then LA to Auckland - flight NZ5, Auckland to Dunedin on 16 March – flight NZ671</t>
+          <t>Sydney to Auckland on 16 March – flight VA0141</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1193,19 +1273,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G24" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Northland</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Rotorua</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1215,12 +1298,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Hereford Conference in Queenstown</t>
+          <t>Singapore to Auckland on 13 March – flight SQ285</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1228,15 +1311,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G25" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bay of Plenty</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1245,17 +1331,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Los Angeles to Auckland on 13 March – flight NZ05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,7 +1349,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -1271,7 +1360,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1280,17 +1369,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Arrived in Auckland on 18 March, flight details to come</t>
+          <t>Melbourne to Auckland on 15 March – flight QF153</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1298,7 +1387,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -1306,26 +1398,27 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Queenstown</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Arrived in Auckland on 20 March, flight details to come</t>
+          <t>London to Auckland on 17 March – flight NZ1
+			Auckland to Christchurch on 17 March – flight NZ525 Christchurch to Dunedin on 17 March – flight NZ5749</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1333,34 +1426,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G28" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Queenstown</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Sydney to Christchurch on 13 March – flight EK402</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1368,15 +1464,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G29" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1385,17 +1484,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Singapore to Auckland on 11 March</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1403,7 +1502,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -1411,26 +1513,27 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arrived in Auckland 18 March, flight details to come</t>
+          <t>Los Angeles to Auckland on 14 March – flight AA83
+			Auckland to Christchurch on 15 March – flight NZ535</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1438,34 +1541,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G31" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Melbourne to Wellington on 14 March – flight SQ247</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1473,34 +1579,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G32" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Hawke’s Bay</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dubai to Auckland on 16 March – flight EK0448</t>
+          <t>Doha to Auckland on 16 March – flight QR920 Auckland to Napier on 17 March – flight NZ5021</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1508,34 +1617,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G33" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Hawke’s Bay</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Relative of a confirmed case</t>
+          <t>Dubai to Auckland on 16 March – flight EK0450</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1543,19 +1655,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
+      <c r="G34" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1565,12 +1680,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Relative of a confirmed case</t>
+          <t>Dubai to Auckland on 16 March – flight EK0450</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1578,34 +1693,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
+      <c r="G35" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Queenstown</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dubai to Auckland on 18 March – flight EK448, Auckland to Queenstown on 19 March – flight EK7563</t>
+          <t>Los Angeles to Auckland - flight details to come.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1613,34 +1731,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G36" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Herefords Conference in Queenstown</t>
+          <t>Los Angeles to Auckland - flight details to come.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1648,34 +1769,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G37" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Otago</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Hereford Conference in Queenstown.</t>
+          <t>London to Doha to Auckland (on Sunday 15 March) - flight details to come.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1683,34 +1807,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G38" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Wairarapa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Departed Switzerland 16 March, flew via Abu Dhabi to New Zealand – flight EY0052</t>
+          <t>Under investigation.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1718,19 +1845,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>South Canterbury</t>
+      <c r="G39" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Otago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1740,12 +1870,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>LA to Auckland on Wednesday 18 March – flight NZ554 Auckland to Queenstown on Wednesday 18 March – flight NZ615</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1753,24 +1883,27 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G40" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1780,7 +1913,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>USA to Auckland, arrived 18 March, flight details to come</t>
+          <t>Sydney to Wellington on 14 March – flight EK0412</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1788,15 +1921,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G41" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1805,7 +1941,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1815,7 +1951,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>USA to Auckland, arrived 8 March, flight details to come</t>
+          <t>Cruise ship travel. Domestic flights – Dunedin to Auckland on 15 March – flight NZ670.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1823,7 +1959,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -1831,16 +1970,16 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Upper Hutt</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1850,7 +1989,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Singapore to Auckland on 13 March – flight SQ0285.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1858,34 +1997,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G43" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Sydney to Wellington on 14 March – flight QF161.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1893,19 +2035,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G44" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nelson</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1915,1944 +2060,10 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
-        <is>
-          <t>Linked to a confirmed case</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>98</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Kapiti Coast</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>97</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>96</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>95</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Exposed to two people in household with history of international travel and symptoms</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>94</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on 19 March – flight EK448</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>93</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>92</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Doha to Auckland on 22 March – flight QR920</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>91</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>LA to New Zealand on 15 March – flight NZ1</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>90</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>LA to New Zealand on 15 March – flight NZ1</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>89</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>70s</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Related to case 88</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>88</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>70s</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>87</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>86</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>85</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Relative of a confirmed case</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>84</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Doha to Auckland on 18 March – flight QR920</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>83</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Doha to Auckland on 18 March – flight QR920</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>82</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Linked to two confirmed cases</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>81</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on 18 March – flight EK448</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>80</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Marlborough</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Sydney to Auckland on 18 March – flight QF143, Auckland to Blenheim on 18 March – flight NZ8205</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Marlborough</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>79</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Tasman</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>International travel – flight details to come</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Tasman</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>78</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Manawatu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Sydney to Wellington on 19 March – flight NZ842</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Manawatu-Whanganui</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>77</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Kuala Lumpur to Auckland on 19 March – flight MH0133</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>76</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Hong Kong to Auckland on 13 March – flight CX2191</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>75</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>70s</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Relative of a confirmed case</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>74</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Sydney to Auckland, arriving 18 March – flight QF143</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>73</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Teens</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Details to come</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Singapore to Christchurch on 18 March – flight SQ297</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>30s</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>LA to Auckland on 18 March – flight NZ05</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Under investigation</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>69</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on 15 March – flight EK448</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>68</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Dunedin</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>San Francisco to Auckland on 17 March – flight NZ07, Auckland to Dunedin on 19 March – flight JQ285</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Otago</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>67</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Wellington to Auckland on 15 March – flight JQ256</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>66</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on 15 March - flight EK448</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>65</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Northland</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Melbourne to Auckland on Sunday 15 March – flight JQ217</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Northland</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>64</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>San Francisco to Auckland on Monday 16 March – flight NZ7
-			Auckland to Christchurch on Tuesday 17 March – flight NZ523</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>63</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on Tuesday 17 March – flight EK448
-			Auckland to New Plymouth on 18 March – flight NZ8041</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>62</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Bangkok to Auckland on Sunday 15 March – flight TG0491
-			Auckland to New Plymouth on 16 March – flight NZ8041</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>61</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Travel to Africa – details to come</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>60</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on Monday 16 March – flight EK448</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>59</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>No international travel history – exposed at World Hereford Conference in Queenstown.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>58</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>No international travel history – exposed at World Herefords Conference in Queenstown. Domestic travel history:
-			Dunedin to Auckland on Sunday 15 March – flight NZ674</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>57</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Travel history to Ireland, Dubai and Australia. Details to come.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>56</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Bay of Plenty</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>30s</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Travel history to the United States of America – details to come.</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Bay of Plenty</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>55</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Honolulu to Auckland on 14 March – flight HA445 (arrived 15 March)</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>54</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Contact with a confirmed case</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>53</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Dunedin</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>LA to Auckland on 14 March – flight NZ1
-			Auckland to Queenstown on 14 March – flight NZ615</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Otago</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>52</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Contact with probable case</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>51</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Travel related, however international flights outside of infectious period. 
-			Domestic flights: Auckland to Nelson on 16 March – flight 5065</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Nelson</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>50</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Marlborough</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>60s</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Contact with traveller. Further investigations continue.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Marlborough</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>49</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Manawatu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>20s</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Doha to Auckland on 14 March – flight QR0920
-			Auckland to Palmerston North on 16 March – flight NZ5107</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Manawatu-Whanganui</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>48</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Manawatu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>40s</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Queenstown to Christchurch on 13 March – flight NZ642
-			Christchurch to Palmerston North on 13 March – flight NZ5181</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Manawatu-Whanganui</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>47</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Taupo</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on 10 March – flight EK0448</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Waikato</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>46</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>70s</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Under investigation. Took internal flight when symptomatic. Dunedin to Auckland on 16 March – flight NZ674</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>45</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>30s</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Dubai to Auckland on 12 March – flight EK44
-			Auckland to Wellington on 12 March – flight NZ433</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>44</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Wellington</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>50s</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
         <is>
           <t>Travel related, however international flights outside of infectious period. 
 			Domestic flights:
@@ -3861,39 +2072,2141 @@
 			Hamilton to Wellington on 13 March – flight NZ5823.</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G45" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on 12 March – flight EK44
+			Auckland to Wellington on 12 March – flight NZ433</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G46" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Under investigation. Took internal flight when symptomatic. Dunedin to Auckland on 16 March – flight NZ674</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G47" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Taupo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on 10 March – flight EK0448</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G48" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Manawatu</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Queenstown to Christchurch on 13 March – flight NZ642
+			Christchurch to Palmerston North on 13 March – flight NZ5181</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G49" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Manawatu-Whanganui</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Manawatu</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Doha to Auckland on 14 March – flight QR0920
+			Auckland to Palmerston North on 16 March – flight NZ5107</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G50" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Manawatu-Whanganui</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Contact with traveller. Further investigations continue.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G51" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Travel related, however international flights outside of infectious period. 
+			Domestic flights: Auckland to Nelson on 16 March – flight 5065</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G52" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Contact with probable case</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G53" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dunedin</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>LA to Auckland on 14 March – flight NZ1
+			Auckland to Queenstown on 14 March – flight NZ615</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G54" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Otago</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Contact with a confirmed case</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G55" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Honolulu to Auckland on 14 March – flight HA445 (arrived 15 March)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G56" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bay of Plenty</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Travel history to the United States of America – details to come.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G57" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bay of Plenty</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Travel history to Ireland, Dubai and Australia. Details to come.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G58" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No international travel history – exposed at World Herefords Conference in Queenstown. Domestic travel history:
+			Dunedin to Auckland on Sunday 15 March – flight NZ674</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G59" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No international travel history – exposed at World Herefords Conference in Queenstown.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G60" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on Monday 16 March – flight EK448</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G61" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Travel to Africa – details to come</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G62" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bangkok to Auckland on Sunday 15 March – flight TG0491
+			Auckland to New Plymouth on 16 March – flight NZ8041</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G63" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on Tuesday 17 March – flight EK448
+			Auckland to New Plymouth on 18 March – flight NZ8041</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G64" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>San Francisco to Auckland on Monday 16 March – flight NZ7
+			Auckland to Christchurch on Tuesday 17 March – flight NZ523</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G65" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Northland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Melbourne to Auckland on Sunday 15 March – flight JQ217</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G66" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Northland</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on 15 March - flight EK448</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G67" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Wellington to Auckland on 15 March – flight JQ256</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G68" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Dunedin</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>San Francisco to Auckland on 17 March – flight NZ07, Auckland to Dunedin on 19 March – flight JQ285</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G69" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Otago</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on 15 March – flight EK448</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G70" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Under investigation</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G71" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LA to Auckland on 18 March – flight NZ05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G72" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Singapore to Christchurch on 18 March – flight SQ297</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G73" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Teens</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G74" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Sydney to Auckland, arriving 18 March – flight QF143</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G75" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Relative of a confirmed case</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G76" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Hong Kong to Auckland on 13 March – flight CX2191</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G77" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur to Auckland on 19 March – flight MH0133</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G78" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Manawatu</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Sydney to Wellington on 19 March – flight NZ842</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G79" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Manawatu-Whanganui</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Tasman</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>International travel – flight details to come</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G80" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Tasman</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sydney to Auckland on 18 March – flight QF143, Auckland to Blenheim on 18 March – flight NZ8205</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G81" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on 18 March – flight EK448</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G82" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Linked to two confirmed cases</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G83" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Doha to Auckland on 18 March – flight QR920</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G84" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Doha to Auckland on 18 March – flight QR920</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G85" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Relative of a confirmed case</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G86" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G87" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G88" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G89" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Related to case 88, details to come</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G90" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>LA to New Zealand on 15 March – flight NZ1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G91" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LA to New Zealand on 15 March – flight NZ1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G92" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Doha to Auckland on 22 March – flight QR920</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G93" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G94" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Dubai to Auckland on 19 March – flight EK448</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G95" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G96" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G97" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G98" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Kapiti Coast</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G99" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Linked to a confirmed case</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G100" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Nelson</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>Teens</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sydney to Wellington on 14 March – flight QF161.</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3901,24 +4214,27 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G101" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Upper Hutt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3928,7 +4244,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 13 March – flight SQ0285.</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3936,15 +4252,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G102" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3953,7 +4272,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3963,7 +4282,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Cruise ship travel. Domestic flights – Dunedin to Auckland on 15 March – flight NZ670.</t>
+          <t>USA to Auckland, arrived 8 March, flight details to come</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3971,7 +4290,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -3979,16 +4301,16 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3998,7 +4320,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sydney to Wellington on 14 March – flight EK0412</t>
+          <t>USA to Auckland, arrived 18 March, flight details to come</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4006,19 +4328,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G104" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Otago</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4028,12 +4353,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LA to Auckland on Wednesday 18 March – flight NZ554 Auckland to Queenstown on Wednesday 18 March – flight NZ615</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4041,34 +4366,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G105" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Wairarapa</t>
+          <t>Waitaki</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Under investigation.</t>
+          <t>Departed Switzerland 16 March, flew via Abu Dhabi to New Zealand – flight EY0052</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4076,34 +4404,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G106" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Otago</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>London to Doha to Auckland (on Sunday 15 March) - flight details to come.</t>
+          <t>No international travel history – exposed at World Herefords Conference in Queenstown.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4111,34 +4442,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G107" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Los Angeles to Auckland - flight details to come.</t>
+          <t>No international travel history – exposed at World Herefords Conference in Queenstown</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4146,34 +4480,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G108" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Queenstown</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>Teens</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Los Angeles to Auckland - flight details to come.</t>
+          <t>Dubai to Auckland on 18 March – flight EK448, Auckland to Queenstown on 19 March – flight EK7563</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4181,19 +4518,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G109" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Christchurch</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4203,12 +4543,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Dubai to Auckland on 16 March – flight EK0450</t>
+          <t>Relative of a confirmed case</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4216,34 +4556,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G110" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Christchurch</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Dubai to Auckland on 16 March – flight EK0450</t>
+          <t>Relative of a confirmed case</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4251,34 +4594,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G111" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hawke’s Bay</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Doha to Auckland on 16 March – flight QR920 Auckland to Napier on 17 March – flight NZ5021</t>
+          <t>Departed on 16 March – flight EK0448</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4286,34 +4632,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Hawke’s Bay</t>
+      <c r="G112" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Melbourne to Wellington on 14 March – flight SQ247</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4321,35 +4670,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Wellington</t>
+      <c r="G113" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Los Angeles to Auckland on 14 March – flight AA83
-			Auckland to Christchurch on 15 March – flight NZ535</t>
+          <t>Arrived in Auckland 18 March, flight details to come</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4357,15 +4708,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
+      <c r="G114" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4374,17 +4728,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>Teens</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 11 March</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4392,7 +4746,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -4400,26 +4757,26 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Queenstown</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sydney to Christchurch on 13 March – flight EK402</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4427,35 +4784,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G116" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Queenstown</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>London to Auckland on 17 March – flight NZ1
-			Auckland to Christchurch on 17 March – flight NZ525 Christchurch to Dunedin on 17 March – flight NZ5749</t>
+          <t>Arrived in Auckland on 20 March, flight details to come</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4463,15 +4822,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G117" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4480,17 +4842,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Melbourne to Auckland on 15 March – flight QF153</t>
+          <t>Arrived in Auckland on 18 March, flight details to come</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4498,7 +4860,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G118" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -4506,7 +4871,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4515,17 +4880,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>Teens</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Los Angeles to Auckland on 13 March – flight NZ05</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4533,7 +4898,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G119" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -4541,11 +4909,11 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Rotorua</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4555,12 +4923,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 13 March – flight SQ285</t>
+          <t>No international travel history – exposed at World Herefords Conference in Queenstown</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4568,34 +4936,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Bay of Plenty</t>
+      <c r="G120" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sydney to Auckland on 16 March – flight VA0141</t>
+          <t>London to LA on 14 March, then LA to Auckland on flight NZ5, Auckland to Dunedin on 16 March – flight NZ671</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4603,34 +4974,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Northland</t>
+      <c r="G121" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Vancouver to Auckland, arrived on 15 March – flight NZ23, Auckland to New Plymouth on 15 March – flight NZ8035</t>
+          <t>Dubai to Auckland, arrived on 19 March – flight EK447, Auckland to Dunedin on 19 March – flight JQ285</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4638,34 +5012,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
+      <c r="G122" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Dubai to Auckland, arrived on 9 March – flight EK448,  Auckland to New Plymouth on 9 March – flight NZ8041</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4673,34 +5050,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Taranaki</t>
+      <c r="G123" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Nelson</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>80s</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 15 March – flight SQ285</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4708,34 +5088,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G124" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Nelson</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sydney to Auckland, arrived on 8 March – flight NZ112</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4743,34 +5126,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Waikato</t>
+      <c r="G125" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Singapore to Christchurch, arrived on 16 March – flight SQ297</t>
+          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4778,34 +5164,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Canterbury</t>
+      <c r="G126" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Invercargill</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sydney to Auckland, arrived 10 March – flight NZ102</t>
+          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4813,34 +5202,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Southland</t>
+      <c r="G127" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Canada to New Zealand, arrived on 12 March – flight details to come</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4848,34 +5240,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G128" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>San Francisco to Auckland, arrived on 13 March – flight NZ7</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4883,34 +5278,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G129" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>International travel – arrived 8 March, flight details to come</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4918,19 +5316,22 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G130" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4940,12 +5341,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Dubai to Auckland, arrived on 14 March – flight EK448</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4953,34 +5354,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G131" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Hawke’s Bay</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Related to case 11.</t>
+          <t>Barcelona via Dubai to Auckland, arrived on 18 March, flight EK448, Auckland to Napier on 19 March – flight NZ5021</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4988,34 +5392,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G132" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Hawke’s Bay</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Hawke’s Bay</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 7 March – flight NZ283, Auckland to Dunedin on 8 March – flight NZ675</t>
+          <t>Barcelona via Dubai to Auckland, arrived on 18 March, flight EK448, Auckland to Napier on 19 March – flight NZ5021</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5023,15 +5430,18 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G133" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Hawke’s Bay</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5040,18 +5450,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Los Angeles to Auckland on 14 March – flight AA83
-			Auckland to Wellington on 14 March – flight NZ419</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5059,7 +5468,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G134" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5067,7 +5479,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5076,18 +5488,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Los Angeles to Auckland on 14 March – flight AA83
-			Auckland to Wellington on 14 March – flight NZ419</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5095,7 +5506,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G135" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5103,7 +5517,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5112,17 +5526,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>70s</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Brisbane to Wellington, arrived on 14 March – flight NZ828</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5130,7 +5544,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G136" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5138,26 +5555,26 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Doha to Auckland on 10 March – flight QR920, Auckland to Christchurch on 10 March – flight JQ225</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5165,34 +5582,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Otago</t>
+      <c r="G137" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Marlborough</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Houston to Auckland on 6 March – flight NZ029</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5200,34 +5620,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G138" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Marlborough</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Doha to Auckland on 23 February – flight QR0920</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5235,34 +5658,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G139" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 25 February – flight NZ283</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5270,34 +5696,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G140" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wairarapa</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Doha to Auckland, arrived on 23 February – flight QR0920</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5305,34 +5734,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G141" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>New Plymouth</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>30s</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Singapore to Auckland on 25 February – flight NZ283</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5340,34 +5772,37 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Auckland</t>
+      <c r="G142" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitemata</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Iran to Bali to Auckland, arrived on 26 February – flight EK450</t>
+          <t>Details to come</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5375,7 +5810,10 @@
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -5405,7 +5843,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G144" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5435,7 +5876,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G145" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5465,7 +5909,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G146" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5495,7 +5942,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G147" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>Wellington</t>
         </is>
@@ -5525,7 +5975,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G148" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -5555,7 +6008,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H149" t="inlineStr">
         <is>
           <t>Waikato</t>
         </is>
@@ -5585,7 +6041,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H150" t="inlineStr">
         <is>
           <t>Canterbury</t>
         </is>
@@ -5620,7 +6079,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G151" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H151" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -5655,7 +6117,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G152" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H152" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -5685,7 +6150,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G153" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H153" t="inlineStr">
         <is>
           <t>Waikato</t>
         </is>
@@ -5715,7 +6183,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="G154" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H154" t="inlineStr">
         <is>
           <t>Otago</t>
         </is>
@@ -5745,7 +6216,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="G155" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H155" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -5775,7 +6249,10 @@
           <t>Probable</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="G156" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H156" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Australia to New Zealand, arrived on 10 March, flight details to come</t>
+          <t>Sydney to Auckland, arrived 10 March – flight NZ102</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Herefords Conference in Queenstown.</t>
+          <t>No international travel history – exposed at World Hereford Conference in Queenstown.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Related to case 88, details to come</t>
+          <t>Related to case 88</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Exposed to two people in household with history of international travel and symptoms</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Waitaki</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Otago</t>
+          <t>South Canterbury</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Herefords Conference in Queenstown.</t>
+          <t>No international travel history – exposed at World Hereford Conference in Queenstown.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Departed on 16 March – flight EK0448</t>
+          <t>Dubai to Auckland on 16 March – flight EK0448</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>No international travel history – exposed at World Herefords Conference in Queenstown</t>
+          <t>No international travel history – exposed at World Hereford Conference in Queenstown</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>London to LA on 14 March, then LA to Auckland on flight NZ5, Auckland to Dunedin on 16 March – flight NZ671</t>
+          <t>London to LA on 14 March, then LA to Auckland - flight NZ5, Auckland to Dunedin on 16 March – flight NZ671</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
+          <t>Travelled from USA, flight details to come</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Travelled from USA, flight details to come</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Sydney to Wellington on 20 March – flight QF161</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>No international travel history – exposed at World Hereford Conference in Queenstown</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Kapiti Coast</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Cruise ship travel then flew Sydney to Wellington on 18 March, flight details to come</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Kapiti Coast</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Cruise ship travel then flew Sydney to Wellington on 18 March, flight details to come</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>LA to Auckland on 14 March – flight AA83</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,7 +387,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Travel details</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>London to Sydney on 13 March – flight QF2, Sydney to Wellington on 15 March – flight QF161</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Waitaki</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Otago</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
+          <t>Linked to a group’s trip to New York. Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
+          <t>Linked to a group trip to New York. Travelled from USA to New Zealand, arrived on 19 March, flight details to come</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Travelled from USA, flight details to come</t>
+          <t>Linked to a group trip to New York. LA to Auckland on 17 March – Flight NZ5, Auckland to Wellington on 19 March – Flight NZ409</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Travelled from USA, flight details to come</t>
+          <t>Linked to a group trip to New York. LA to Auckland on 17 March – Flight NZ5, Auckland to Wellington on 19 March – Flight NZ409</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>London to Dubai on 17 March – flight EK0002, Dubai via Bali to Auckland on 18 March – flight EK450, Auckland to Wellington on 19 March – flight NZ409</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Linked to a confirmed case</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Details to come</t>
+          <t>Linked to a confirmed case</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5821,49 +5821,54 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Wellington Region</t>
+          <t>Christchurch</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>San Francisco to Auckland, arrived 21 March – flight NZ7, Auckland to Christchurch on 21 March – NZ527</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G144" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5871,46 +5876,56 @@
           <t>F</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Under investigation</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G145" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Wellington Region</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>60s</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Linked to a confirmed case</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G146" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5920,44 +5935,49 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Christchurch</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>80s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>London via Dubai and Sydney, arrived Christchurch 13 March – flight EK006</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G147" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5970,27 +5990,32 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Linked to confirmed case</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G148" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Christchurch</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6000,35 +6025,40 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Sydney to Christchurch on 13 March – Flight EK412</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G149" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>40s</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6036,32 +6066,37 @@
           <t>F</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Under Investigation</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G150" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>30s</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6071,35 +6106,35 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Arrived in New Zealand from USA</t>
+          <t>Dubai to Auckland on 22 March – Flight EK448, Auckland to Rotorua on 23 March – Flight NZ8155</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G151" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waikato</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>70s</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6109,35 +6144,35 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Arrived in Auckland from Qatar</t>
+          <t>Linked to a group trip to New York. Houston to Auckland on 20 March – Flight NZ0029, Auckland to Wellington on 20 March – Flight NZ0407</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G152" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Wellington</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>40s</t>
+          <t>20s</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6145,32 +6180,37 @@
           <t>F</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>London via Dubai to Auckland on 21 March – Flight EK448, Auckland to Dunedin on 23 March flight NZ677</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G153" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Otago</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>50s</t>
+          <t>Teens</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6178,32 +6218,37 @@
           <t>F</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G154" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Otago</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitemata</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Teens</t>
+          <t>60s</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6211,13 +6256,18 @@
           <t>F</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
       <c r="G155" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -6227,32 +6277,1847 @@
     </row>
     <row r="156">
       <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Queenstown</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G156" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Otago</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Wanaka</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G157" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Otago</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G158" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Dunedin</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G159" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Otago</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G160" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G161" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G162" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G163" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G164" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G165" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G166" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G167" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G168" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G169" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G170" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G171" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G172" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Waitemata</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Teens</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G173" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Bay of Plenty</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G174" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Bay of Plenty</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>80s</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G175" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Linked to a group trip to New York</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G176" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Linked to a group trip to New York</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G177" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Linked to a group trip to New York</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G178" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G179" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G180" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G181" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G182" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G183" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G184" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>30s</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G185" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Waitemata</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G186" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G187" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G188" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G189" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Details to come</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G190" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>16</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G191" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>15</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G192" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>14</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Blenheim</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>20s</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G193" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Marlborough</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>13</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Wellington Region</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Teens</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G194" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>12</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G195" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Wellington Region</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>60s</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G196" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>80s</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G197" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Wellington</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>9</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G198" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G199" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Teens</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G200" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>6</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Arrived in New Zealand from USA</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G201" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Arrived in Auckland from Qatar</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G202" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>40s</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G203" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Dunedin</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>50s</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G204" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Otago</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Teens</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+      <c r="G205" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
         <v>1</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
         <is>
           <t>50s</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>Not provided</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>Probable</t>
         </is>
       </c>
-      <c r="G156" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G206" s="2">
+        <v>43915</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="F2" s="2">
-        <v>43889</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="3">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="F3" s="2">
-        <v>43894</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="F4" s="2">
-        <v>43895</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="5">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F5" s="2">
-        <v>43896</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="F6" s="2">
-        <v>43897</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F7" s="2">
-        <v>43904</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="8">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="F8" s="2">
-        <v>43905</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="9">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="F9" s="2">
-        <v>43905</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="10">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="F10" s="2">
-        <v>43907</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F11" s="2">
-        <v>43907</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="12">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="F12" s="2">
-        <v>43907</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="F13" s="2">
-        <v>43907</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="14">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="F14" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="F15" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="16">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="F16" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="18">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="F18" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="19">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="F19" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="20">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="F20" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="21">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="F21" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="22">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="F22" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="23">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F23" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="F24" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="25">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="F25" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="26">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="F26" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="27">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F27" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="28">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="F28" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="29">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F29" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="30">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F30" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="31">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="F31" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="32">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="F32" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="33">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F33" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="34">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="F34" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="35">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F35" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="36">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="F36" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="37">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="F37" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="38">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="F38" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="39">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="F39" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="40">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="F40" s="2">
-        <v>43910</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="41">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F41" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="42">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="F42" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="F43" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="44">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="F44" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="45">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="F45" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="46">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="F46" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="47">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F47" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="48">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="F48" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="49">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="F49" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="50">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="F50" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="51">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="F51" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="52">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="F52" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="53">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F53" s="2">
-        <v>43911</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="54">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="F54" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="55">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="F55" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="56">
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="F56" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="57">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F57" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="58">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="F58" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="59">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F59" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="60">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="F60" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="61">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="F61" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="62">
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="F62" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="63">
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="F63" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="64">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="F64" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="65">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F65" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="66">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="F66" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="67">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="F67" s="2">
-        <v>43912</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="68">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="F68" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="69">
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="F69" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="70">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="F70" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="71">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F71" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="72">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="F72" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="73">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="F73" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="74">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="F74" s="2">
-        <v>43913</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="75">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="F75" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="76">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="F76" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="77">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F77" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="78">
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="F78" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="79">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="F79" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="80">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="F80" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="81">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="F81" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="82">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="F82" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="83">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F83" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="84">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="F84" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="85">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="F85" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="86">
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="F86" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="87">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="F87" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="88">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="F88" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="89">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F89" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="90">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="F90" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="91">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="F91" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="92">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="F92" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="93">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="F93" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="94">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="F94" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="95">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F95" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="96">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="F96" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="97">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="F97" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="98">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="F98" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="99">
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="F99" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="100">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="F100" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="101">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F101" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="102">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="F102" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="103">
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="F103" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="104">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="F104" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="105">
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="F105" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="106">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="F106" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="107">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F107" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="108">
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="F108" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="109">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="F109" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="110">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="F110" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="111">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="F111" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="112">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="F112" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="113">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F113" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="114">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="F114" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="115">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="F115" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="116">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="F116" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="117">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="F117" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="118">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="F118" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="119">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F119" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="120">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="F120" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="121">
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="F121" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="122">
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="F144" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="145">
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="F145" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="146">
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="F146" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="147">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="F147" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="148">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="F148" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="149">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="F149" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="150">
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="F150" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="151">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="F151" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="152">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="F152" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="153">
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="F153" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="154">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="F154" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="155">
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="F155" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="156">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="F156" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="157">
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="F157" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="158">
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="F158" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="159">
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="F159" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="160">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="F160" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="161">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="F161" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="162">
@@ -4901,7 +4901,7 @@
         </is>
       </c>
       <c r="F162" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="163">
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="F163" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="164">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="F164" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="165">
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="F165" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="166">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="F166" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="167">
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="F167" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="168">
@@ -5069,7 +5069,7 @@
         </is>
       </c>
       <c r="F168" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="169">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="F169" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="170">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="F170" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="171">
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="F171" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="172">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="F172" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="173">
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="F173" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="174">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="F174" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="175">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="F175" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="176">
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="F176" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="177">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="F177" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="178">
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="F178" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="179">
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="F179" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="180">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="F180" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="181">
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="F181" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="182">
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="F182" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="183">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="F183" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="184">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="F184" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="185">
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="F185" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="186">
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="F186" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="187">
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="F187" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="188">
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="F188" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="189">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="F189" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="190">
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="F190" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="191">
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="F191" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="192">
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="F192" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="193">
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="F193" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="194">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F194" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="195">
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="F195" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="196">
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="F196" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="197">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="F197" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="198">
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="F198" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="199">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="F199" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="200">
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="F200" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="201">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="F201" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="202">
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="F202" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="203">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="F203" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="204">
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="F204" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="205">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="F205" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="206">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="F206" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="207">
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="F207" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="208">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="F208" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="209">
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="F209" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="210">
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="F210" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="211">
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="F211" s="2">
-        <v>43916</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="212">
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="F212" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="213">
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="F213" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="214">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="F214" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="215">
@@ -6391,7 +6391,7 @@
         </is>
       </c>
       <c r="F215" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="216">
@@ -6420,7 +6420,7 @@
         </is>
       </c>
       <c r="F216" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="217">
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="F217" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="218">
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="F218" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="219">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="F219" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="220">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="F220" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="221">
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="F221" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="222">
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="F222" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="223">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="F223" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="224">
@@ -6649,7 +6649,7 @@
         </is>
       </c>
       <c r="F224" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="225">
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="F225" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="226">
@@ -6705,7 +6705,7 @@
         </is>
       </c>
       <c r="F226" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="227">
@@ -6733,7 +6733,7 @@
         </is>
       </c>
       <c r="F227" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="228">
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="F228" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="229">
@@ -6789,7 +6789,7 @@
         </is>
       </c>
       <c r="F229" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="230">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="F230" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="231">
@@ -6845,7 +6845,7 @@
         </is>
       </c>
       <c r="F231" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="232">
@@ -6873,7 +6873,7 @@
         </is>
       </c>
       <c r="F232" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="233">
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="F233" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="234">
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="F234" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="235">
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="F235" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="236">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="F236" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="237">
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="F237" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="238">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="F238" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="239">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="F239" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="240">
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="F240" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="241">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="F241" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="242">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="F242" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="243">
@@ -7183,7 +7183,7 @@
         </is>
       </c>
       <c r="F243" s="2">
-        <v>43916</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="244">
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="F244" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="245">
@@ -7239,7 +7239,7 @@
         </is>
       </c>
       <c r="F245" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="246">
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="F246" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="247">
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="F247" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="248">
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="F248" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="249">
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="F249" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="250">
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="F250" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="251">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="F251" s="2">
-        <v>43916</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="252">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="F252" s="2">
-        <v>43916</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="253">
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="F253" s="2">
-        <v>43916</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="254">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="F254" s="2">
-        <v>43916</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="255">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="F255" s="2">
-        <v>43916</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="256">
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="F256" s="2">
-        <v>43916</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="257">
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="F257" s="2">
-        <v>43916</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="258">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="F258" s="2">
-        <v>43916</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="259">
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="F259" s="2">
-        <v>43916</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="260">
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="F260" s="2">
-        <v>43916</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="261">
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="F261" s="2">
-        <v>43916</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="262">
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="F262" s="2">
-        <v>43916</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="263">
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="F263" s="2">
-        <v>43916</v>
+        <v>43889</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1452"/>
+  <dimension ref="A1:K1457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7753,6 +7753,17 @@
           <t>England</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>EK412</t>
+        </is>
+      </c>
+      <c r="H162" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I162" s="3">
+        <v>43911</v>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
           <t>Overseas</t>
@@ -8106,9 +8117,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -9716,12 +9732,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9731,28 +9747,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>NZ5065</t>
-        </is>
-      </c>
-      <c r="H207" s="3">
-        <v>43906</v>
-      </c>
-      <c r="I207" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9782,12 +9782,28 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>NZ5065</t>
+        </is>
+      </c>
+      <c r="H208" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I208" s="3">
+        <v>43906</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -9802,30 +9818,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Northland</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H209" s="3">
-        <v>43911</v>
+          <t>Nelson Marlborough</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -9840,7 +9853,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9853,30 +9866,17 @@
           <t>Northland</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>AA83</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H210" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I210" s="3">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -9891,17 +9891,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9911,19 +9911,19 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>NZ671</t>
+          <t>AA83</t>
         </is>
       </c>
       <c r="H211" s="3">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="I211" s="3">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -9962,16 +9962,16 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>EK6</t>
+          <t>NZ671</t>
         </is>
       </c>
       <c r="H212" s="3">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I212" s="3">
         <v>43913</v>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10008,12 +10008,28 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>EK6</t>
+        </is>
+      </c>
+      <c r="H213" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I213" s="3">
+        <v>43913</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -10028,12 +10044,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10043,20 +10059,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I214" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -10076,7 +10084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10091,16 +10099,8 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>JQ285</t>
-        </is>
-      </c>
-      <c r="H215" s="3">
-        <v>43909</v>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="I215" s="3">
         <v>43909</v>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10137,12 +10137,28 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>JQ285</t>
+        </is>
+      </c>
+      <c r="H216" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I216" s="3">
+        <v>43909</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -10162,7 +10178,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10172,28 +10188,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>NZ671</t>
-        </is>
-      </c>
-      <c r="H217" s="3">
-        <v>43906</v>
-      </c>
-      <c r="I217" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -10208,17 +10208,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -10228,11 +10228,19 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Indonesia</t>
-        </is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>NZ671</t>
+        </is>
+      </c>
+      <c r="H218" s="3">
+        <v>43906</v>
       </c>
       <c r="I218" s="3">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -10256,7 +10264,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10266,12 +10274,20 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="I219" s="3">
+        <v>43913</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -10291,38 +10307,22 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Wairarapa</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>QF161</t>
-        </is>
-      </c>
-      <c r="H220" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I220" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -10337,12 +10337,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -10352,12 +10352,28 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>QF161</t>
+        </is>
+      </c>
+      <c r="H221" s="3">
+        <v>43910</v>
+      </c>
+      <c r="I221" s="3">
+        <v>43910</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -10372,40 +10388,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Wairarapa</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>NZ29</t>
-        </is>
-      </c>
-      <c r="I222" s="3">
-        <v>43908</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -10425,7 +10428,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -10445,14 +10448,14 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>NZ8</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H223" s="3">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="I223" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -10476,7 +10479,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -10486,12 +10489,28 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>NZ8</t>
+        </is>
+      </c>
+      <c r="H224" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I224" s="3">
+        <v>43909</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -10521,28 +10540,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H225" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I225" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -10562,7 +10565,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -10572,12 +10575,28 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H226" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I226" s="3">
+        <v>43913</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -10597,7 +10616,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -10627,12 +10646,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -10642,28 +10661,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H228" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I228" s="3">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -10683,7 +10686,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10698,16 +10701,16 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>AA83</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H229" s="3">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I229" s="3">
         <v>43911</v>
@@ -10734,7 +10737,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10749,19 +10752,19 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>NZ31</t>
+          <t>AA83</t>
         </is>
       </c>
       <c r="H230" s="3">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="I230" s="3">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -10780,27 +10783,48 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
-        </is>
+          <t>Waitemata</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>NZ31</t>
+        </is>
+      </c>
+      <c r="H231" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I231" s="3">
+        <v>43907</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -10810,12 +10834,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10823,14 +10847,9 @@
           <t>Bay of Plenty</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -10845,17 +10864,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10958,9 +10977,14 @@
           <t>Auckland</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17099,7 +17123,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>NZ1</t>
+          <t>NZ01</t>
         </is>
       </c>
       <c r="H376" s="3">
@@ -17797,9 +17821,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -18652,9 +18681,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -21037,9 +21071,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -21325,9 +21364,30 @@
           <t>Auckland</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>EK450</t>
+        </is>
+      </c>
+      <c r="H477" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I477" s="3">
+        <v>43914</v>
+      </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -21362,19 +21422,11 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>EK450</t>
-        </is>
-      </c>
-      <c r="H478" s="3">
-        <v>43913</v>
+          <t>Qatar</t>
+        </is>
       </c>
       <c r="I478" s="3">
-        <v>43914</v>
+        <v>43907</v>
       </c>
       <c r="J478" t="inlineStr">
         <is>
@@ -21413,7 +21465,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="I479" s="3">
@@ -23963,9 +24015,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -24063,9 +24120,14 @@
           <t>Auckland</t>
         </is>
       </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -24387,7 +24449,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>EK412</t>
+          <t>EK00412</t>
         </is>
       </c>
       <c r="H551" s="3">
@@ -26176,9 +26238,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -26488,8 +26555,13 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="I605" s="3">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="J605" t="inlineStr">
         <is>
@@ -26528,11 +26600,19 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H606" s="3">
+        <v>43910</v>
       </c>
       <c r="I606" s="3">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="J606" t="inlineStr">
         <is>
@@ -26571,19 +26651,11 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H607" s="3">
-        <v>43910</v>
+          <t>United Arab Emirates</t>
+        </is>
       </c>
       <c r="I607" s="3">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="J607" t="inlineStr">
         <is>
@@ -27413,9 +27485,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -28471,9 +28548,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -28552,9 +28634,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -28633,9 +28720,14 @@
           <t>Waitemata</t>
         </is>
       </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -28920,7 +29012,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>QF141</t>
+          <t>QF143</t>
         </is>
       </c>
       <c r="H667" s="3">
@@ -29010,9 +29102,14 @@
           <t>Auckland</t>
         </is>
       </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -31949,8 +32046,16 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>QF143</t>
+        </is>
+      </c>
+      <c r="H744" s="3">
+        <v>43908</v>
       </c>
       <c r="I744" s="3">
         <v>43908</v>
@@ -32152,12 +32257,12 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -32167,12 +32272,28 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H749" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I749" s="3">
+        <v>43914</v>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K749" t="inlineStr">
@@ -32187,27 +32308,43 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H750" s="3">
+        <v>43917</v>
+      </c>
+      <c r="I750" s="3">
+        <v>43917</v>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -32227,12 +32364,12 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -32242,11 +32379,19 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H751" s="3">
+        <v>43917</v>
       </c>
       <c r="I751" s="3">
-        <v>43912</v>
+        <v>43917</v>
       </c>
       <c r="J751" t="inlineStr">
         <is>
@@ -32270,38 +32415,30 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F752" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>NZ5145</t>
         </is>
       </c>
       <c r="H752" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I752" s="3">
         <v>43914</v>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -32316,12 +32453,12 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -32336,19 +32473,19 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H753" s="3">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="I753" s="3">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="J753" t="inlineStr">
         <is>
@@ -32372,7 +32509,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -32387,19 +32524,16 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Polynesia</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H754" s="3">
-        <v>43917</v>
+          <t>HA445</t>
+        </is>
       </c>
       <c r="I754" s="3">
-        <v>43917</v>
+        <v>43907</v>
       </c>
       <c r="J754" t="inlineStr">
         <is>
@@ -32423,26 +32557,18 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>NZ5145</t>
-        </is>
-      </c>
-      <c r="H755" s="3">
-        <v>43914</v>
       </c>
       <c r="J755" t="inlineStr">
         <is>
@@ -32461,17 +32587,17 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -32481,19 +32607,11 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H756" s="3">
-        <v>43912</v>
+          <t>Singapore</t>
+        </is>
       </c>
       <c r="I756" s="3">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="J756" t="inlineStr">
         <is>
@@ -32512,17 +32630,17 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -32532,12 +32650,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>Polynesia</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>HA445</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="I757" s="3">
@@ -32560,17 +32673,17 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -32595,12 +32708,12 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -32610,20 +32723,12 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="I759" s="3">
-        <v>43907</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -32638,12 +32743,12 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -32658,11 +32763,11 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I760" s="3">
-        <v>43907</v>
+        <v>43897</v>
       </c>
       <c r="J760" t="inlineStr">
         <is>
@@ -32681,35 +32786,35 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I761" s="3">
-        <v>43897</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>NZ5015</t>
+        </is>
+      </c>
+      <c r="H761" s="3">
+        <v>43912</v>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -32729,7 +32834,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -32739,20 +32844,28 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>NZ5015</t>
+          <t>NZ104</t>
         </is>
       </c>
       <c r="H762" s="3">
-        <v>43912</v>
+        <v>43913</v>
+      </c>
+      <c r="I762" s="3">
+        <v>43913</v>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -32767,12 +32880,12 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -32787,19 +32900,19 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>NZ104</t>
+          <t>NZ5011</t>
         </is>
       </c>
       <c r="H763" s="3">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="I763" s="3">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="J763" t="inlineStr">
         <is>
@@ -32823,7 +32936,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
@@ -32838,19 +32951,19 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>NZ5011</t>
+          <t>NZ104</t>
         </is>
       </c>
       <c r="H764" s="3">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="I764" s="3">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="J764" t="inlineStr">
         <is>
@@ -32869,17 +32982,17 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -32889,19 +33002,11 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>NZ104</t>
-        </is>
-      </c>
-      <c r="H765" s="3">
-        <v>43913</v>
+          <t>Fiji</t>
+        </is>
       </c>
       <c r="I765" s="3">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="J765" t="inlineStr">
         <is>
@@ -32920,12 +33025,12 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -32940,7 +33045,12 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>NZ8113</t>
         </is>
       </c>
       <c r="I766" s="3">
@@ -32963,17 +33073,17 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -32983,16 +33093,11 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>NZ8113</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="I767" s="3">
-        <v>43909</v>
+        <v>43915</v>
       </c>
       <c r="J767" t="inlineStr">
         <is>
@@ -33016,7 +33121,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -33031,11 +33136,11 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="I768" s="3">
-        <v>43915</v>
+        <v>43908</v>
       </c>
       <c r="J768" t="inlineStr">
         <is>
@@ -33054,12 +33159,12 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -33074,11 +33179,11 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="I769" s="3">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="J769" t="inlineStr">
         <is>
@@ -33097,35 +33202,27 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F770" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="I770" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -33145,12 +33242,12 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -33180,7 +33277,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -33225,12 +33322,20 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I773" s="3">
+        <v>43913</v>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -33250,7 +33355,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -33260,20 +33365,12 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F774" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I774" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K774" t="inlineStr">
@@ -33293,7 +33390,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -33408,12 +33505,28 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>QF121</t>
+        </is>
+      </c>
+      <c r="H778" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I778" s="3">
+        <v>43913</v>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K778" t="inlineStr">
@@ -33433,7 +33546,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -33443,28 +33556,12 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>QF121</t>
-        </is>
-      </c>
-      <c r="H779" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I779" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K779" t="inlineStr">
@@ -33514,12 +33611,12 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -33589,7 +33686,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -33624,7 +33721,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -33669,12 +33766,20 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I785" s="3">
+        <v>43913</v>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -33689,17 +33794,17 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -33709,11 +33814,19 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>SQ285</t>
+        </is>
+      </c>
+      <c r="H786" s="3">
+        <v>43913</v>
       </c>
       <c r="I786" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="J786" t="inlineStr">
         <is>
@@ -33742,33 +33855,17 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F787" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>SQ285</t>
-        </is>
-      </c>
-      <c r="H787" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I787" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -33788,7 +33885,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
@@ -33823,7 +33920,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -33868,12 +33965,23 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>QR146</t>
+        </is>
+      </c>
+      <c r="H790" s="3">
+        <v>43908</v>
+      </c>
+      <c r="I790" s="3">
+        <v>43910</v>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -33888,12 +33996,12 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -33903,23 +34011,12 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>QR146</t>
-        </is>
-      </c>
-      <c r="H791" s="3">
-        <v>43908</v>
-      </c>
-      <c r="I791" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -33949,12 +34046,28 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>EK488</t>
+        </is>
+      </c>
+      <c r="H792" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I792" s="3">
+        <v>43914</v>
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -33989,16 +34102,16 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>EK488</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H793" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I793" s="3">
         <v>43914</v>
@@ -34025,7 +34138,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -34035,28 +34148,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H794" s="3">
-        <v>43914</v>
-      </c>
-      <c r="I794" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K794" t="inlineStr">
@@ -34106,17 +34203,17 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitemata</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -34146,7 +34243,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -34156,12 +34253,28 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>QF143</t>
+        </is>
+      </c>
+      <c r="H797" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I797" s="3">
+        <v>43938</v>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K797" t="inlineStr">
@@ -34181,7 +34294,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -34191,28 +34304,12 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F798" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>QF143</t>
-        </is>
-      </c>
-      <c r="H798" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I798" s="3">
-        <v>43938</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -34262,12 +34359,12 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -34312,12 +34409,28 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H801" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I801" s="3">
+        <v>43909</v>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -34337,7 +34450,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -34347,28 +34460,12 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>NZ5</t>
-        </is>
-      </c>
-      <c r="H802" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I802" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -34398,12 +34495,20 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I803" s="3">
+        <v>43912</v>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -35681,6 +35786,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>NZ698</t>
+        </is>
+      </c>
+      <c r="H835" s="3">
+        <v>43913</v>
+      </c>
       <c r="J835" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -37776,9 +37889,14 @@
           <t>Hawke's Bay</t>
         </is>
       </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -37806,9 +37924,14 @@
           <t>Hawke's Bay</t>
         </is>
       </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -41855,7 +41978,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -43690,6 +43813,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>QF141</t>
+        </is>
+      </c>
+      <c r="H1045" s="3">
+        <v>43908</v>
+      </c>
       <c r="I1045" s="3">
         <v>43908</v>
       </c>
@@ -52419,9 +52550,14 @@
           <t>Canterbury</t>
         </is>
       </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1280" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1280" t="inlineStr">
@@ -55412,9 +55548,14 @@
           <t>Northland</t>
         </is>
       </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1359" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1359" t="inlineStr">
@@ -58481,9 +58622,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1445" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1445" t="inlineStr">
@@ -58727,6 +58873,179 @@
         </is>
       </c>
       <c r="K1452" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>Waitemata</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1453" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I1453" s="3">
+        <v>43921</v>
+      </c>
+      <c r="J1453" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1453" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="J1454" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1454" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="J1455" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1455" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1456" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1456" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>Waitemata</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1457" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1457" t="inlineStr">
         <is>
           <t>Probable</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1462"/>
+  <dimension ref="A1:K1475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1273,6 +1273,9 @@
           <t>Singapore</t>
         </is>
       </c>
+      <c r="I19" s="3">
+        <v>43905</v>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Overseas</t>
@@ -1727,7 +1730,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1770,7 +1773,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1864,6 +1867,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NZ0413</t>
+        </is>
+      </c>
       <c r="H32" s="3">
         <v>43894</v>
       </c>
@@ -2766,7 +2774,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3322,7 +3330,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3373,7 +3381,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4222,7 +4230,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I85" s="3">
@@ -4400,7 +4408,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6014,7 +6022,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6065,7 +6073,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6100,7 +6108,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6146,7 +6154,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6197,7 +6205,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6532,7 +6540,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>QF0141</t>
+          <t>QF141</t>
         </is>
       </c>
       <c r="H136" s="3">
@@ -7683,6 +7691,11 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>PILOT?</t>
+        </is>
+      </c>
       <c r="I160" s="3">
         <v>43909</v>
       </c>
@@ -7882,6 +7895,14 @@
           <t>England</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>EK7563</t>
+        </is>
+      </c>
+      <c r="H165" s="3">
+        <v>43909</v>
+      </c>
       <c r="I165" s="3">
         <v>43909</v>
       </c>
@@ -8122,7 +8143,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8157,7 +8178,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8576,6 +8597,14 @@
           <t>United States of America</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>NZ05</t>
+        </is>
+      </c>
+      <c r="H182" s="3">
+        <v>43905</v>
+      </c>
       <c r="I182" s="3">
         <v>43907</v>
       </c>
@@ -9874,6 +9903,16 @@
           <t>Northland</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
       <c r="G210" t="inlineStr">
         <is>
           <t>EK448</t>
@@ -9882,9 +9921,12 @@
       <c r="H210" s="3">
         <v>43911</v>
       </c>
+      <c r="I210" s="3">
+        <v>43911</v>
+      </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -10441,7 +10483,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10492,7 +10534,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10543,7 +10585,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -10578,7 +10620,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -10629,7 +10671,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -10664,7 +10706,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10699,7 +10741,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10750,7 +10792,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10801,7 +10843,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10855,9 +10897,14 @@
           <t>Bay of Plenty</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -10952,7 +10999,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -11070,6 +11117,14 @@
           <t>Singapore</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>NZ3285</t>
+        </is>
+      </c>
+      <c r="H238" s="3">
+        <v>43907</v>
+      </c>
       <c r="I238" s="3">
         <v>43908</v>
       </c>
@@ -14018,7 +14073,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -14069,7 +14124,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -14104,7 +14159,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -14139,7 +14194,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -14190,7 +14245,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -14241,7 +14296,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -14276,7 +14331,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -14327,7 +14382,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -14370,7 +14425,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -14542,7 +14597,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -16586,7 +16641,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Tairawhiti</t>
+          <t>Tairāwhiti</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -17121,7 +17176,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -17172,7 +17227,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -17223,7 +17278,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -17258,7 +17313,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -17293,7 +17348,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -17344,7 +17399,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -17395,7 +17450,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -17438,7 +17493,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -17847,7 +17902,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -17882,7 +17937,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -17925,7 +17980,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -20662,7 +20717,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -20713,7 +20768,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -21097,7 +21152,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -21132,7 +21187,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -21497,6 +21552,14 @@
           <t>United States of America</t>
         </is>
       </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>NZ05</t>
+        </is>
+      </c>
+      <c r="H479" s="3">
+        <v>43905</v>
+      </c>
       <c r="I479" s="3">
         <v>43907</v>
       </c>
@@ -21552,12 +21615,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -21567,28 +21630,12 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>NZ1</t>
-        </is>
-      </c>
-      <c r="H481" s="3">
-        <v>43915</v>
-      </c>
-      <c r="I481" s="3">
-        <v>43917</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -21608,7 +21655,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -21688,12 +21735,28 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H484" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I484" s="3">
+        <v>43912</v>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -21708,17 +21771,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -21728,19 +21791,19 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>EK2</t>
         </is>
       </c>
       <c r="H485" s="3">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I485" s="3">
-        <v>43912</v>
+        <v>43916</v>
       </c>
       <c r="J485" t="inlineStr">
         <is>
@@ -21764,7 +21827,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -21779,19 +21842,19 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Northern America</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>EK2</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H486" s="3">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="I486" s="3">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="J486" t="inlineStr">
         <is>
@@ -21815,12 +21878,12 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -21830,19 +21893,19 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Northern America</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>NZ29</t>
+          <t>EK412</t>
         </is>
       </c>
       <c r="H487" s="3">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="I487" s="3">
-        <v>43908</v>
+        <v>43913</v>
       </c>
       <c r="J487" t="inlineStr">
         <is>
@@ -21866,7 +21929,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -21881,19 +21944,19 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>EK412</t>
+          <t>QF133</t>
         </is>
       </c>
       <c r="H488" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I488" s="3">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="J488" t="inlineStr">
         <is>
@@ -21912,12 +21975,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -21932,19 +21995,11 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>QF133</t>
-        </is>
-      </c>
-      <c r="H489" s="3">
-        <v>43914</v>
+          <t>France</t>
+        </is>
       </c>
       <c r="I489" s="3">
-        <v>43914</v>
+        <v>43906</v>
       </c>
       <c r="J489" t="inlineStr">
         <is>
@@ -21968,7 +22023,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -21983,11 +22038,19 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>QF133</t>
+        </is>
+      </c>
+      <c r="H490" s="3">
+        <v>43914</v>
       </c>
       <c r="I490" s="3">
-        <v>43906</v>
+        <v>43914</v>
       </c>
       <c r="J490" t="inlineStr">
         <is>
@@ -22006,17 +22069,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -22026,12 +22089,12 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>QF133</t>
+          <t>NZ5374</t>
         </is>
       </c>
       <c r="H491" s="3">
@@ -22062,7 +22125,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -22077,19 +22140,19 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>NZ5374</t>
+          <t>NZ443</t>
         </is>
       </c>
       <c r="H492" s="3">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="I492" s="3">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
@@ -22128,19 +22191,19 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>NZ443</t>
+          <t>NZ429</t>
         </is>
       </c>
       <c r="H493" s="3">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="I493" s="3">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="J493" t="inlineStr">
         <is>
@@ -22164,7 +22227,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -22174,28 +22237,12 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>NZ429</t>
-        </is>
-      </c>
-      <c r="H494" s="3">
-        <v>43912</v>
-      </c>
-      <c r="I494" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -22215,7 +22262,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -22225,12 +22272,28 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>NZ433</t>
+        </is>
+      </c>
+      <c r="H495" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I495" s="3">
+        <v>43907</v>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -22250,12 +22313,12 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -22265,19 +22328,19 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>NZ433</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H496" s="3">
-        <v>43907</v>
+        <v>43913</v>
       </c>
       <c r="I496" s="3">
-        <v>43907</v>
+        <v>43913</v>
       </c>
       <c r="J496" t="inlineStr">
         <is>
@@ -22301,7 +22364,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -22311,28 +22374,12 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H497" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I497" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -22387,7 +22434,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -22422,7 +22469,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -22432,12 +22479,28 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>NZ1</t>
+        </is>
+      </c>
+      <c r="H500" s="3">
+        <v>43915</v>
+      </c>
+      <c r="I500" s="3">
+        <v>43917</v>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -23288,7 +23351,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -23323,7 +23386,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -23358,7 +23421,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -23393,7 +23456,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -23428,7 +23491,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -23479,7 +23542,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -23530,7 +23593,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -23542,6 +23605,14 @@
         <is>
           <t>United States of America</t>
         </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H528" s="3">
+        <v>43908</v>
       </c>
       <c r="I528" s="3">
         <v>43909</v>
@@ -23573,7 +23644,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -23608,7 +23679,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -23643,7 +23714,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -23678,7 +23749,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -23721,7 +23792,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -23772,7 +23843,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -24079,7 +24150,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -24114,7 +24185,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -24149,7 +24220,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -24159,12 +24230,28 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>NZ1</t>
+        </is>
+      </c>
+      <c r="H544" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I544" s="3">
+        <v>43914</v>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -24179,12 +24266,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -24194,28 +24281,12 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>NZ1</t>
-        </is>
-      </c>
-      <c r="H545" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I545" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -24245,12 +24316,28 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>QF141</t>
+        </is>
+      </c>
+      <c r="H546" s="3">
+        <v>43908</v>
+      </c>
+      <c r="I546" s="3">
+        <v>43908</v>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -24285,19 +24372,19 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>QF141</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H547" s="3">
-        <v>43908</v>
+        <v>43913</v>
       </c>
       <c r="I547" s="3">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="J547" t="inlineStr">
         <is>
@@ -24321,7 +24408,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -24336,19 +24423,11 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>NZ29</t>
-        </is>
-      </c>
-      <c r="H548" s="3">
-        <v>43913</v>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="I548" s="3">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="J548" t="inlineStr">
         <is>
@@ -24372,7 +24451,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -24387,11 +24466,19 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>SQ281</t>
+        </is>
+      </c>
+      <c r="H549" s="3">
+        <v>43909</v>
       </c>
       <c r="I549" s="3">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="J549" t="inlineStr">
         <is>
@@ -24410,17 +24497,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -24430,19 +24517,19 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>SQ281</t>
+          <t>EK00412</t>
         </is>
       </c>
       <c r="H550" s="3">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="I550" s="3">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="J550" t="inlineStr">
         <is>
@@ -24461,7 +24548,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -24476,28 +24563,12 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>EK00412</t>
-        </is>
-      </c>
-      <c r="H551" s="3">
-        <v>43905</v>
-      </c>
-      <c r="I551" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -24512,7 +24583,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -24522,17 +24593,33 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>QF171</t>
+        </is>
+      </c>
+      <c r="H552" s="3">
+        <v>43914</v>
+      </c>
+      <c r="I552" s="3">
+        <v>43914</v>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -24567,19 +24654,19 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>QF171</t>
+          <t>NZ433</t>
         </is>
       </c>
       <c r="H553" s="3">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="I553" s="3">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="J553" t="inlineStr">
         <is>
@@ -24603,7 +24690,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -24613,28 +24700,15 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>NZ433</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H554" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I554" s="3">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -24654,7 +24728,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -24666,9 +24740,6 @@
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="H555" s="3">
-        <v>43913</v>
       </c>
       <c r="J555" t="inlineStr">
         <is>
@@ -24687,12 +24758,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -24702,12 +24773,28 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>NZ429</t>
+        </is>
+      </c>
+      <c r="H556" s="3">
+        <v>43912</v>
+      </c>
+      <c r="I556" s="3">
+        <v>43912</v>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -24727,7 +24814,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -24737,28 +24824,12 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>NZ429</t>
-        </is>
-      </c>
-      <c r="H557" s="3">
-        <v>43912</v>
-      </c>
-      <c r="I557" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -24778,7 +24849,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -24790,6 +24861,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>NZ8872</t>
+        </is>
+      </c>
+      <c r="H558" s="3">
+        <v>43915</v>
       </c>
       <c r="J558" t="inlineStr">
         <is>
@@ -24808,31 +24887,23 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>NZ8872</t>
-        </is>
-      </c>
-      <c r="H559" s="3">
-        <v>43915</v>
       </c>
       <c r="J559" t="inlineStr">
         <is>
@@ -26285,7 +26356,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -26320,7 +26391,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -26355,7 +26426,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -26390,7 +26461,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -26441,7 +26512,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -26492,7 +26563,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -26535,7 +26606,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -26570,7 +26641,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -26605,7 +26676,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -26648,7 +26719,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -26699,7 +26770,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -26750,7 +26821,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -26785,7 +26856,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -26820,7 +26891,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -27070,7 +27141,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -27105,7 +27176,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -28550,17 +28621,17 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -28595,33 +28666,17 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>LA801</t>
-        </is>
-      </c>
-      <c r="H655" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I655" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -28641,22 +28696,38 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>LA801</t>
+        </is>
+      </c>
+      <c r="H656" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I656" s="3">
+        <v>43910</v>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -28676,38 +28747,22 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F657" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H657" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I657" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -28722,17 +28777,17 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -28742,12 +28797,12 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H658" s="3">
@@ -28778,22 +28833,38 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H659" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I659" s="3">
+        <v>43914</v>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -28813,12 +28884,12 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -28833,7 +28904,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -28843,17 +28914,17 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -28878,17 +28949,17 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -28918,7 +28989,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -28948,17 +29019,17 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -28983,17 +29054,17 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -29028,7 +29099,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -29063,7 +29134,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -29114,7 +29185,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -30261,6 +30332,9 @@
       <c r="H695" s="3">
         <v>43912</v>
       </c>
+      <c r="I695" s="3">
+        <v>43912</v>
+      </c>
       <c r="J695" t="inlineStr">
         <is>
           <t>Overseas</t>
@@ -30565,9 +30639,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -31324,7 +31403,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -31359,7 +31438,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
@@ -31410,7 +31489,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -31461,7 +31540,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -31496,7 +31575,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -31531,7 +31610,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
@@ -31566,7 +31645,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -31601,7 +31680,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -31652,7 +31731,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -31862,6 +31941,11 @@
           <t>Bay of Plenty</t>
         </is>
       </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G737" t="inlineStr">
         <is>
           <t>NZ674</t>
@@ -31872,7 +31956,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -32072,7 +32156,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -32107,7 +32191,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -32158,7 +32242,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
@@ -32297,7 +32381,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -32309,7 +32393,7 @@
         <v>43909</v>
       </c>
       <c r="I748" s="3">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="J748" t="inlineStr">
         <is>
@@ -33350,6 +33434,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>QF121</t>
+        </is>
+      </c>
+      <c r="H772" s="3">
+        <v>43913</v>
+      </c>
       <c r="I772" s="3">
         <v>43913</v>
       </c>
@@ -33794,6 +33886,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>QF121</t>
+        </is>
+      </c>
+      <c r="H784" s="3">
+        <v>43913</v>
+      </c>
       <c r="I784" s="3">
         <v>43913</v>
       </c>
@@ -34233,7 +34333,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -34268,7 +34368,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -34319,7 +34419,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -34370,7 +34470,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
@@ -34405,7 +34505,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -34440,7 +34540,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -34475,7 +34575,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -34526,7 +34626,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
@@ -34561,7 +34661,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
@@ -35029,7 +35129,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
@@ -35080,7 +35180,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
@@ -35123,7 +35223,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
@@ -35158,7 +35258,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
@@ -35193,7 +35293,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
@@ -37333,7 +37433,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
@@ -37368,7 +37468,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
@@ -37419,7 +37519,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
@@ -37470,7 +37570,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
@@ -37505,7 +37605,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
@@ -38210,7 +38310,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
@@ -38245,7 +38345,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
@@ -38280,7 +38380,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
@@ -38315,7 +38415,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
@@ -38350,7 +38450,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
@@ -38398,7 +38498,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
@@ -38441,7 +38541,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
@@ -39234,6 +39334,14 @@
           <t>Singapore</t>
         </is>
       </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>NZ5021</t>
+        </is>
+      </c>
+      <c r="H921" s="3">
+        <v>43909</v>
+      </c>
       <c r="I921" s="3">
         <v>43909</v>
       </c>
@@ -40276,9 +40384,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -40333,7 +40446,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
@@ -40368,7 +40481,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
@@ -40403,7 +40516,7 @@
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E953" t="inlineStr">
@@ -40438,7 +40551,7 @@
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E954" t="inlineStr">
@@ -40489,7 +40602,7 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E955" t="inlineStr">
@@ -40524,7 +40637,7 @@
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E956" t="inlineStr">
@@ -40605,7 +40718,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
@@ -40640,12 +40753,12 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E959" t="inlineStr">
@@ -40675,12 +40788,12 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E960" t="inlineStr">
@@ -40710,7 +40823,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
@@ -40745,7 +40858,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -40775,7 +40888,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -40850,12 +40963,12 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E965" t="inlineStr">
@@ -40885,7 +40998,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D966" t="inlineStr">
@@ -40920,7 +41033,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D967" t="inlineStr">
@@ -40950,17 +41063,17 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E968" t="inlineStr">
@@ -41202,7 +41315,7 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E974" t="inlineStr">
@@ -41237,7 +41350,7 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E975" t="inlineStr">
@@ -42168,6 +42281,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>NZ602</t>
+        </is>
+      </c>
+      <c r="H999" s="3">
+        <v>43911</v>
+      </c>
       <c r="J999" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -42894,7 +43015,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr">
@@ -42929,7 +43050,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr">
@@ -42964,7 +43085,7 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr">
@@ -43015,7 +43136,7 @@
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
@@ -43801,7 +43922,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr">
@@ -43836,7 +43957,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr">
@@ -43871,7 +43992,7 @@
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1045" t="inlineStr">
@@ -43922,7 +44043,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1046" t="inlineStr">
@@ -43957,7 +44078,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr">
@@ -43992,7 +44113,7 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1048" t="inlineStr">
@@ -44027,7 +44148,7 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1049" t="inlineStr">
@@ -44070,7 +44191,7 @@
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1050" t="inlineStr">
@@ -44105,7 +44226,7 @@
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1051" t="inlineStr">
@@ -44140,7 +44261,7 @@
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1052" t="inlineStr">
@@ -44554,20 +44675,12 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1062" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1062" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -44582,7 +44695,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -44597,12 +44710,20 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1063" s="3">
+        <v>43909</v>
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -44667,20 +44788,12 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1065" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="I1065" s="3">
-        <v>43915</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -44695,35 +44808,35 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>NZ5005</t>
-        </is>
-      </c>
-      <c r="H1066" s="3">
-        <v>43913</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="I1066" s="3">
+        <v>43915</v>
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -44743,7 +44856,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
@@ -44753,20 +44866,20 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1067" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="I1067" s="3">
-        <v>43907</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>NZ5005</t>
+        </is>
+      </c>
+      <c r="H1067" s="3">
+        <v>43913</v>
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -44781,12 +44894,12 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
@@ -44796,20 +44909,20 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>NZ5005</t>
-        </is>
-      </c>
-      <c r="H1068" s="3">
-        <v>43913</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="I1068" s="3">
+        <v>43907</v>
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -44829,18 +44942,26 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>NZ5005</t>
+        </is>
+      </c>
+      <c r="H1069" s="3">
+        <v>43913</v>
       </c>
       <c r="J1069" t="inlineStr">
         <is>
@@ -44874,28 +44995,12 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>JQ290</t>
-        </is>
-      </c>
-      <c r="H1070" s="3">
-        <v>43912</v>
-      </c>
-      <c r="I1070" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">
@@ -44910,27 +45015,43 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>JQ290</t>
+        </is>
+      </c>
+      <c r="H1071" s="3">
+        <v>43912</v>
+      </c>
+      <c r="I1071" s="3">
+        <v>43912</v>
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -44945,7 +45066,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -44980,17 +45101,17 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr">
@@ -45015,12 +45136,12 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
@@ -45050,17 +45171,17 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
@@ -45090,7 +45211,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
@@ -45160,7 +45281,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr">
@@ -45195,7 +45316,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr">
@@ -45225,12 +45346,12 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1080" t="inlineStr">
@@ -45265,7 +45386,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
@@ -45300,7 +45421,7 @@
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr">
@@ -45335,7 +45456,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
@@ -45405,7 +45526,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr">
@@ -45415,28 +45536,12 @@
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1085" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>NZ5713</t>
-        </is>
-      </c>
-      <c r="H1085" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I1085" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1085" t="inlineStr">
@@ -45456,7 +45561,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
@@ -45466,12 +45571,28 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>NZ5713</t>
+        </is>
+      </c>
+      <c r="H1086" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I1086" s="3">
+        <v>43913</v>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -45491,7 +45612,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr">
@@ -45526,7 +45647,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr">
@@ -45556,17 +45677,17 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr">
@@ -45631,7 +45752,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
@@ -45666,12 +45787,12 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1092" t="inlineStr">
@@ -45701,12 +45822,12 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
@@ -45736,12 +45857,12 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1094" t="inlineStr">
@@ -45776,7 +45897,7 @@
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1095" t="inlineStr">
@@ -45811,7 +45932,7 @@
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1096" t="inlineStr">
@@ -46554,6 +46675,11 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
       <c r="G1117" t="inlineStr">
         <is>
           <t>EK448</t>
@@ -46592,7 +46718,7 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr">
@@ -46627,7 +46753,7 @@
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1119" t="inlineStr">
@@ -46662,7 +46788,7 @@
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1120" t="inlineStr">
@@ -46697,7 +46823,7 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr">
@@ -48524,9 +48650,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1170" t="inlineStr">
@@ -48691,7 +48822,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr">
@@ -49361,7 +49492,7 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr">
@@ -49412,7 +49543,7 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr">
@@ -49447,7 +49578,7 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr">
@@ -49482,7 +49613,7 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr">
@@ -49525,7 +49656,7 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1197" t="inlineStr">
@@ -49560,7 +49691,7 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1198" t="inlineStr">
@@ -49595,7 +49726,7 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr">
@@ -50042,7 +50173,7 @@
       </c>
       <c r="D1211" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1211" t="inlineStr">
@@ -50077,7 +50208,7 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr">
@@ -50671,7 +50802,7 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr">
@@ -50706,7 +50837,7 @@
       </c>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr">
@@ -50754,7 +50885,7 @@
       </c>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr">
@@ -50789,7 +50920,7 @@
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr">
@@ -51177,7 +51308,7 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1240" t="inlineStr">
@@ -52178,7 +52309,7 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr">
@@ -52213,7 +52344,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr">
@@ -52248,7 +52379,7 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr">
@@ -52283,7 +52414,7 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr">
@@ -52426,9 +52557,14 @@
           <t>Bay of Plenty</t>
         </is>
       </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1274" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1274" t="inlineStr">
@@ -52797,7 +52933,7 @@
     </row>
     <row r="1285">
       <c r="A1285" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
@@ -52806,12 +52942,12 @@
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr">
@@ -52826,7 +52962,7 @@
       </c>
       <c r="K1285" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -52841,22 +52977,38 @@
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1286" s="3">
+        <v>43928</v>
+      </c>
+      <c r="I1286" s="3">
+        <v>43929</v>
       </c>
       <c r="J1286" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1286" t="inlineStr">
@@ -52876,12 +53028,12 @@
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr">
@@ -52891,19 +53043,19 @@
       </c>
       <c r="F1287" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>EK488</t>
         </is>
       </c>
       <c r="H1287" s="3">
-        <v>43928</v>
+        <v>43911</v>
       </c>
       <c r="I1287" s="3">
-        <v>43929</v>
+        <v>43911</v>
       </c>
       <c r="J1287" t="inlineStr">
         <is>
@@ -52922,12 +53074,12 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr">
@@ -52937,28 +53089,12 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1288" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>EK488</t>
-        </is>
-      </c>
-      <c r="H1288" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I1288" s="3">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1288" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1288" t="inlineStr">
@@ -52973,27 +53109,43 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H1289" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I1289" s="3">
+        <v>43915</v>
       </c>
       <c r="J1289" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1289" t="inlineStr">
@@ -53013,38 +53165,22 @@
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1290" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G1290" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H1290" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I1290" s="3">
-        <v>43915</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1290" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1290" t="inlineStr">
@@ -53064,12 +53200,12 @@
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr">
@@ -53104,7 +53240,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr">
@@ -53134,12 +53270,12 @@
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr">
@@ -53154,7 +53290,7 @@
       </c>
       <c r="K1293" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -53169,7 +53305,7 @@
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr">
@@ -53234,12 +53370,12 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr">
@@ -53269,17 +53405,17 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1297" t="inlineStr">
@@ -53309,12 +53445,12 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
@@ -53344,7 +53480,7 @@
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr">
@@ -53379,22 +53515,30 @@
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="I1300" s="3">
+        <v>43909</v>
       </c>
       <c r="J1300" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1300" t="inlineStr">
@@ -53414,12 +53558,12 @@
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E1301" t="inlineStr">
@@ -53429,11 +53573,19 @@
       </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>CX2190</t>
+        </is>
+      </c>
+      <c r="H1301" s="3">
+        <v>43913</v>
       </c>
       <c r="I1301" s="3">
-        <v>43909</v>
+        <v>43915</v>
       </c>
       <c r="J1301" t="inlineStr">
         <is>
@@ -53457,38 +53609,22 @@
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1302" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G1302" t="inlineStr">
-        <is>
-          <t>CX2190</t>
-        </is>
-      </c>
-      <c r="H1302" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I1302" s="3">
-        <v>43915</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1302" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1302" t="inlineStr">
@@ -53543,7 +53679,7 @@
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr">
@@ -53553,12 +53689,20 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1304" s="3">
+        <v>43901</v>
       </c>
       <c r="J1304" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1304" t="inlineStr">
@@ -53573,12 +53717,12 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr">
@@ -53588,20 +53732,12 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1305" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1305" s="3">
-        <v>43901</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1305" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1305" t="inlineStr">
@@ -53621,7 +53757,7 @@
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr">
@@ -53651,7 +53787,7 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -53661,7 +53797,7 @@
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr">
@@ -53691,7 +53827,7 @@
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr">
@@ -53731,7 +53867,7 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
@@ -53756,17 +53892,17 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -53796,12 +53932,12 @@
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -53822,7 +53958,7 @@
     </row>
     <row r="1312">
       <c r="A1312" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
@@ -53836,22 +53972,30 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="I1312" s="3">
+        <v>43917</v>
       </c>
       <c r="J1312" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1312" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -53866,12 +54010,12 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -53879,8 +54023,21 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1313" s="3">
+        <v>43928</v>
+      </c>
       <c r="I1313" s="3">
-        <v>43917</v>
+        <v>43929</v>
       </c>
       <c r="J1313" t="inlineStr">
         <is>
@@ -53899,43 +54056,27 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1314" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G1314" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H1314" s="3">
-        <v>43928</v>
-      </c>
-      <c r="I1314" s="3">
-        <v>43929</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1314" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1314" t="inlineStr">
@@ -53960,7 +54101,7 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -53990,17 +54131,35 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
-        </is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G1316" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="I1316" s="3">
+        <v>43913</v>
       </c>
       <c r="J1316" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1316" t="inlineStr">
@@ -54015,12 +54174,12 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="D1317" t="inlineStr">
@@ -54030,25 +54189,12 @@
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1317" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="I1317" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1317" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1317" t="inlineStr">
@@ -54068,7 +54214,7 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1318" t="inlineStr">
@@ -54113,12 +54259,28 @@
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1319" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>QR8</t>
+        </is>
+      </c>
+      <c r="H1319" s="3">
+        <v>43922</v>
+      </c>
+      <c r="I1319" s="3">
+        <v>43924</v>
       </c>
       <c r="J1319" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1319" t="inlineStr">
@@ -54133,43 +54295,27 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1320" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G1320" t="inlineStr">
-        <is>
-          <t>QR8</t>
-        </is>
-      </c>
-      <c r="H1320" s="3">
-        <v>43922</v>
-      </c>
-      <c r="I1320" s="3">
-        <v>43924</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1320" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1320" t="inlineStr">
@@ -54189,22 +54335,38 @@
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>AC51</t>
+        </is>
+      </c>
+      <c r="H1321" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I1321" s="3">
+        <v>43915</v>
       </c>
       <c r="J1321" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1321" t="inlineStr">
@@ -54224,38 +54386,22 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1322" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>AC51</t>
-        </is>
-      </c>
-      <c r="H1322" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I1322" s="3">
-        <v>43915</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1322" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1322" t="inlineStr">
@@ -54270,17 +54416,17 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr">
@@ -54310,12 +54456,12 @@
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr">
@@ -54340,32 +54486,48 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1325" s="3">
+        <v>43916</v>
+      </c>
+      <c r="I1325" s="3">
+        <v>43917</v>
       </c>
       <c r="J1325" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1325" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -54375,12 +54537,12 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr">
@@ -54395,19 +54557,11 @@
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H1326" s="3">
-        <v>43916</v>
+          <t>Qatar</t>
+        </is>
       </c>
       <c r="I1326" s="3">
-        <v>43917</v>
+        <v>43921</v>
       </c>
       <c r="J1326" t="inlineStr">
         <is>
@@ -54436,25 +54590,17 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1327" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="I1327" s="3">
-        <v>43921</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1327" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1327" t="inlineStr">
@@ -54469,7 +54615,7 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
@@ -54479,17 +54625,25 @@
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Tairāwhiti</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1328" s="3">
+        <v>43914</v>
       </c>
       <c r="J1328" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1328" t="inlineStr">
@@ -54509,30 +54663,22 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>Tairawhiti</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1329" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1329" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1329" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1329" t="inlineStr">
@@ -54552,7 +54698,7 @@
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr">
@@ -54560,9 +54706,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1330" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1330" t="inlineStr">
@@ -54582,7 +54733,7 @@
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr">
@@ -54617,7 +54768,7 @@
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr">
@@ -54652,7 +54803,7 @@
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1333" t="inlineStr">
@@ -54660,9 +54811,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1333" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1333" t="inlineStr">
@@ -54682,12 +54838,12 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr">
@@ -54722,7 +54878,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr">
@@ -54747,17 +54903,17 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr">
@@ -54778,21 +54934,21 @@
     </row>
     <row r="1337">
       <c r="A1337" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr">
@@ -54807,7 +54963,7 @@
       </c>
       <c r="K1337" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -54822,7 +54978,7 @@
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1338" t="inlineStr">
@@ -54857,12 +55013,12 @@
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1339" t="inlineStr">
@@ -54892,12 +55048,12 @@
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E1340" t="inlineStr">
@@ -54922,12 +55078,12 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1341" t="inlineStr">
@@ -54937,12 +55093,20 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1341" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="I1341" s="3">
+        <v>43917</v>
       </c>
       <c r="J1341" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1341" t="inlineStr">
@@ -54957,17 +55121,17 @@
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E1342" t="inlineStr">
@@ -54977,11 +55141,19 @@
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>Qatar</t>
-        </is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>NZ1</t>
+        </is>
+      </c>
+      <c r="H1342" s="3">
+        <v>43926</v>
       </c>
       <c r="I1342" s="3">
-        <v>43917</v>
+        <v>43927</v>
       </c>
       <c r="J1342" t="inlineStr">
         <is>
@@ -55000,7 +55172,7 @@
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
@@ -55051,43 +55223,27 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1344" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G1344" t="inlineStr">
-        <is>
-          <t>NZ1</t>
-        </is>
-      </c>
-      <c r="H1344" s="3">
-        <v>43926</v>
-      </c>
-      <c r="I1344" s="3">
-        <v>43927</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1344" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1344" t="inlineStr">
@@ -55112,7 +55268,7 @@
       </c>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1345" t="inlineStr">
@@ -55137,17 +55293,17 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -55182,17 +55338,33 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1347" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1347" s="3">
+        <v>43918</v>
+      </c>
+      <c r="I1347" s="3">
+        <v>43919</v>
       </c>
       <c r="J1347" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1347" t="inlineStr">
@@ -55207,48 +55379,32 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1348" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G1348" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H1348" s="3">
-        <v>43918</v>
-      </c>
-      <c r="I1348" s="3">
-        <v>43919</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1348" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1348" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -55293,7 +55449,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -55333,12 +55489,12 @@
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -55368,17 +55524,35 @@
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>Canterbury</t>
-        </is>
+          <t>Capital and Coast</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1352" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1352" t="inlineStr">
+        <is>
+          <t>EK10</t>
+        </is>
+      </c>
+      <c r="I1352" s="3">
+        <v>43911</v>
       </c>
       <c r="J1352" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1352" t="inlineStr">
@@ -55398,35 +55572,22 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1353" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1353" t="inlineStr">
-        <is>
-          <t>EK10</t>
-        </is>
-      </c>
-      <c r="I1353" s="3">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1353" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1353" t="inlineStr">
@@ -55446,7 +55607,7 @@
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr">
@@ -55542,21 +55703,21 @@
     </row>
     <row r="1357">
       <c r="A1357" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr">
@@ -55571,7 +55732,7 @@
       </c>
       <c r="K1357" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -55581,17 +55742,17 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr">
@@ -55621,12 +55782,12 @@
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr">
@@ -55661,7 +55822,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr">
@@ -55676,7 +55837,7 @@
       </c>
       <c r="K1360" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -55686,17 +55847,17 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr">
@@ -55726,12 +55887,12 @@
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1362" t="inlineStr">
@@ -55761,12 +55922,12 @@
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr">
@@ -55801,7 +55962,7 @@
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr">
@@ -55831,12 +55992,12 @@
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1365" t="inlineStr">
@@ -55866,12 +56027,12 @@
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr">
@@ -55896,17 +56057,17 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr">
@@ -55927,21 +56088,21 @@
     </row>
     <row r="1368">
       <c r="A1368" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr">
@@ -55956,7 +56117,7 @@
       </c>
       <c r="K1368" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -55971,17 +56132,22 @@
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1369" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1369" t="inlineStr">
@@ -55996,12 +56162,12 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr">
@@ -56011,12 +56177,28 @@
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1370" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1370" t="inlineStr">
+        <is>
+          <t>MFAT</t>
+        </is>
+      </c>
+      <c r="H1370" s="3">
+        <v>43933</v>
+      </c>
+      <c r="I1370" s="3">
+        <v>43933</v>
       </c>
       <c r="J1370" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1370" t="inlineStr">
@@ -56036,33 +56218,22 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1371" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="H1371" s="3">
-        <v>43933</v>
-      </c>
-      <c r="I1371" s="3">
-        <v>43933</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1371" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1371" t="inlineStr">
@@ -56077,7 +56248,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -56087,7 +56258,7 @@
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Tairāwhiti</t>
         </is>
       </c>
       <c r="E1372" t="inlineStr">
@@ -56112,17 +56283,17 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>Tairawhiti</t>
+          <t>Tairāwhiti</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr">
@@ -56147,7 +56318,7 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr">
@@ -56157,7 +56328,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>Tairawhiti</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr">
@@ -56172,7 +56343,7 @@
       </c>
       <c r="K1374" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -56187,12 +56358,12 @@
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr">
@@ -56222,7 +56393,7 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr">
@@ -56252,12 +56423,12 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr">
@@ -56292,12 +56463,12 @@
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr">
@@ -56327,12 +56498,12 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr">
@@ -56362,7 +56533,7 @@
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr">
@@ -56392,17 +56563,17 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr">
@@ -56423,21 +56594,21 @@
     </row>
     <row r="1382">
       <c r="A1382" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr">
@@ -56452,7 +56623,7 @@
       </c>
       <c r="K1382" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -56467,12 +56638,12 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr">
@@ -56497,17 +56668,17 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr">
@@ -56537,12 +56708,12 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr">
@@ -56572,12 +56743,12 @@
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr">
@@ -56592,7 +56763,7 @@
       </c>
       <c r="K1386" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -56607,12 +56778,12 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr">
@@ -56642,7 +56813,7 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr">
@@ -56672,12 +56843,12 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr">
@@ -56717,7 +56888,7 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr">
@@ -56742,27 +56913,22 @@
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>MidCentral</t>
-        </is>
-      </c>
-      <c r="E1391" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="J1391" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1391" t="inlineStr">
@@ -56777,12 +56943,12 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr">
@@ -56790,9 +56956,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1392" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1392" t="inlineStr">
@@ -56803,7 +56974,7 @@
     </row>
     <row r="1393">
       <c r="A1393" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
@@ -56812,12 +56983,12 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr">
@@ -56832,7 +57003,7 @@
       </c>
       <c r="K1393" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -56842,17 +57013,17 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr">
@@ -56882,7 +57053,7 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr">
@@ -56912,12 +57083,12 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr">
@@ -56952,12 +57123,12 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr">
@@ -56987,22 +57158,30 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1398" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="I1398" s="3">
+        <v>43933</v>
       </c>
       <c r="J1398" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1398" t="inlineStr">
@@ -57027,25 +57206,17 @@
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1399" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="I1399" s="3">
-        <v>43933</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1399" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1399" t="inlineStr">
@@ -57060,17 +57231,17 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1400" t="inlineStr">
@@ -57100,12 +57271,12 @@
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr">
@@ -57140,7 +57311,7 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr">
@@ -57175,7 +57346,7 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr">
@@ -57200,27 +57371,35 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1404" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1404" s="3">
+        <v>43934</v>
       </c>
       <c r="J1404" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1404" t="inlineStr">
@@ -57240,35 +57419,27 @@
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1405" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1405" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1405" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -57283,12 +57454,12 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr">
@@ -57313,17 +57484,17 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr">
@@ -57353,12 +57524,12 @@
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr">
@@ -57379,7 +57550,7 @@
     </row>
     <row r="1409">
       <c r="A1409" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
@@ -57388,12 +57559,12 @@
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr">
@@ -57408,17 +57579,17 @@
       </c>
       <c r="K1409" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -57428,7 +57599,7 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr">
@@ -57443,7 +57614,7 @@
       </c>
       <c r="K1410" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -57458,22 +57629,30 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I1411" s="3">
+        <v>43921</v>
       </c>
       <c r="J1411" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1411" t="inlineStr">
@@ -57493,22 +57672,30 @@
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1412" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I1412" s="3">
+        <v>43921</v>
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1412" t="inlineStr">
@@ -57523,7 +57710,7 @@
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
@@ -57533,25 +57720,17 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1413" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="I1413" s="3">
-        <v>43921</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1413" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1413" t="inlineStr">
@@ -57571,30 +57750,22 @@
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Whanganui</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1414" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="I1414" s="3">
-        <v>43921</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1414" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1414" t="inlineStr">
@@ -57609,17 +57780,17 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
@@ -57634,7 +57805,7 @@
       </c>
       <c r="K1415" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -57649,12 +57820,12 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>Whanganui</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr">
@@ -57669,7 +57840,7 @@
       </c>
       <c r="K1416" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -57689,7 +57860,7 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr">
@@ -57714,27 +57885,43 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1418" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G1418" t="inlineStr">
+        <is>
+          <t>NZ23</t>
+        </is>
+      </c>
+      <c r="H1418" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I1418" s="3">
+        <v>43913</v>
       </c>
       <c r="J1418" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1418" t="inlineStr">
@@ -57749,17 +57936,17 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1419" t="inlineStr">
@@ -57789,38 +57976,22 @@
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1420" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>NZ0023</t>
-        </is>
-      </c>
-      <c r="H1420" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I1420" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1420" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1420" t="inlineStr">
@@ -57831,21 +58002,21 @@
     </row>
     <row r="1421">
       <c r="A1421" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr">
@@ -57860,42 +58031,37 @@
       </c>
       <c r="K1421" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>Waitemata</t>
-        </is>
-      </c>
-      <c r="E1422" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="J1422" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1422" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -57915,17 +58081,28 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1423" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1423" s="3">
+        <v>43934</v>
+      </c>
+      <c r="I1423" s="3">
+        <v>43934</v>
       </c>
       <c r="J1423" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1423" t="inlineStr">
@@ -57945,17 +58122,30 @@
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>Canterbury</t>
-        </is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1424" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1424" s="3">
+        <v>43934</v>
       </c>
       <c r="J1424" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1424" t="inlineStr">
@@ -57975,33 +58165,22 @@
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1425" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="H1425" s="3">
-        <v>43934</v>
-      </c>
-      <c r="I1425" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1425" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1425" t="inlineStr">
@@ -58016,40 +58195,32 @@
       </c>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1426" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1426" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1426" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1426" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58064,12 +58235,12 @@
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr">
@@ -58084,7 +58255,7 @@
       </c>
       <c r="K1427" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58099,12 +58270,12 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr">
@@ -58134,17 +58305,22 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1429" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1429" t="inlineStr">
@@ -58159,17 +58335,17 @@
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1430" t="inlineStr">
@@ -58190,7 +58366,7 @@
     </row>
     <row r="1431">
       <c r="A1431" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
@@ -58199,12 +58375,12 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1431" t="inlineStr">
@@ -58219,13 +58395,13 @@
       </c>
       <c r="K1431" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
@@ -58234,12 +58410,12 @@
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1432" t="inlineStr">
@@ -58254,7 +58430,7 @@
       </c>
       <c r="K1432" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58269,17 +58445,22 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1433" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1433" t="inlineStr">
@@ -58294,17 +58475,17 @@
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -58334,7 +58515,7 @@
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr">
@@ -58369,12 +58550,12 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1436" t="inlineStr">
@@ -58404,22 +58585,30 @@
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1437" s="3">
+        <v>43934</v>
       </c>
       <c r="J1437" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1437" t="inlineStr">
@@ -58439,27 +58628,35 @@
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1438" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="I1438" s="3">
+        <v>43912</v>
       </c>
       <c r="J1438" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1438" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58474,35 +58671,27 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1439" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1439" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1439" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1439" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58512,7 +58701,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
@@ -58522,25 +58711,17 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Whanganui</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
-      </c>
-      <c r="I1440" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1440" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1440" t="inlineStr">
@@ -58551,21 +58732,21 @@
     </row>
     <row r="1441">
       <c r="A1441" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>Whanganui</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
@@ -58595,12 +58776,12 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -58630,7 +58811,7 @@
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr">
@@ -58656,7 +58837,7 @@
     </row>
     <row r="1444">
       <c r="A1444" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
@@ -58665,22 +58846,27 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1444" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1444" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58695,12 +58881,12 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1445" t="inlineStr">
@@ -58715,7 +58901,7 @@
       </c>
       <c r="K1445" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58730,12 +58916,12 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1446" t="inlineStr">
@@ -58760,12 +58946,12 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr">
@@ -58795,17 +58981,17 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr">
@@ -58826,16 +59012,16 @@
     </row>
     <row r="1449">
       <c r="A1449" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
@@ -58855,7 +59041,7 @@
       </c>
       <c r="K1449" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58865,17 +59051,17 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr">
@@ -58900,27 +59086,32 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Hawke's Bay</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1451" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1451" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58930,12 +59121,12 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
@@ -58943,14 +59134,9 @@
           <t>Canterbury</t>
         </is>
       </c>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="J1452" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1452" t="inlineStr">
@@ -58965,40 +59151,27 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>NZ722</t>
-        </is>
-      </c>
-      <c r="I1453" s="3">
-        <v>43904</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1453" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1453" t="inlineStr">
@@ -59009,7 +59182,7 @@
     </row>
     <row r="1454">
       <c r="A1454" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
@@ -59018,27 +59191,40 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1454" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>NZ722</t>
+        </is>
+      </c>
+      <c r="I1454" s="3">
+        <v>43904</v>
       </c>
       <c r="J1454" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1454" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -59048,7 +59234,7 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
@@ -59058,33 +59244,17 @@
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H1455" s="3">
-        <v>43921</v>
-      </c>
-      <c r="I1455" s="3">
-        <v>43921</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1455" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1455" t="inlineStr">
@@ -59104,12 +59274,12 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1456" t="inlineStr">
@@ -59124,7 +59294,7 @@
       </c>
       <c r="K1456" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59134,32 +59304,48 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1457" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1457" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1457" s="3">
+        <v>43921</v>
+      </c>
+      <c r="I1457" s="3">
+        <v>43921</v>
       </c>
       <c r="J1457" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1457" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59169,12 +59355,12 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
@@ -59214,7 +59400,7 @@
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1459" t="inlineStr">
@@ -59239,17 +59425,17 @@
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>Waitemata</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
@@ -59274,7 +59460,7 @@
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
@@ -59284,7 +59470,7 @@
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1461" t="inlineStr">
@@ -59299,7 +59485,7 @@
       </c>
       <c r="K1461" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59309,25 +59495,491 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1462" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1462" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1463" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1463" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>NZ8041</t>
+        </is>
+      </c>
+      <c r="H1464" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I1464" s="3">
+        <v>43905</v>
+      </c>
+      <c r="J1464" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1464" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
           <t>40 to 49</t>
         </is>
       </c>
-      <c r="D1462" t="inlineStr">
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1465" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1465" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>South Canterbury</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1466" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1466" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1467" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1467" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1468" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1468" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>Hawke's Bay</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1469" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1469" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1470" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1470" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1471" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1471" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>Hawke's Bay</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1472" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1472" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1473" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1473" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="J1474" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1474" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
         <is>
           <t>Waikato</t>
         </is>
       </c>
-      <c r="J1462" t="inlineStr">
+      <c r="J1475" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K1462" t="inlineStr">
+      <c r="K1475" t="inlineStr">
         <is>
           <t>Probable</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1475"/>
+  <dimension ref="A1:K1477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,6 +1743,14 @@
           <t>Canada</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AC51</t>
+        </is>
+      </c>
+      <c r="H29" s="3">
+        <v>43902</v>
+      </c>
       <c r="I29" s="3">
         <v>43902</v>
       </c>
@@ -2911,6 +2919,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NZ670</t>
+        </is>
+      </c>
+      <c r="H55" s="3">
+        <v>43905</v>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -17463,6 +17479,11 @@
           <t>United States of America</t>
         </is>
       </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>WGN-AKL</t>
+        </is>
+      </c>
       <c r="I382" s="3">
         <v>43909</v>
       </c>
@@ -22899,9 +22920,14 @@
           <t>Southern</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -23082,6 +23108,9 @@
       <c r="H515" s="3">
         <v>43906</v>
       </c>
+      <c r="I515" s="3">
+        <v>43906</v>
+      </c>
       <c r="J515" t="inlineStr">
         <is>
           <t>Overseas</t>
@@ -41805,9 +41834,14 @@
           <t>Canterbury</t>
         </is>
       </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K987" t="inlineStr">
@@ -47207,6 +47241,14 @@
           <t>United Kingdom</t>
         </is>
       </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>VA125</t>
+        </is>
+      </c>
+      <c r="H1131" s="3">
+        <v>43918</v>
+      </c>
       <c r="I1131" s="3">
         <v>43918</v>
       </c>
@@ -51596,6 +51638,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>NZ546</t>
+        </is>
+      </c>
+      <c r="H1248" s="3">
+        <v>43911</v>
+      </c>
       <c r="J1248" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -53248,6 +53298,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>NZ698</t>
+        </is>
+      </c>
+      <c r="H1292" s="3">
+        <v>43913</v>
+      </c>
       <c r="J1292" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -59134,9 +59192,14 @@
           <t>Canterbury</t>
         </is>
       </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1452" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1452" t="inlineStr">
@@ -59944,9 +60007,30 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1474" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1474" t="inlineStr">
+        <is>
+          <t>NZ104</t>
+        </is>
+      </c>
+      <c r="H1474" s="3">
+        <v>43946</v>
+      </c>
+      <c r="I1474" s="3">
+        <v>43946</v>
+      </c>
       <c r="J1474" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1474" t="inlineStr">
@@ -59957,7 +60041,7 @@
     </row>
     <row r="1475">
       <c r="A1475" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
@@ -59966,22 +60050,105 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1475" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1475" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>Nelson Marlborough</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1476" t="inlineStr">
+        <is>
+          <t>Cook Islands</t>
+        </is>
+      </c>
+      <c r="I1476" s="3">
+        <v>43916</v>
+      </c>
+      <c r="J1476" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1476" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1477" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1477" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1493"/>
+  <dimension ref="A1:K1498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -14384,6 +14384,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>NZ108</t>
+        </is>
+      </c>
+      <c r="H312" s="3">
+        <v>43909</v>
+      </c>
       <c r="I312" s="3">
         <v>43910</v>
       </c>
@@ -27207,6 +27215,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>NZ108</t>
+        </is>
+      </c>
+      <c r="H616" s="3">
+        <v>43909</v>
+      </c>
       <c r="I616" s="3">
         <v>43910</v>
       </c>
@@ -43255,6 +43271,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>QF143</t>
+        </is>
+      </c>
+      <c r="H1022" s="3">
+        <v>43910</v>
+      </c>
       <c r="I1022" s="3">
         <v>43910</v>
       </c>
@@ -58264,6 +58288,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G1424" t="inlineStr">
+        <is>
+          <t>CHARTERED FLIGHT</t>
+        </is>
+      </c>
+      <c r="H1424" s="3">
+        <v>43934</v>
+      </c>
       <c r="I1424" s="3">
         <v>43934</v>
       </c>
@@ -60169,7 +60201,7 @@
     </row>
     <row r="1477">
       <c r="A1477" s="2">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
@@ -60178,38 +60210,22 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1477" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>NZ104</t>
-        </is>
-      </c>
-      <c r="H1477" s="3">
-        <v>43946</v>
-      </c>
-      <c r="I1477" s="3">
-        <v>43946</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1477" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1477" t="inlineStr">
@@ -60220,7 +60236,7 @@
     </row>
     <row r="1478">
       <c r="A1478" s="2">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
@@ -60229,7 +60245,7 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
@@ -60239,12 +60255,28 @@
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1478" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>NZ104</t>
+        </is>
+      </c>
+      <c r="H1478" s="3">
+        <v>43946</v>
+      </c>
+      <c r="I1478" s="3">
+        <v>43946</v>
       </c>
       <c r="J1478" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1478" t="inlineStr">
@@ -60259,40 +60291,27 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1479" t="inlineStr">
-        <is>
-          <t>Cook Islands</t>
-        </is>
-      </c>
-      <c r="G1479" t="inlineStr">
-        <is>
-          <t>NZ5957</t>
-        </is>
-      </c>
-      <c r="I1479" s="3">
-        <v>43916</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1479" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1479" t="inlineStr">
@@ -60303,7 +60322,7 @@
     </row>
     <row r="1480">
       <c r="A1480" s="2">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
@@ -60312,22 +60331,35 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>Cook Islands</t>
+        </is>
+      </c>
+      <c r="G1480" t="inlineStr">
+        <is>
+          <t>NZ45</t>
+        </is>
+      </c>
+      <c r="I1480" s="3">
+        <v>43916</v>
       </c>
       <c r="J1480" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1480" t="inlineStr">
@@ -60347,7 +60379,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
@@ -60382,12 +60414,12 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr">
@@ -60408,21 +60440,21 @@
     </row>
     <row r="1483">
       <c r="A1483" s="2">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1483" t="inlineStr">
@@ -60447,17 +60479,17 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr">
@@ -60487,12 +60519,12 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr">
@@ -60517,12 +60549,12 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
@@ -60723,16 +60755,16 @@
     </row>
     <row r="1492">
       <c r="A1492" s="2">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr">
@@ -60758,36 +60790,232 @@
     </row>
     <row r="1493">
       <c r="A1493" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1493" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1493" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2">
         <v>43959</v>
       </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr">
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
         <is>
           <t>40 to 49</t>
         </is>
       </c>
-      <c r="D1493" t="inlineStr">
+      <c r="D1494" t="inlineStr">
         <is>
           <t>Waitematā</t>
         </is>
       </c>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J1493" t="inlineStr">
-        <is>
-          <t>In New Zealand</t>
-        </is>
-      </c>
-      <c r="K1493" t="inlineStr">
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1494" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1494" t="inlineStr">
         <is>
           <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>MidCentral</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1495" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="I1495" s="3">
+        <v>43946</v>
+      </c>
+      <c r="J1495" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1495" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1496" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1496" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="I1497" s="3">
+        <v>43905</v>
+      </c>
+      <c r="J1497" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1497" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1498" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1498" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1498"/>
+  <dimension ref="A1:K1500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3405,6 +3405,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NZ615</t>
+        </is>
+      </c>
+      <c r="H65" s="3">
+        <v>43901</v>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -4029,9 +4037,14 @@
           <t>Nelson Marlborough</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4897,38 +4910,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>NZ884</t>
-        </is>
-      </c>
-      <c r="H99" s="3">
-        <v>43908</v>
-      </c>
-      <c r="I99" s="3">
-        <v>43908</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -4958,12 +4955,28 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>JQ253</t>
+        </is>
+      </c>
+      <c r="H100" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I100" s="3">
+        <v>43909</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -4983,7 +4996,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4993,28 +5006,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>JQ253</t>
-        </is>
-      </c>
-      <c r="H101" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I101" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5029,12 +5026,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5044,12 +5041,28 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>NZ421</t>
+        </is>
+      </c>
+      <c r="H102" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I102" s="3">
+        <v>43906</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5069,7 +5082,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5087,16 +5100,8 @@
           <t>United States of America</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>NZ421</t>
-        </is>
-      </c>
-      <c r="H103" s="3">
-        <v>43906</v>
-      </c>
       <c r="I103" s="3">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5115,17 +5120,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5135,11 +5140,19 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H104" s="3">
+        <v>43909</v>
       </c>
       <c r="I104" s="3">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5163,7 +5176,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5178,19 +5191,19 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>MH133</t>
         </is>
       </c>
       <c r="H105" s="3">
         <v>43909</v>
       </c>
       <c r="I105" s="3">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5214,7 +5227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5229,19 +5242,19 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>MH133</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H106" s="3">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I106" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5265,7 +5278,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5275,28 +5288,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H107" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I107" s="3">
-        <v>43908</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -5311,12 +5308,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5351,7 +5348,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5361,12 +5358,28 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H109" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I109" s="3">
+        <v>43906</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -5401,19 +5414,19 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>AA3</t>
         </is>
       </c>
       <c r="H110" s="3">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="I110" s="3">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5437,7 +5450,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5452,16 +5465,16 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>AA3</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H111" s="3">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="I111" s="3">
         <v>43908</v>
@@ -5483,7 +5496,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5493,33 +5506,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hutt Valley</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Qatar</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>NZ449</t>
         </is>
       </c>
       <c r="H112" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I112" s="3">
-        <v>43908</v>
+        <v>43898</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -5544,21 +5549,13 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hutt Valley</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>NZ449</t>
-        </is>
-      </c>
-      <c r="H113" s="3">
-        <v>43898</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5582,7 +5579,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5592,12 +5589,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>NZ5071</t>
+        </is>
+      </c>
+      <c r="I114" s="3">
+        <v>43909</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -5612,12 +5622,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5632,16 +5642,19 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>NZ5071</t>
-        </is>
+          <t>NZ8321</t>
+        </is>
+      </c>
+      <c r="H115" s="3">
+        <v>43910</v>
       </c>
       <c r="I115" s="3">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5665,7 +5678,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5680,19 +5693,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>NZ8321</t>
+          <t>NZ8205</t>
         </is>
       </c>
       <c r="H116" s="3">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="I116" s="3">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5716,7 +5729,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5736,14 +5749,11 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>NZ8205</t>
-        </is>
-      </c>
-      <c r="H117" s="3">
-        <v>43908</v>
+          <t>NZ5071</t>
+        </is>
       </c>
       <c r="I117" s="3">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5762,17 +5772,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5787,11 +5797,14 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>NZ5071</t>
-        </is>
+          <t>JQZ217</t>
+        </is>
+      </c>
+      <c r="H118" s="3">
+        <v>43905</v>
       </c>
       <c r="I118" s="3">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5815,12 +5828,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5830,19 +5843,14 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>JQZ217</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="H119" s="3">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="I119" s="3">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5866,7 +5874,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5876,23 +5884,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="H120" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I120" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -5917,17 +5914,33 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H121" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I121" s="3">
+        <v>43906</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -5942,12 +5955,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5957,28 +5970,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H122" s="3">
-        <v>43905</v>
-      </c>
-      <c r="I122" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -5993,27 +5990,43 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H123" s="3">
+        <v>43908</v>
+      </c>
+      <c r="I123" s="3">
+        <v>43909</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -6033,7 +6046,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6043,28 +6056,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H124" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I124" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -6094,12 +6091,28 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H125" s="3">
+        <v>43904</v>
+      </c>
+      <c r="I125" s="3">
+        <v>43906</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -6114,12 +6127,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6134,14 +6147,19 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>QF143</t>
         </is>
       </c>
       <c r="H126" s="3">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="I126" s="3">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6165,7 +6183,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6185,11 +6203,11 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>QF143</t>
+          <t>NZ5</t>
         </is>
       </c>
       <c r="H127" s="3">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="I127" s="3">
         <v>43908</v>
@@ -6216,38 +6234,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>West Coast</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>United States of America</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>NZ5</t>
+          <t>JQ27</t>
         </is>
       </c>
       <c r="H128" s="3">
         <v>43907</v>
       </c>
-      <c r="I128" s="3">
-        <v>43908</v>
-      </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -6262,17 +6272,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>West Coast</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6280,14 +6290,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>JQ27</t>
-        </is>
-      </c>
-      <c r="H129" s="3">
-        <v>43907</v>
-      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -6295,7 +6297,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6317,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6345,12 +6347,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6375,12 +6377,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6415,22 +6417,38 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>BEKA76</t>
+        </is>
+      </c>
+      <c r="H133" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I133" s="3">
+        <v>43906</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -6441,52 +6459,36 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>BEKA76</t>
-        </is>
-      </c>
-      <c r="H134" s="3">
-        <v>43905</v>
-      </c>
-      <c r="I134" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6513,28 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>QF0143</t>
+        </is>
+      </c>
+      <c r="H135" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I135" s="3">
+        <v>43911</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -6536,7 +6554,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6551,19 +6569,19 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>QF141</t>
+          <t>NZ23</t>
         </is>
       </c>
       <c r="H136" s="3">
         <v>43909</v>
       </c>
       <c r="I136" s="3">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6602,19 +6620,19 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>NZ23</t>
+          <t>MH145</t>
         </is>
       </c>
       <c r="H137" s="3">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="I137" s="3">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6638,7 +6656,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6653,19 +6671,19 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>MH145</t>
+          <t>NZ5</t>
         </is>
       </c>
       <c r="H138" s="3">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="I138" s="3">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6684,12 +6702,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6704,19 +6722,19 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>NZ5</t>
+          <t>SQ258</t>
         </is>
       </c>
       <c r="H139" s="3">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="I139" s="3">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -6740,7 +6758,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6755,19 +6773,19 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>SQ863</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H140" s="3">
-        <v>43911</v>
+        <v>43906</v>
       </c>
       <c r="I140" s="3">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6786,17 +6804,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6806,19 +6824,14 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>NZ29</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="H141" s="3">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="I141" s="3">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6837,12 +6850,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6852,23 +6865,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="H142" s="3">
-        <v>43901</v>
-      </c>
-      <c r="I142" s="3">
-        <v>43903</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -6933,12 +6935,28 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>SQ297</t>
+        </is>
+      </c>
+      <c r="H144" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I144" s="3">
+        <v>43910</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -6953,7 +6971,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6963,7 +6981,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6973,19 +6991,19 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>SQ297</t>
+          <t>NZ409</t>
         </is>
       </c>
       <c r="H145" s="3">
         <v>43909</v>
       </c>
       <c r="I145" s="3">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -7009,7 +7027,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7029,7 +7047,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>NZ409</t>
+          <t>NZ413</t>
         </is>
       </c>
       <c r="H146" s="3">
@@ -7060,7 +7078,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7075,19 +7093,14 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>NZ413</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="H147" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="I147" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -7106,12 +7119,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7126,14 +7139,19 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>NZ409</t>
         </is>
       </c>
       <c r="H148" s="3">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="I148" s="3">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -7157,7 +7175,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7172,12 +7190,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>NZ409</t>
+          <t>NZ413</t>
         </is>
       </c>
       <c r="H149" s="3">
@@ -7228,7 +7246,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>NZ413</t>
+          <t>NZ409</t>
         </is>
       </c>
       <c r="H150" s="3">
@@ -7259,7 +7277,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7310,7 +7328,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7325,19 +7343,14 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>NZ409</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="H152" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="I152" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7356,17 +7369,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7379,11 +7392,16 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>JQ201</t>
+        </is>
+      </c>
       <c r="H153" s="3">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="I153" s="3">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7402,17 +7420,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hutt Valley</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7427,14 +7445,14 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>JQ201</t>
+          <t>VA171</t>
         </is>
       </c>
       <c r="H154" s="3">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="I154" s="3">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -7453,17 +7471,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hutt Valley</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7473,19 +7491,19 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>VA171</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H155" s="3">
-        <v>43903</v>
+        <v>43912</v>
       </c>
       <c r="I155" s="3">
-        <v>43903</v>
+        <v>43913</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -7504,17 +7522,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7529,14 +7547,14 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ5115</t>
         </is>
       </c>
       <c r="H156" s="3">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="I156" s="3">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -7555,7 +7573,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7565,33 +7583,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>NZ5115</t>
-        </is>
-      </c>
-      <c r="H157" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I157" s="3">
-        <v>43907</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -7606,12 +7608,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7621,12 +7623,28 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>NZ8205</t>
+        </is>
+      </c>
+      <c r="H158" s="3">
+        <v>43908</v>
+      </c>
+      <c r="I158" s="3">
+        <v>43908</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -7646,7 +7664,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7664,16 +7682,8 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>NZ8205</t>
-        </is>
-      </c>
-      <c r="H159" s="3">
-        <v>43908</v>
-      </c>
       <c r="I159" s="3">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -7697,30 +7707,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I160" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -7740,7 +7742,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7750,12 +7752,28 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>EK412</t>
+        </is>
+      </c>
+      <c r="H161" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I161" s="3">
+        <v>43911</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -7770,43 +7788,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>EK412</t>
-        </is>
-      </c>
-      <c r="H162" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I162" s="3">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -7826,7 +7828,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7856,12 +7858,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7871,12 +7873,28 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>EK7563</t>
+        </is>
+      </c>
+      <c r="H164" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I164" s="3">
+        <v>43909</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -7896,7 +7914,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7906,28 +7924,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>EK7563</t>
-        </is>
-      </c>
-      <c r="H165" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I165" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -7942,27 +7944,35 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="I166" s="3">
+        <v>43898</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -7982,7 +7992,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7997,11 +8007,19 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Philippines</t>
-        </is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H167" s="3">
+        <v>43906</v>
       </c>
       <c r="I167" s="3">
-        <v>43898</v>
+        <v>43906</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -8020,12 +8038,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8035,28 +8053,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H168" s="3">
-        <v>43906</v>
-      </c>
-      <c r="I168" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -8086,12 +8088,23 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="H169" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I169" s="3">
+        <v>43912</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -8106,38 +8119,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="H170" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I170" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -8157,7 +8159,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8167,12 +8169,20 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I171" s="3">
+        <v>43912</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -8192,12 +8202,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8211,7 +8221,7 @@
         </is>
       </c>
       <c r="I172" s="3">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -8220,7 +8230,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8245,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8245,20 +8255,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I173" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -8278,12 +8280,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8308,17 +8310,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Hutt Valley</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8339,36 +8341,52 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Hutt Valley</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H176" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I176" s="3">
+        <v>43912</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -8398,19 +8416,19 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>UA917</t>
         </is>
       </c>
       <c r="H177" s="3">
         <v>43911</v>
       </c>
       <c r="I177" s="3">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -8434,7 +8452,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8444,20 +8462,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="I178" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -8472,7 +8482,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8522,12 +8532,28 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H180" s="3">
+        <v>43912</v>
+      </c>
+      <c r="I180" s="3">
+        <v>43913</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -8562,19 +8588,19 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ05</t>
         </is>
       </c>
       <c r="H181" s="3">
-        <v>43912</v>
+        <v>43905</v>
       </c>
       <c r="I181" s="3">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -8598,7 +8624,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8618,14 +8644,14 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>NZ05</t>
+          <t>AA83</t>
         </is>
       </c>
       <c r="H182" s="3">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="I182" s="3">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -8644,43 +8670,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>AA83</t>
-        </is>
-      </c>
-      <c r="H183" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I183" s="3">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -8700,22 +8710,38 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>QF1033</t>
+        </is>
+      </c>
+      <c r="H184" s="3">
+        <v>43910</v>
+      </c>
+      <c r="I184" s="3">
+        <v>43910</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -8750,12 +8776,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>QF1033</t>
+          <t>JQ233</t>
         </is>
       </c>
       <c r="H185" s="3">
@@ -8801,16 +8827,16 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>JQ233</t>
+          <t>EK412</t>
         </is>
       </c>
       <c r="H186" s="3">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="I186" s="3">
         <v>43910</v>
@@ -8861,7 +8887,7 @@
         </is>
       </c>
       <c r="H187" s="3">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I187" s="3">
         <v>43910</v>
@@ -8888,7 +8914,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8903,19 +8929,19 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>EK412</t>
+          <t>NZ7</t>
         </is>
       </c>
       <c r="H188" s="3">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="I188" s="3">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8934,7 +8960,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8949,28 +8975,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>NZ7</t>
-        </is>
-      </c>
-      <c r="H189" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I189" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -9000,12 +9010,20 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="I190" s="3">
+        <v>43903</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -9020,7 +9038,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9030,7 +9048,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9040,11 +9058,19 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Vietnam</t>
-        </is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H191" s="3">
+        <v>43907</v>
       </c>
       <c r="I191" s="3">
-        <v>43903</v>
+        <v>43909</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -9088,14 +9114,14 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>NZ5</t>
+          <t>NZ241</t>
         </is>
       </c>
       <c r="H192" s="3">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="I192" s="3">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -9119,7 +9145,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -9129,28 +9155,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>NZ241</t>
-        </is>
-      </c>
-      <c r="H193" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I193" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -9180,12 +9190,28 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>NZ407</t>
+        </is>
+      </c>
+      <c r="H194" s="3">
+        <v>43910</v>
+      </c>
+      <c r="I194" s="3">
+        <v>43910</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -9200,12 +9226,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -9220,19 +9246,19 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>NZ407</t>
+          <t>QF161</t>
         </is>
       </c>
       <c r="H195" s="3">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I195" s="3">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -9256,7 +9282,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -9276,11 +9302,11 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>QF161</t>
+          <t>SQ247</t>
         </is>
       </c>
       <c r="H196" s="3">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I196" s="3">
         <v>43911</v>
@@ -9322,19 +9348,19 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>SQ247</t>
+          <t>EK7457</t>
         </is>
       </c>
       <c r="H197" s="3">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="I197" s="3">
-        <v>43911</v>
+        <v>43908</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -9358,7 +9384,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9373,19 +9399,19 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>EK7457</t>
+          <t>WL241</t>
         </is>
       </c>
       <c r="H198" s="3">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="I198" s="3">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -9409,7 +9435,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9429,7 +9455,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>WL241</t>
+          <t>NZ407</t>
         </is>
       </c>
       <c r="H199" s="3">
@@ -9460,7 +9486,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9470,28 +9496,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>NZ407</t>
-        </is>
-      </c>
-      <c r="H200" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I200" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -9506,27 +9516,43 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H201" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I201" s="3">
+        <v>43907</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -9541,7 +9567,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9561,19 +9587,19 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ1</t>
         </is>
       </c>
       <c r="H202" s="3">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="I202" s="3">
-        <v>43907</v>
+        <v>43913</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -9592,17 +9618,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9612,19 +9638,19 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>NZ1</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H203" s="3">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="I203" s="3">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -9643,7 +9669,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9699,12 +9725,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9712,21 +9738,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H205" s="3">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="I205" s="3">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -9745,7 +9766,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9755,7 +9776,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9763,16 +9784,18 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H206" s="3">
-        <v>43912</v>
+          <t>JQ278</t>
+        </is>
       </c>
       <c r="I206" s="3">
-        <v>43913</v>
+        <v>43896</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -9796,35 +9819,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>JQ278</t>
-        </is>
-      </c>
-      <c r="I207" s="3">
-        <v>43896</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -9839,12 +9849,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9854,12 +9864,28 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>NZ5065</t>
+        </is>
+      </c>
+      <c r="H208" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I208" s="3">
+        <v>43906</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -9879,7 +9905,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9889,28 +9915,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>NZ5065</t>
-        </is>
-      </c>
-      <c r="H209" s="3">
-        <v>43906</v>
-      </c>
-      <c r="I209" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -9925,27 +9935,43 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H210" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I210" s="3">
+        <v>43911</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -9960,7 +9986,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9980,19 +10006,19 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>AA83</t>
         </is>
       </c>
       <c r="H211" s="3">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="I211" s="3">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -10011,17 +10037,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10031,19 +10057,19 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>AA83</t>
+          <t>NZ671</t>
         </is>
       </c>
       <c r="H212" s="3">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="I212" s="3">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -10082,16 +10108,16 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>NZ671</t>
+          <t>EK6</t>
         </is>
       </c>
       <c r="H213" s="3">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="I213" s="3">
         <v>43913</v>
@@ -10118,7 +10144,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10128,28 +10154,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>EK6</t>
-        </is>
-      </c>
-      <c r="H214" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I214" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -10164,12 +10174,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10179,12 +10189,20 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I215" s="3">
+        <v>43909</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -10204,7 +10222,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10219,8 +10237,16 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>JQ285</t>
+        </is>
+      </c>
+      <c r="H216" s="3">
+        <v>43909</v>
       </c>
       <c r="I216" s="3">
         <v>43909</v>
@@ -10247,7 +10273,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10257,28 +10283,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>JQ285</t>
-        </is>
-      </c>
-      <c r="H217" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I217" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -10298,7 +10308,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10308,12 +10318,28 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>NZ671</t>
+        </is>
+      </c>
+      <c r="H218" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I218" s="3">
+        <v>43906</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -10328,17 +10354,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -10348,19 +10374,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>NZ671</t>
-        </is>
-      </c>
-      <c r="H219" s="3">
-        <v>43906</v>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="I219" s="3">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -10384,7 +10402,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10394,20 +10412,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="I220" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -10427,22 +10437,38 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Wairarapa</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>QF161</t>
+        </is>
+      </c>
+      <c r="H221" s="3">
+        <v>43910</v>
+      </c>
+      <c r="I221" s="3">
+        <v>43910</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -10457,12 +10483,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10472,28 +10498,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>QF161</t>
-        </is>
-      </c>
-      <c r="H222" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I222" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -10508,27 +10518,43 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Wairarapa</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>NZ29</t>
+        </is>
+      </c>
+      <c r="H223" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I223" s="3">
+        <v>43908</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -10548,7 +10574,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -10568,14 +10594,14 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>NZ29</t>
+          <t>NZ8</t>
         </is>
       </c>
       <c r="H224" s="3">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="I224" s="3">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -10599,7 +10625,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -10609,28 +10635,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>NZ8</t>
-        </is>
-      </c>
-      <c r="H225" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I225" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -10660,12 +10670,28 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H226" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I226" s="3">
+        <v>43913</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -10685,7 +10711,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -10695,28 +10721,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H227" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I227" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -10736,7 +10746,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -10766,12 +10776,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -10781,12 +10791,28 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H229" s="3">
+        <v>43910</v>
+      </c>
+      <c r="I229" s="3">
+        <v>43911</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -10806,7 +10832,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10821,19 +10847,19 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ31</t>
         </is>
       </c>
       <c r="H230" s="3">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="I230" s="3">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -10852,48 +10878,32 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>NZ31</t>
-        </is>
-      </c>
-      <c r="H231" s="3">
-        <v>43905</v>
-      </c>
-      <c r="I231" s="3">
-        <v>43907</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -10903,12 +10913,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -10938,17 +10948,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10969,7 +10979,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -10978,12 +10988,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10998,7 +11008,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11023,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11058,12 +11068,28 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>NZ3285</t>
+        </is>
+      </c>
+      <c r="H236" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I236" s="3">
+        <v>43908</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -11098,19 +11124,19 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>NZ3285</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H237" s="3">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="I237" s="3">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -11149,7 +11175,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -11158,10 +11184,10 @@
         </is>
       </c>
       <c r="H238" s="3">
-        <v>43910</v>
+        <v>43903</v>
       </c>
       <c r="I238" s="3">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -11185,7 +11211,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11195,28 +11221,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H239" s="3">
-        <v>43903</v>
-      </c>
-      <c r="I239" s="3">
-        <v>43905</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -11236,7 +11246,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11266,12 +11276,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11281,12 +11291,28 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>MH145</t>
+        </is>
+      </c>
+      <c r="H241" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I241" s="3">
+        <v>43906</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -11321,19 +11347,19 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>MH145</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H242" s="3">
         <v>43905</v>
       </c>
       <c r="I242" s="3">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -11357,7 +11383,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -11377,14 +11403,14 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>NZ29</t>
+          <t>NZ1</t>
         </is>
       </c>
       <c r="H243" s="3">
+        <v>43903</v>
+      </c>
+      <c r="I243" s="3">
         <v>43905</v>
-      </c>
-      <c r="I243" s="3">
-        <v>43907</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -11408,7 +11434,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11423,19 +11449,19 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>NZ1</t>
+          <t>LA801</t>
         </is>
       </c>
       <c r="H244" s="3">
-        <v>43903</v>
+        <v>43909</v>
       </c>
       <c r="I244" s="3">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -11454,17 +11480,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -11474,19 +11500,16 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>LA801</t>
-        </is>
-      </c>
-      <c r="H245" s="3">
-        <v>43909</v>
+          <t>NZ102</t>
+        </is>
       </c>
       <c r="I245" s="3">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -11505,12 +11528,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -11525,16 +11548,19 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>NZ102</t>
-        </is>
+          <t>NZ7</t>
+        </is>
+      </c>
+      <c r="H246" s="3">
+        <v>43910</v>
       </c>
       <c r="I246" s="3">
-        <v>43907</v>
+        <v>43913</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -11553,43 +11579,27 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>NZ7</t>
-        </is>
-      </c>
-      <c r="H247" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I247" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -11609,7 +11619,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -11654,12 +11664,28 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>EK412</t>
+        </is>
+      </c>
+      <c r="H249" s="3">
+        <v>43914</v>
+      </c>
+      <c r="I249" s="3">
+        <v>43914</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -11679,7 +11705,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -11689,28 +11715,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>EK412</t>
-        </is>
-      </c>
-      <c r="H250" s="3">
-        <v>43914</v>
-      </c>
-      <c r="I250" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -11730,22 +11740,38 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>EK5047</t>
+        </is>
+      </c>
+      <c r="H251" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I251" s="3">
+        <v>43911</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -11760,7 +11786,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -11780,19 +11806,19 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>EK5047</t>
+          <t>NZ411</t>
         </is>
       </c>
       <c r="H252" s="3">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="I252" s="3">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -11816,7 +11842,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -11831,19 +11857,19 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>NZ411</t>
+          <t>NZ433</t>
         </is>
       </c>
       <c r="H253" s="3">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="I253" s="3">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -11867,7 +11893,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11882,19 +11908,19 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>NZ433</t>
+          <t>NZ409</t>
         </is>
       </c>
       <c r="H254" s="3">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="I254" s="3">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -11913,43 +11939,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>NZ409</t>
-        </is>
-      </c>
-      <c r="H255" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I255" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -11969,7 +11979,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -12039,7 +12049,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -12049,12 +12059,28 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H258" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I258" s="3">
+        <v>43911</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -12069,12 +12095,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -12084,28 +12110,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H259" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I259" s="3">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -12125,7 +12135,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -12135,12 +12145,28 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H260" s="3">
+        <v>43908</v>
+      </c>
+      <c r="I260" s="3">
+        <v>43909</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -12155,43 +12181,27 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H261" s="3">
-        <v>43908</v>
-      </c>
-      <c r="I261" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -12211,7 +12221,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -12221,12 +12231,28 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>NZ5019</t>
+        </is>
+      </c>
+      <c r="H262" s="3">
+        <v>43906</v>
+      </c>
+      <c r="I262" s="3">
+        <v>43906</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -12241,12 +12267,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -12297,38 +12323,22 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Hutt Valley</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>NZ5019</t>
-        </is>
-      </c>
-      <c r="H264" s="3">
-        <v>43906</v>
-      </c>
-      <c r="I264" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -12343,27 +12353,40 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Hutt Valley</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="I265" s="3">
+        <v>43914</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -12398,16 +12421,19 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>QR920</t>
-        </is>
+          <t>NZ8155</t>
+        </is>
+      </c>
+      <c r="H266" s="3">
+        <v>43909</v>
       </c>
       <c r="I266" s="3">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -12426,12 +12452,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -12446,19 +12472,11 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>NZ8155</t>
-        </is>
-      </c>
-      <c r="H267" s="3">
-        <v>43909</v>
+          <t>Singapore</t>
+        </is>
       </c>
       <c r="I267" s="3">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -12487,7 +12505,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -12495,13 +12513,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>NZ5107</t>
+        </is>
+      </c>
+      <c r="H268" s="3">
+        <v>43908</v>
       </c>
       <c r="I268" s="3">
-        <v>43905</v>
+        <v>43908</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -12525,12 +12546,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -12538,13 +12559,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>NZ5107</t>
-        </is>
-      </c>
-      <c r="H269" s="3">
-        <v>43908</v>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="I269" s="3">
         <v>43908</v>
@@ -12571,7 +12589,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -12581,20 +12599,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I270" s="3">
-        <v>43908</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -12614,7 +12624,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -12624,12 +12634,23 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="H271" s="3">
+        <v>43895</v>
+      </c>
+      <c r="I271" s="3">
+        <v>43895</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -12644,17 +12665,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -12664,14 +12685,19 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H272" s="3">
-        <v>43895</v>
+        <v>43911</v>
       </c>
       <c r="I272" s="3">
-        <v>43895</v>
+        <v>43912</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -12690,12 +12716,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -12710,19 +12736,19 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ1</t>
         </is>
       </c>
       <c r="H273" s="3">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I273" s="3">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -12741,43 +12767,27 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>NZ1</t>
-        </is>
-      </c>
-      <c r="H274" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I274" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -12807,12 +12817,28 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>NZ677</t>
+        </is>
+      </c>
+      <c r="H275" s="3">
+        <v>43909</v>
+      </c>
+      <c r="I275" s="3">
+        <v>43909</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -12832,7 +12858,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -12842,28 +12868,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>NZ677</t>
-        </is>
-      </c>
-      <c r="H276" s="3">
-        <v>43909</v>
-      </c>
-      <c r="I276" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -12878,12 +12888,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -12928,12 +12938,25 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>NZ625</t>
+        </is>
+      </c>
+      <c r="I278" s="3">
+        <v>43909</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -12973,11 +12996,14 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>NZ625</t>
-        </is>
+          <t>NZ677</t>
+        </is>
+      </c>
+      <c r="H279" s="3">
+        <v>43909</v>
       </c>
       <c r="I279" s="3">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -13001,7 +13027,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -13014,21 +13040,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>NZ677</t>
+          <t>NZ566</t>
         </is>
       </c>
       <c r="H280" s="3">
         <v>43909</v>
-      </c>
-      <c r="I280" s="3">
-        <v>43910</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
@@ -13052,7 +13070,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -13062,20 +13080,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>NZ566</t>
-        </is>
-      </c>
-      <c r="H281" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -13125,27 +13135,35 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="I283" s="3">
+        <v>43909</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -13170,7 +13188,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -13184,7 +13202,7 @@
         </is>
       </c>
       <c r="I284" s="3">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -13226,8 +13244,16 @@
           <t>United Arab Emirates</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H285" s="3">
+        <v>43910</v>
+      </c>
       <c r="I285" s="3">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
@@ -13251,7 +13277,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -13261,28 +13287,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H286" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I286" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -13337,7 +13347,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -13382,12 +13392,28 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>SQ281</t>
+        </is>
+      </c>
+      <c r="H289" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I289" s="3">
+        <v>43906</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -13407,7 +13433,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -13417,28 +13443,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>SQ281</t>
-        </is>
-      </c>
-      <c r="H290" s="3">
-        <v>43905</v>
-      </c>
-      <c r="I290" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -13458,7 +13468,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -13503,12 +13513,28 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>NZ110</t>
+        </is>
+      </c>
+      <c r="H292" s="3">
+        <v>43912</v>
+      </c>
+      <c r="I292" s="3">
+        <v>43912</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -13528,7 +13554,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -13543,19 +13569,11 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>NZ110</t>
-        </is>
-      </c>
-      <c r="H293" s="3">
-        <v>43912</v>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="I293" s="3">
-        <v>43912</v>
+        <v>43898</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -13574,12 +13592,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -13591,14 +13609,6 @@
         <is>
           <t>Yes</t>
         </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="I294" s="3">
-        <v>43898</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -13622,7 +13632,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -13632,12 +13642,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -13702,12 +13712,28 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>EL342</t>
+        </is>
+      </c>
+      <c r="H297" s="3">
+        <v>43901</v>
+      </c>
+      <c r="I297" s="3">
+        <v>43903</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -13727,7 +13753,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -13742,19 +13768,11 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>EL342</t>
-        </is>
-      </c>
-      <c r="H298" s="3">
-        <v>43901</v>
+          <t>United Arab Emirates</t>
+        </is>
       </c>
       <c r="I298" s="3">
-        <v>43903</v>
+        <v>43909</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -13778,7 +13796,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -13836,11 +13854,16 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="I300" s="3">
-        <v>43909</v>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H300" s="3">
+        <v>43907</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -13864,7 +13887,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -13879,16 +13902,11 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>NZ5</t>
-        </is>
-      </c>
-      <c r="H301" s="3">
-        <v>43907</v>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="I301" s="3">
+        <v>43897</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -13912,7 +13930,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -13927,11 +13945,19 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Philippines</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>NZ110</t>
+        </is>
+      </c>
+      <c r="H302" s="3">
+        <v>43912</v>
       </c>
       <c r="I302" s="3">
-        <v>43897</v>
+        <v>43912</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -13970,19 +13996,19 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>NZ110</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H303" s="3">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="I303" s="3">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -14001,17 +14027,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -14021,19 +14047,19 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H304" s="3">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="I304" s="3">
-        <v>43909</v>
+        <v>43912</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -14057,7 +14083,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14067,28 +14093,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>NZ29</t>
-        </is>
-      </c>
-      <c r="H305" s="3">
-        <v>43910</v>
-      </c>
-      <c r="I305" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -14143,7 +14153,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -14153,12 +14163,28 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>NZ31</t>
+        </is>
+      </c>
+      <c r="H307" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I307" s="3">
+        <v>43907</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -14173,12 +14199,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -14193,16 +14219,16 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>NZ31</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H308" s="3">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="I308" s="3">
         <v>43907</v>
@@ -14229,7 +14255,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -14239,28 +14265,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H309" s="3">
-        <v>43906</v>
-      </c>
-      <c r="I309" s="3">
-        <v>43907</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -14280,7 +14290,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -14290,12 +14300,28 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>FEK450</t>
+        </is>
+      </c>
+      <c r="H310" s="3">
+        <v>43903</v>
+      </c>
+      <c r="I310" s="3">
+        <v>43905</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -14315,7 +14341,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -14330,19 +14356,19 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>FEK450</t>
+          <t>NZ108</t>
         </is>
       </c>
       <c r="H311" s="3">
-        <v>43903</v>
+        <v>43909</v>
       </c>
       <c r="I311" s="3">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
@@ -14381,19 +14407,19 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>NZ108</t>
+          <t>NZ5</t>
         </is>
       </c>
       <c r="H312" s="3">
+        <v>43907</v>
+      </c>
+      <c r="I312" s="3">
         <v>43909</v>
-      </c>
-      <c r="I312" s="3">
-        <v>43910</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
@@ -14412,48 +14438,32 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>NZ5</t>
-        </is>
-      </c>
-      <c r="H313" s="3">
-        <v>43907</v>
-      </c>
-      <c r="I313" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -14463,23 +14473,31 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>NZ526</t>
+        </is>
+      </c>
+      <c r="H314" s="3">
+        <v>43915</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
@@ -14498,7 +14516,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -14508,25 +14526,25 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>NZ526</t>
-        </is>
-      </c>
-      <c r="H315" s="3">
-        <v>43915</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I315" s="3">
+        <v>43891</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -14551,25 +14569,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I316" s="3">
-        <v>43891</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -14580,7 +14590,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -14589,12 +14599,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -14609,7 +14619,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14634,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -14634,12 +14644,28 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>NZ178</t>
+        </is>
+      </c>
+      <c r="H318" s="3">
+        <v>43914</v>
+      </c>
+      <c r="I318" s="3">
+        <v>43915</v>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -14725,19 +14751,19 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>NZ178</t>
+          <t>NZ5</t>
         </is>
       </c>
       <c r="H320" s="3">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="I320" s="3">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
@@ -14761,7 +14787,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -14771,28 +14797,12 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>NZ5</t>
-        </is>
-      </c>
-      <c r="H321" s="3">
-        <v>43912</v>
-      </c>
-      <c r="I321" s="3">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -14857,12 +14867,20 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="I323" s="3">
+        <v>43906</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -14882,7 +14900,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -14892,20 +14910,12 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="I324" s="3">
-        <v>43906</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -14920,12 +14930,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -14960,7 +14970,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -14970,12 +14980,28 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>NZ29</t>
+        </is>
+      </c>
+      <c r="H326" s="3">
+        <v>43908</v>
+      </c>
+      <c r="I326" s="3">
+        <v>43911</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -14995,7 +15021,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -15013,16 +15039,8 @@
           <t>United States of America</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>NZ29</t>
-        </is>
-      </c>
-      <c r="H327" s="3">
-        <v>43908</v>
-      </c>
       <c r="I327" s="3">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -15041,17 +15059,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -15061,11 +15079,19 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>EK68</t>
+        </is>
+      </c>
+      <c r="H328" s="3">
+        <v>43913</v>
       </c>
       <c r="I328" s="3">
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -15084,7 +15110,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -15104,19 +15130,19 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>EK68</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H329" s="3">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="I329" s="3">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
@@ -15135,17 +15161,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -15155,19 +15181,11 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H330" s="3">
-        <v>43907</v>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="I330" s="3">
-        <v>43908</v>
+        <v>43905</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -15191,7 +15209,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15201,20 +15219,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I331" s="3">
-        <v>43905</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -15234,7 +15244,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -15279,12 +15289,28 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>QF139</t>
+        </is>
+      </c>
+      <c r="H333" s="3">
+        <v>43904</v>
+      </c>
+      <c r="I333" s="3">
+        <v>43905</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -15324,14 +15350,14 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>QF139</t>
+          <t>EK412</t>
         </is>
       </c>
       <c r="H334" s="3">
-        <v>43904</v>
+        <v>43909</v>
       </c>
       <c r="I334" s="3">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -15355,7 +15381,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -15370,19 +15396,19 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>EK412</t>
+          <t>NZ884</t>
         </is>
       </c>
       <c r="H335" s="3">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="I335" s="3">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -15851,6 +15877,14 @@
           <t>Qatar</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H345" s="3">
+        <v>43905</v>
+      </c>
       <c r="I345" s="3">
         <v>43907</v>
       </c>
@@ -23874,7 +23908,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I533" s="3">
@@ -34213,7 +34247,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
@@ -34431,9 +34465,6 @@
       <c r="H795" s="3">
         <v>43907</v>
       </c>
-      <c r="I795" s="3">
-        <v>43938</v>
-      </c>
       <c r="J795" t="inlineStr">
         <is>
           <t>Overseas</t>
@@ -34956,9 +34987,14 @@
           <t>Canterbury</t>
         </is>
       </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -40466,9 +40502,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -50971,8 +51012,11 @@
           <t>NZ23</t>
         </is>
       </c>
+      <c r="H1227" s="3">
+        <v>43910</v>
+      </c>
       <c r="I1227" s="3">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="J1227" t="inlineStr">
         <is>
@@ -51983,9 +52027,6 @@
           <t>NZ19K</t>
         </is>
       </c>
-      <c r="H1255" s="3">
-        <v>43893</v>
-      </c>
       <c r="I1255" s="3">
         <v>43921</v>
       </c>
@@ -54117,6 +54158,14 @@
           <t>Qatar</t>
         </is>
       </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1312" s="3">
+        <v>43916</v>
+      </c>
       <c r="I1312" s="3">
         <v>43917</v>
       </c>
@@ -54638,7 +54687,7 @@
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G1325" t="inlineStr">
@@ -60912,22 +60961,35 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1496" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G1496" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="I1496" s="3">
+        <v>43905</v>
       </c>
       <c r="J1496" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1496" t="inlineStr">
@@ -60947,35 +61009,22 @@
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="I1497" s="3">
-        <v>43905</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1497" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1497" t="inlineStr">
@@ -61014,6 +61063,76 @@
         </is>
       </c>
       <c r="K1498" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1499" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1499" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1500" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1500" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1500"/>
+  <dimension ref="A1:K1505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3407,11 +3407,11 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NZ615</t>
+          <t>NZ674</t>
         </is>
       </c>
       <c r="H65" s="3">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4082,6 +4082,9 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="H81" s="3">
+        <v>43898</v>
+      </c>
       <c r="I81" s="3">
         <v>43898</v>
       </c>
@@ -11449,7 +11452,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -17545,11 +17548,6 @@
           <t>United States of America</t>
         </is>
       </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>WGN-AKL</t>
-        </is>
-      </c>
       <c r="I382" s="3">
         <v>43909</v>
       </c>
@@ -18501,9 +18499,14 @@
       <c r="A405" s="2">
         <v>43917</v>
       </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -18518,19 +18521,19 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>TG917</t>
+          <t>NZ523</t>
         </is>
       </c>
       <c r="H405" s="3">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="I405" s="3">
-        <v>43912</v>
+        <v>43915</v>
       </c>
       <c r="J405" t="inlineStr">
         <is>
@@ -18554,7 +18557,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -18569,19 +18572,19 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>NZ523</t>
+          <t>TG917</t>
         </is>
       </c>
       <c r="H406" s="3">
-        <v>43915</v>
+        <v>43910</v>
       </c>
       <c r="I406" s="3">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
@@ -20498,9 +20501,14 @@
           <t>Waikato</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -26583,7 +26591,7 @@
         </is>
       </c>
       <c r="H600" s="3">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="I600" s="3">
         <v>43915</v>
@@ -29817,6 +29825,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>NZ409</t>
+        </is>
+      </c>
+      <c r="H680" s="3">
+        <v>43909</v>
+      </c>
       <c r="J680" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -34747,6 +34763,14 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>NZ706</t>
+        </is>
+      </c>
+      <c r="H802" s="3">
+        <v>43912</v>
+      </c>
       <c r="I802" s="3">
         <v>43912</v>
       </c>
@@ -40744,7 +40768,7 @@
         </is>
       </c>
       <c r="H955" s="3">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="I955" s="3">
         <v>43915</v>
@@ -47612,7 +47636,7 @@
         </is>
       </c>
       <c r="H1137" s="3">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="I1137" s="3">
         <v>43921</v>
@@ -50491,6 +50515,14 @@
           <t>Qatar</t>
         </is>
       </c>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1215" s="3">
+        <v>43919</v>
+      </c>
       <c r="I1215" s="3">
         <v>43921</v>
       </c>
@@ -50687,6 +50719,11 @@
           <t>Japan</t>
         </is>
       </c>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>NZ1919</t>
+        </is>
+      </c>
       <c r="I1219" s="3">
         <v>43918</v>
       </c>
@@ -53294,7 +53331,7 @@
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G1289" t="inlineStr">
@@ -53306,7 +53343,7 @@
         <v>43913</v>
       </c>
       <c r="I1289" s="3">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="J1289" t="inlineStr">
         <is>
@@ -53706,6 +53743,14 @@
           <t>Singapore</t>
         </is>
       </c>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>NZ5021</t>
+        </is>
+      </c>
+      <c r="H1300" s="3">
+        <v>43909</v>
+      </c>
       <c r="I1300" s="3">
         <v>43909</v>
       </c>
@@ -54741,6 +54786,14 @@
           <t>Qatar</t>
         </is>
       </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1326" s="3">
+        <v>43919</v>
+      </c>
       <c r="I1326" s="3">
         <v>43921</v>
       </c>
@@ -56349,12 +56402,12 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr">
@@ -56370,11 +56423,6 @@
       <c r="F1370" t="inlineStr">
         <is>
           <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1370" t="inlineStr">
-        <is>
-          <t>MFAT</t>
         </is>
       </c>
       <c r="H1370" s="3">
@@ -56405,22 +56453,33 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1371" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1371" s="3">
+        <v>43933</v>
+      </c>
+      <c r="I1371" s="3">
+        <v>43933</v>
       </c>
       <c r="J1371" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1371" t="inlineStr">
@@ -56435,27 +56494,38 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>Tairāwhiti</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1372" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1372" s="3">
+        <v>43933</v>
+      </c>
+      <c r="I1372" s="3">
+        <v>43933</v>
       </c>
       <c r="J1372" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1372" t="inlineStr">
@@ -56475,12 +56545,12 @@
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>Tairāwhiti</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr">
@@ -56510,12 +56580,12 @@
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Tairāwhiti</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr">
@@ -56530,7 +56600,7 @@
       </c>
       <c r="K1374" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -56540,17 +56610,17 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Tairāwhiti</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr">
@@ -56565,7 +56635,7 @@
       </c>
       <c r="K1375" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -56580,12 +56650,12 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr">
@@ -56610,12 +56680,12 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr">
@@ -56645,17 +56715,17 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr">
@@ -56685,12 +56755,12 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr">
@@ -56720,12 +56790,12 @@
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr">
@@ -56750,7 +56820,7 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr">
@@ -56760,7 +56830,7 @@
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr">
@@ -56781,7 +56851,7 @@
     </row>
     <row r="1382">
       <c r="A1382" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
@@ -56790,12 +56860,12 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr">
@@ -56810,27 +56880,27 @@
       </c>
       <c r="K1382" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr">
@@ -56845,7 +56915,7 @@
       </c>
       <c r="K1383" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -56855,17 +56925,17 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr">
@@ -56890,17 +56960,17 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr">
@@ -56930,12 +57000,12 @@
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr">
@@ -56950,7 +57020,7 @@
       </c>
       <c r="K1386" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -56965,12 +57035,12 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr">
@@ -56985,7 +57055,7 @@
       </c>
       <c r="K1387" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -57000,12 +57070,12 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr">
@@ -57030,12 +57100,12 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr">
@@ -57065,17 +57135,17 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr">
@@ -57100,17 +57170,17 @@
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr">
@@ -57140,12 +57210,12 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr">
@@ -57166,11 +57236,11 @@
     </row>
     <row r="1393">
       <c r="A1393" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -57180,7 +57250,7 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr">
@@ -57195,27 +57265,27 @@
       </c>
       <c r="K1393" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr">
@@ -57230,7 +57300,7 @@
       </c>
       <c r="K1394" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -57240,17 +57310,17 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1395" t="inlineStr">
@@ -57275,12 +57345,12 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr">
@@ -57310,17 +57380,17 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr">
@@ -57355,25 +57425,17 @@
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1398" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="I1398" s="3">
-        <v>43933</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1398" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1398" t="inlineStr">
@@ -57393,12 +57455,12 @@
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1399" t="inlineStr">
@@ -57428,22 +57490,33 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1400" s="3">
+        <v>43933</v>
+      </c>
+      <c r="I1400" s="3">
+        <v>43933</v>
       </c>
       <c r="J1400" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1400" t="inlineStr">
@@ -57458,7 +57531,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -57468,17 +57541,28 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1401" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="H1401" s="3">
+        <v>43902</v>
+      </c>
+      <c r="I1401" s="3">
+        <v>43933</v>
       </c>
       <c r="J1401" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1401" t="inlineStr">
@@ -57493,7 +57577,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
@@ -57503,7 +57587,7 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr">
@@ -57533,7 +57617,7 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr">
@@ -57563,12 +57647,12 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr">
@@ -57578,20 +57662,12 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1404" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1404" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1404" t="inlineStr">
@@ -57606,7 +57682,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
@@ -57616,7 +57692,7 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr">
@@ -57631,7 +57707,7 @@
       </c>
       <c r="K1405" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -57641,17 +57717,17 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr">
@@ -57666,7 +57742,7 @@
       </c>
       <c r="K1406" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -57676,32 +57752,40 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1407" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1407" s="3">
+        <v>43934</v>
       </c>
       <c r="J1407" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1407" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -57711,17 +57795,17 @@
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr">
@@ -57742,21 +57826,21 @@
     </row>
     <row r="1409">
       <c r="A1409" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr">
@@ -57771,27 +57855,27 @@
       </c>
       <c r="K1409" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr">
@@ -57806,13 +57890,13 @@
       </c>
       <c r="K1410" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
@@ -57821,35 +57905,27 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1411" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="I1411" s="3">
-        <v>43921</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1411" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1411" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -57859,35 +57935,27 @@
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1412" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="I1412" s="3">
-        <v>43921</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1412" t="inlineStr">
@@ -57907,12 +57975,12 @@
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr">
@@ -57937,27 +58005,35 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>Whanganui</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1414" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I1414" s="3">
+        <v>43921</v>
       </c>
       <c r="J1414" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1414" t="inlineStr">
@@ -57972,32 +58048,40 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1415" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I1415" s="3">
+        <v>43921</v>
       </c>
       <c r="J1415" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1415" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58012,12 +58096,12 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr">
@@ -58032,7 +58116,7 @@
       </c>
       <c r="K1416" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58042,17 +58126,17 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Whanganui</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr">
@@ -58067,7 +58151,7 @@
       </c>
       <c r="K1417" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58077,43 +58161,27 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1418" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G1418" t="inlineStr">
-        <is>
-          <t>NZ23</t>
-        </is>
-      </c>
-      <c r="H1418" s="3">
-        <v>43911</v>
-      </c>
-      <c r="I1418" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1418" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1418" t="inlineStr">
@@ -58128,17 +58196,17 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1419" t="inlineStr">
@@ -58168,12 +58236,12 @@
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr">
@@ -58194,7 +58262,7 @@
     </row>
     <row r="1421">
       <c r="A1421" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
@@ -58203,33 +58271,49 @@
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1421" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G1421" t="inlineStr">
+        <is>
+          <t>NZ23</t>
+        </is>
+      </c>
+      <c r="H1421" s="3">
+        <v>43911</v>
+      </c>
+      <c r="I1421" s="3">
+        <v>43913</v>
       </c>
       <c r="J1421" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1421" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
@@ -58238,12 +58322,12 @@
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr">
@@ -58258,13 +58342,13 @@
       </c>
       <c r="K1422" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B1423" t="inlineStr">
         <is>
@@ -58273,38 +58357,27 @@
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1423" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="H1423" s="3">
-        <v>43934</v>
-      </c>
-      <c r="I1423" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1423" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1423" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58314,7 +58387,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
@@ -58324,33 +58397,17 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1424" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>CHARTERED FLIGHT</t>
-        </is>
-      </c>
-      <c r="H1424" s="3">
-        <v>43934</v>
-      </c>
-      <c r="I1424" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1424" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1424" t="inlineStr">
@@ -58365,17 +58422,17 @@
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr">
@@ -58405,27 +58462,38 @@
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1426" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1426" s="3">
+        <v>43934</v>
+      </c>
+      <c r="I1426" s="3">
+        <v>43934</v>
       </c>
       <c r="J1426" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1426" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58435,32 +58503,43 @@
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1427" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1427" s="3">
+        <v>43934</v>
+      </c>
+      <c r="I1427" s="3">
+        <v>43934</v>
       </c>
       <c r="J1427" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1427" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58475,7 +58554,7 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr">
@@ -58495,7 +58574,7 @@
       </c>
       <c r="K1428" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58510,12 +58589,12 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr">
@@ -58540,17 +58619,17 @@
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1430" t="inlineStr">
@@ -58571,7 +58650,7 @@
     </row>
     <row r="1431">
       <c r="A1431" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
@@ -58580,12 +58659,12 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1431" t="inlineStr">
@@ -58600,27 +58679,27 @@
       </c>
       <c r="K1431" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1432" t="inlineStr">
@@ -58635,27 +58714,27 @@
       </c>
       <c r="K1432" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr">
@@ -58670,7 +58749,7 @@
       </c>
       <c r="K1433" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -58685,12 +58764,12 @@
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -58715,17 +58794,17 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1435" t="inlineStr">
@@ -58755,12 +58834,12 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1436" t="inlineStr">
@@ -58790,30 +58869,22 @@
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1437" s="3">
-        <v>43934</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1437" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1437" t="inlineStr">
@@ -58838,30 +58909,22 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1438" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
-      </c>
-      <c r="I1438" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1438" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1438" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58876,12 +58939,12 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -58896,7 +58959,7 @@
       </c>
       <c r="K1439" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -58906,38 +58969,46 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>Whanganui</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1440" s="3">
+        <v>43934</v>
       </c>
       <c r="J1440" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1440" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
@@ -58946,22 +59017,30 @@
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1441" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="I1441" s="3">
+        <v>43912</v>
       </c>
       <c r="J1441" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1441" t="inlineStr">
@@ -58972,7 +59051,7 @@
     </row>
     <row r="1442">
       <c r="A1442" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
@@ -58981,12 +59060,12 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -59007,21 +59086,21 @@
     </row>
     <row r="1443">
       <c r="A1443" s="2">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Whanganui</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
@@ -59042,7 +59121,7 @@
     </row>
     <row r="1444">
       <c r="A1444" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
@@ -59051,12 +59130,12 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
@@ -59071,13 +59150,13 @@
       </c>
       <c r="K1444" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
@@ -59086,12 +59165,12 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1445" t="inlineStr">
@@ -59112,7 +59191,7 @@
     </row>
     <row r="1446">
       <c r="A1446" s="2">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
@@ -59121,12 +59200,12 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1446" t="inlineStr">
@@ -59151,7 +59230,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -59161,7 +59240,7 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr">
@@ -59176,7 +59255,7 @@
       </c>
       <c r="K1447" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59191,12 +59270,12 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr">
@@ -59221,35 +59300,27 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1449" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
-      </c>
-      <c r="I1449" s="3">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1449" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1449" t="inlineStr">
@@ -59260,21 +59331,21 @@
     </row>
     <row r="1450">
       <c r="A1450" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr">
@@ -59289,27 +59360,27 @@
       </c>
       <c r="K1450" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr">
@@ -59324,37 +59395,45 @@
       </c>
       <c r="K1451" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1452" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="I1452" s="3">
+        <v>43910</v>
       </c>
       <c r="J1452" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1452" t="inlineStr">
@@ -59369,7 +59448,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -59379,7 +59458,7 @@
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1453" t="inlineStr">
@@ -59394,7 +59473,7 @@
       </c>
       <c r="K1453" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59404,51 +59483,38 @@
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>NZ722</t>
-        </is>
-      </c>
-      <c r="I1454" s="3">
-        <v>43904</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1454" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1454" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
@@ -59457,7 +59523,7 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr">
@@ -59477,22 +59543,22 @@
       </c>
       <c r="K1455" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr">
@@ -59512,27 +59578,27 @@
       </c>
       <c r="K1456" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
@@ -59542,19 +59608,16 @@
       </c>
       <c r="F1457" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H1457" s="3">
-        <v>43920</v>
+          <t>NZ722</t>
+        </is>
       </c>
       <c r="I1457" s="3">
-        <v>43921</v>
+        <v>43904</v>
       </c>
       <c r="J1457" t="inlineStr">
         <is>
@@ -59563,7 +59626,7 @@
       </c>
       <c r="K1457" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -59578,12 +59641,12 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1458" t="inlineStr">
@@ -59598,7 +59661,7 @@
       </c>
       <c r="K1458" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59608,17 +59671,17 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1459" t="inlineStr">
@@ -59633,13 +59696,13 @@
       </c>
       <c r="K1459" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
@@ -59653,17 +59716,33 @@
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1460" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1460" s="3">
+        <v>43920</v>
+      </c>
+      <c r="I1460" s="3">
+        <v>43921</v>
       </c>
       <c r="J1460" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1460" t="inlineStr">
@@ -59674,7 +59753,7 @@
     </row>
     <row r="1461">
       <c r="A1461" s="2">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
@@ -59683,12 +59762,12 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1461" t="inlineStr">
@@ -59703,22 +59782,22 @@
       </c>
       <c r="K1461" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
@@ -59738,7 +59817,7 @@
       </c>
       <c r="K1462" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
@@ -59753,12 +59832,12 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1463" t="inlineStr">
@@ -59783,17 +59862,17 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1464" t="inlineStr">
@@ -59808,7 +59887,7 @@
       </c>
       <c r="K1464" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -59823,12 +59902,12 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1465" t="inlineStr">
@@ -59843,53 +59922,37 @@
       </c>
       <c r="K1465" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>NZ8041</t>
-        </is>
-      </c>
-      <c r="H1466" s="3">
-        <v>43905</v>
-      </c>
-      <c r="I1466" s="3">
-        <v>43905</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1466" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1466" t="inlineStr">
@@ -59900,21 +59963,21 @@
     </row>
     <row r="1467">
       <c r="A1467" s="2">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1467" t="inlineStr">
@@ -59935,7 +59998,7 @@
     </row>
     <row r="1468">
       <c r="A1468" s="2">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
@@ -59944,12 +60007,12 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1468" t="inlineStr">
@@ -59979,27 +60042,43 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>NZ8041</t>
+        </is>
+      </c>
+      <c r="H1469" s="3">
+        <v>43905</v>
+      </c>
+      <c r="I1469" s="3">
+        <v>43905</v>
       </c>
       <c r="J1469" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1469" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -60019,7 +60098,7 @@
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1470" t="inlineStr">
@@ -60049,12 +60128,12 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E1471" t="inlineStr">
@@ -60075,21 +60154,21 @@
     </row>
     <row r="1472">
       <c r="A1472" s="2">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
@@ -60104,13 +60183,13 @@
       </c>
       <c r="K1472" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
@@ -60119,7 +60198,7 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
@@ -60139,13 +60218,13 @@
       </c>
       <c r="K1473" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
@@ -60159,7 +60238,7 @@
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr">
@@ -60180,16 +60259,16 @@
     </row>
     <row r="1475">
       <c r="A1475" s="2">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
@@ -60215,7 +60294,7 @@
     </row>
     <row r="1476">
       <c r="A1476" s="2">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
@@ -60224,7 +60303,7 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr">
@@ -60250,21 +60329,21 @@
     </row>
     <row r="1477">
       <c r="A1477" s="2">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr">
@@ -60279,53 +60358,37 @@
       </c>
       <c r="K1477" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1478" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>NZ104</t>
-        </is>
-      </c>
-      <c r="H1478" s="3">
-        <v>43946</v>
-      </c>
-      <c r="I1478" s="3">
-        <v>43946</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1478" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1478" t="inlineStr">
@@ -60336,21 +60399,21 @@
     </row>
     <row r="1479">
       <c r="A1479" s="2">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
@@ -60371,11 +60434,11 @@
     </row>
     <row r="1480">
       <c r="A1480" s="2">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
@@ -60385,30 +60448,17 @@
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1480" t="inlineStr">
-        <is>
-          <t>Cook Islands</t>
-        </is>
-      </c>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>NZ45</t>
-        </is>
-      </c>
-      <c r="I1480" s="3">
-        <v>43916</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1480" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1480" t="inlineStr">
@@ -60419,31 +60469,47 @@
     </row>
     <row r="1481">
       <c r="A1481" s="2">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>NZ104</t>
+        </is>
+      </c>
+      <c r="H1481" s="3">
+        <v>43946</v>
+      </c>
+      <c r="I1481" s="3">
+        <v>43946</v>
       </c>
       <c r="J1481" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1481" t="inlineStr">
@@ -60454,21 +60520,21 @@
     </row>
     <row r="1482">
       <c r="A1482" s="2">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr">
@@ -60489,7 +60555,7 @@
     </row>
     <row r="1483">
       <c r="A1483" s="2">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
@@ -60498,22 +60564,35 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>Cook Islands</t>
+        </is>
+      </c>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>NZ45</t>
+        </is>
+      </c>
+      <c r="I1483" s="3">
+        <v>43916</v>
       </c>
       <c r="J1483" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1483" t="inlineStr">
@@ -60524,16 +60603,16 @@
     </row>
     <row r="1484">
       <c r="A1484" s="2">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
@@ -60559,7 +60638,7 @@
     </row>
     <row r="1485">
       <c r="A1485" s="2">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
@@ -60568,12 +60647,12 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr">
@@ -60594,7 +60673,7 @@
     </row>
     <row r="1486">
       <c r="A1486" s="2">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
@@ -60603,7 +60682,7 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
@@ -60638,7 +60717,7 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr">
@@ -60658,7 +60737,7 @@
       </c>
       <c r="K1487" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -60673,12 +60752,12 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1488" t="inlineStr">
@@ -60693,13 +60772,13 @@
       </c>
       <c r="K1488" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
@@ -60708,12 +60787,12 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1489" t="inlineStr">
@@ -60734,21 +60813,21 @@
     </row>
     <row r="1490">
       <c r="A1490" s="2">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr">
@@ -60763,27 +60842,27 @@
       </c>
       <c r="K1490" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2">
-        <v>43957</v>
+        <v>43952</v>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr">
@@ -60798,13 +60877,13 @@
       </c>
       <c r="K1491" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2">
-        <v>43957</v>
+        <v>43952</v>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
@@ -60833,37 +60912,48 @@
       </c>
       <c r="K1492" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2">
-        <v>43958</v>
+        <v>43954</v>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1493" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H1493" s="3">
+        <v>43933</v>
+      </c>
+      <c r="I1493" s="3">
+        <v>43933</v>
       </c>
       <c r="J1493" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1493" t="inlineStr">
@@ -60874,7 +60964,7 @@
     </row>
     <row r="1494">
       <c r="A1494" s="2">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
@@ -60883,7 +60973,7 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr">
@@ -60903,65 +60993,57 @@
       </c>
       <c r="K1494" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2">
-        <v>43960</v>
+        <v>43956</v>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1495" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="I1495" s="3">
-        <v>43946</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1495" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1495" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2">
-        <v>43961</v>
+        <v>43957</v>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr">
@@ -60971,25 +61053,12 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1496" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="I1496" s="3">
-        <v>43905</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1496" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1496" t="inlineStr">
@@ -61000,11 +61069,11 @@
     </row>
     <row r="1497">
       <c r="A1497" s="2">
-        <v>43961</v>
+        <v>43957</v>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
@@ -61035,7 +61104,7 @@
     </row>
     <row r="1498">
       <c r="A1498" s="2">
-        <v>43961</v>
+        <v>43958</v>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
@@ -61044,7 +61113,7 @@
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr">
@@ -61070,7 +61139,7 @@
     </row>
     <row r="1499">
       <c r="A1499" s="2">
-        <v>43965</v>
+        <v>43959</v>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
@@ -61079,7 +61148,7 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr">
@@ -61099,40 +61168,236 @@
       </c>
       <c r="K1499" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Probable</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>MidCentral</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1500" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="I1500" s="3">
+        <v>43946</v>
+      </c>
+      <c r="J1500" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1500" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="I1501" s="3">
+        <v>43905</v>
+      </c>
+      <c r="J1501" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1501" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1502" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1502" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1503" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1503" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1504" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1504" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2">
         <v>43966</v>
       </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr">
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
         <is>
           <t>1 to 4</t>
         </is>
       </c>
-      <c r="D1500" t="inlineStr">
+      <c r="D1505" t="inlineStr">
         <is>
           <t>Canterbury</t>
         </is>
       </c>
-      <c r="E1500" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J1500" t="inlineStr">
-        <is>
-          <t>In New Zealand</t>
-        </is>
-      </c>
-      <c r="K1500" t="inlineStr">
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1505" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1505" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -39307,6 +39307,14 @@
           <t>South Africa</t>
         </is>
       </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H917" s="3">
+        <v>43917</v>
+      </c>
       <c r="I917" s="3">
         <v>43917</v>
       </c>
@@ -39350,6 +39358,14 @@
           <t>South Africa</t>
         </is>
       </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H918" s="3">
+        <v>43917</v>
+      </c>
       <c r="I918" s="3">
         <v>43917</v>
       </c>
@@ -49209,6 +49225,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G1180" t="inlineStr">
+        <is>
+          <t>NZ610</t>
+        </is>
+      </c>
+      <c r="H1180" s="3">
+        <v>43911</v>
       </c>
       <c r="J1180" t="inlineStr">
         <is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -18529,11 +18529,8 @@
           <t>NZ523</t>
         </is>
       </c>
-      <c r="H405" s="3">
-        <v>43915</v>
-      </c>
       <c r="I405" s="3">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="J405" t="inlineStr">
         <is>
@@ -32935,6 +32932,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>NZ570</t>
+        </is>
+      </c>
+      <c r="H757" s="3">
+        <v>43915</v>
+      </c>
       <c r="J757" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -32970,6 +32975,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>NZ570</t>
+        </is>
+      </c>
+      <c r="H758" s="3">
+        <v>43915</v>
+      </c>
       <c r="J758" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -36059,6 +36072,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>NZ5717</t>
+        </is>
+      </c>
+      <c r="H834" s="3">
+        <v>43912</v>
+      </c>
       <c r="J834" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -44848,12 +44869,20 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I1062" s="3">
+        <v>43909</v>
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -44868,7 +44897,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -44883,20 +44912,12 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1063" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I1063" s="3">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -44961,12 +44982,28 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>NZ1</t>
+        </is>
+      </c>
+      <c r="H1065" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I1065" s="3">
+        <v>43915</v>
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -44981,35 +45018,35 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1066" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="I1066" s="3">
-        <v>43915</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>NZ5005</t>
+        </is>
+      </c>
+      <c r="H1066" s="3">
+        <v>43913</v>
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1066" t="inlineStr">
@@ -45029,7 +45066,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
@@ -45039,20 +45076,20 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>NZ5005</t>
-        </is>
-      </c>
-      <c r="H1067" s="3">
-        <v>43913</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="I1067" s="3">
+        <v>43907</v>
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -45067,12 +45104,12 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
@@ -45082,20 +45119,20 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1068" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="I1068" s="3">
-        <v>43907</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>NZ5005</t>
+        </is>
+      </c>
+      <c r="H1068" s="3">
+        <v>43913</v>
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -45115,26 +45152,18 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E1069" t="inlineStr">
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>NZ5005</t>
-        </is>
-      </c>
-      <c r="H1069" s="3">
-        <v>43913</v>
       </c>
       <c r="J1069" t="inlineStr">
         <is>
@@ -45168,12 +45197,28 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>JQ290</t>
+        </is>
+      </c>
+      <c r="H1070" s="3">
+        <v>43912</v>
+      </c>
+      <c r="I1070" s="3">
+        <v>43912</v>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">
@@ -45188,43 +45233,27 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>JQ290</t>
-        </is>
-      </c>
-      <c r="H1071" s="3">
-        <v>43912</v>
-      </c>
-      <c r="I1071" s="3">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -45239,7 +45268,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -45274,17 +45303,17 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr">
@@ -45309,12 +45338,12 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
@@ -45344,17 +45373,17 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
@@ -45384,7 +45413,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
@@ -45454,7 +45483,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr">
@@ -45489,7 +45518,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr">
@@ -45519,12 +45548,12 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1080" t="inlineStr">
@@ -45559,7 +45588,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
@@ -45594,7 +45623,7 @@
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr">
@@ -45629,7 +45658,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
@@ -45699,7 +45728,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr">
@@ -45709,12 +45738,28 @@
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>NZ5713</t>
+        </is>
+      </c>
+      <c r="H1085" s="3">
+        <v>43913</v>
+      </c>
+      <c r="I1085" s="3">
+        <v>43913</v>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1085" t="inlineStr">
@@ -45734,7 +45779,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
@@ -45744,28 +45789,12 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1086" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>NZ5713</t>
-        </is>
-      </c>
-      <c r="H1086" s="3">
-        <v>43913</v>
-      </c>
-      <c r="I1086" s="3">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1086" t="inlineStr">
@@ -45785,7 +45814,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr">
@@ -45820,7 +45849,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr">
@@ -45850,17 +45879,17 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr">
@@ -45925,7 +45954,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
@@ -45960,12 +45989,12 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1092" t="inlineStr">
@@ -45995,7 +46024,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
@@ -46030,7 +46059,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
@@ -46498,6 +46527,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>NZ578</t>
+        </is>
+      </c>
+      <c r="H1107" s="3">
+        <v>43912</v>
+      </c>
       <c r="J1107" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -56495,6 +56532,11 @@
           <t>Australia</t>
         </is>
       </c>
+      <c r="G1371" t="inlineStr">
+        <is>
+          <t>MFAT</t>
+        </is>
+      </c>
       <c r="H1371" s="3">
         <v>43933</v>
       </c>
@@ -57575,7 +57617,12 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1401" t="inlineStr">
+        <is>
+          <t>REPAT FLIGHT FROM MELBOURNE</t>
         </is>
       </c>
       <c r="H1401" s="3">

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1508"/>
+  <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4446,6 +4446,14 @@
           <t>No</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NZ674</t>
+        </is>
+      </c>
+      <c r="H89" s="2">
+        <v>43906</v>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>In New Zealand</t>
@@ -5101,6 +5109,9 @@
           <t>United States of America</t>
         </is>
       </c>
+      <c r="H103" s="2">
+        <v>43909</v>
+      </c>
       <c r="I103" s="2">
         <v>43909</v>
       </c>
@@ -15006,7 +15017,7 @@
         <v>43908</v>
       </c>
       <c r="I326" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
@@ -15895,7 +15906,7 @@
         <v>43905</v>
       </c>
       <c r="I345" s="2">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -18046,6 +18057,14 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>FEK450</t>
+        </is>
+      </c>
+      <c r="H394" s="2">
+        <v>43903</v>
+      </c>
       <c r="I394" s="2">
         <v>43905</v>
       </c>
@@ -22459,7 +22478,7 @@
         <v>43913</v>
       </c>
       <c r="I496" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="J496" t="inlineStr">
         <is>
@@ -24388,12 +24407,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -24403,28 +24422,12 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>NZ1</t>
-        </is>
-      </c>
-      <c r="H545" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I545" s="2">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -24454,12 +24457,28 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>QF141</t>
+        </is>
+      </c>
+      <c r="H546" s="2">
+        <v>43908</v>
+      </c>
+      <c r="I546" s="2">
+        <v>43908</v>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -24494,19 +24513,19 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>QF141</t>
+          <t>NZ29</t>
         </is>
       </c>
       <c r="H547" s="2">
-        <v>43908</v>
+        <v>43913</v>
       </c>
       <c r="I547" s="2">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="J547" t="inlineStr">
         <is>
@@ -24530,38 +24549,22 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>NZ29</t>
-        </is>
-      </c>
-      <c r="H548" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I548" s="2">
-        <v>43915</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -24576,17 +24579,17 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -24596,11 +24599,19 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>QF171</t>
+        </is>
+      </c>
+      <c r="H549" s="2">
+        <v>43914</v>
       </c>
       <c r="I549" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="J549" t="inlineStr">
         <is>
@@ -24619,17 +24630,17 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -24639,19 +24650,19 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>SQ281</t>
+          <t>NZ433</t>
         </is>
       </c>
       <c r="H550" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I550" s="2">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="J550" t="inlineStr">
         <is>
@@ -24670,23 +24681,26 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="H551" s="2">
+        <v>43913</v>
       </c>
       <c r="J551" t="inlineStr">
         <is>
@@ -24710,7 +24724,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -24720,28 +24734,12 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>QF171</t>
-        </is>
-      </c>
-      <c r="H552" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I552" s="2">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -24756,7 +24754,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -24781,14 +24779,14 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>NZ433</t>
+          <t>NZ429</t>
         </is>
       </c>
       <c r="H553" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I553" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="J553" t="inlineStr">
         <is>
@@ -24807,7 +24805,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -24824,9 +24822,6 @@
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="H554" s="2">
-        <v>43913</v>
       </c>
       <c r="J554" t="inlineStr">
         <is>
@@ -24845,12 +24840,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -24862,6 +24857,14 @@
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>NZ8872</t>
+        </is>
+      </c>
+      <c r="H555" s="2">
+        <v>43915</v>
       </c>
       <c r="J555" t="inlineStr">
         <is>
@@ -24880,43 +24883,27 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>NZ429</t>
-        </is>
-      </c>
-      <c r="H556" s="2">
-        <v>43912</v>
-      </c>
-      <c r="I556" s="2">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -24931,17 +24918,17 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -24966,35 +24953,43 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>NZ8872</t>
+          <t>NZ1</t>
         </is>
       </c>
       <c r="H558" s="2">
-        <v>43915</v>
+        <v>43913</v>
+      </c>
+      <c r="I558" s="2">
+        <v>43914</v>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -25009,12 +25004,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -25024,12 +25019,28 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>NZ23</t>
+        </is>
+      </c>
+      <c r="H559" s="2">
+        <v>43915</v>
+      </c>
+      <c r="I559" s="2">
+        <v>43917</v>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -25044,7 +25055,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -25059,12 +25070,28 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H560" s="2">
+        <v>43908</v>
+      </c>
+      <c r="I560" s="2">
+        <v>43909</v>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -25084,7 +25111,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -25108,10 +25135,10 @@
         </is>
       </c>
       <c r="H561" s="2">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="I561" s="2">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="J561" t="inlineStr">
         <is>
@@ -25135,7 +25162,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -25150,16 +25177,16 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>SQ281</t>
         </is>
       </c>
       <c r="H562" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="I562" s="2">
         <v>43909</v>
@@ -27790,12 +27817,12 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -27810,19 +27837,19 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>NZ6067</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H629" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I629" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="J629" t="inlineStr">
         <is>
@@ -27846,7 +27873,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -27861,11 +27888,19 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H630" s="2">
+        <v>43913</v>
       </c>
       <c r="I630" s="2">
-        <v>43909</v>
+        <v>43914</v>
       </c>
       <c r="J630" t="inlineStr">
         <is>
@@ -27884,27 +27919,43 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>NZ6067</t>
+        </is>
+      </c>
+      <c r="H631" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I631" s="2">
+        <v>43913</v>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -27924,30 +27975,38 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>NZ5011</t>
+          <t>AA83</t>
         </is>
       </c>
       <c r="H632" s="2">
-        <v>43905</v>
+        <v>43908</v>
+      </c>
+      <c r="I632" s="2">
+        <v>43909</v>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -27962,7 +28021,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -27997,7 +28056,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -28007,13 +28066,21 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>NZ5011</t>
+        </is>
+      </c>
+      <c r="H634" s="2">
+        <v>43905</v>
       </c>
       <c r="J634" t="inlineStr">
         <is>
@@ -28037,12 +28104,12 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Lakes</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -28067,40 +28134,27 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>NZ8113</t>
-        </is>
-      </c>
-      <c r="I636" s="2">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -28115,43 +28169,27 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Lakes</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>NZ8857</t>
-        </is>
-      </c>
-      <c r="H637" s="2">
-        <v>43909</v>
-      </c>
-      <c r="I637" s="2">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -28171,12 +28209,12 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -28186,11 +28224,16 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>NZ8113</t>
         </is>
       </c>
       <c r="I638" s="2">
-        <v>43912</v>
+        <v>43909</v>
       </c>
       <c r="J638" t="inlineStr">
         <is>
@@ -28209,17 +28252,17 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>South Canterbury</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -28229,11 +28272,19 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>NZ8857</t>
+        </is>
+      </c>
+      <c r="H639" s="2">
+        <v>43909</v>
       </c>
       <c r="I639" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="J639" t="inlineStr">
         <is>
@@ -28252,27 +28303,35 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="I640" s="2">
+        <v>43912</v>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -28287,27 +28346,35 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>South Canterbury</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I641" s="2">
+        <v>43910</v>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -28327,7 +28394,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -28362,7 +28429,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -28397,7 +28464,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -28427,12 +28494,12 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -28462,12 +28529,12 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -28502,7 +28569,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -28512,20 +28579,12 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F647" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="I647" s="2">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -28545,7 +28604,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -28555,15 +28614,12 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I648" s="2">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -28578,7 +28634,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -28588,7 +28644,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -28598,7 +28654,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="I649" s="2">
@@ -28621,27 +28677,30 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I650" s="2">
+        <v>43912</v>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -28661,22 +28720,30 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="I651" s="2">
+        <v>43911</v>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -28696,7 +28763,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -28731,7 +28798,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -28761,12 +28828,12 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -28801,12 +28868,12 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -28831,43 +28898,27 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>LA801</t>
-        </is>
-      </c>
-      <c r="H656" s="2">
-        <v>43907</v>
-      </c>
-      <c r="I656" s="2">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -28887,7 +28938,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -28922,7 +28973,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -28937,19 +28988,19 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>LA801</t>
         </is>
       </c>
       <c r="H658" s="2">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="I658" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
@@ -28968,12 +29019,12 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -28983,28 +29034,12 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F659" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H659" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I659" s="2">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -29124,12 +29159,12 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -29164,7 +29199,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -29194,17 +29229,17 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -30008,30 +30043,38 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Hutt Valley</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>NZ5386</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H684" s="2">
-        <v>43915</v>
+        <v>43913</v>
+      </c>
+      <c r="I684" s="2">
+        <v>43914</v>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -30046,7 +30089,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -30056,30 +30099,25 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Hutt Valley</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>Qatar</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>NZ5119</t>
-        </is>
-      </c>
-      <c r="I685" s="2">
-        <v>43914</v>
+          <t>NZ5386</t>
+        </is>
+      </c>
+      <c r="H685" s="2">
+        <v>43915</v>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -30099,7 +30137,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -30109,12 +30147,25 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>NZ5119</t>
+        </is>
+      </c>
+      <c r="I686" s="2">
+        <v>43914</v>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -30129,12 +30180,12 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -30144,25 +30195,12 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>NZ5119</t>
-        </is>
-      </c>
-      <c r="I687" s="2">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -30182,7 +30220,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -30192,12 +30230,25 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>NZ5119</t>
+        </is>
+      </c>
+      <c r="I688" s="2">
+        <v>43914</v>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -30212,43 +30263,27 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>EK412</t>
-        </is>
-      </c>
-      <c r="H689" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I689" s="2">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -30263,7 +30298,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -30314,27 +30349,43 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>EK412</t>
+        </is>
+      </c>
+      <c r="H691" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I691" s="2">
+        <v>43913</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -30354,12 +30405,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -30424,7 +30475,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -30459,7 +30510,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -30469,23 +30520,12 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>JQ293</t>
-        </is>
-      </c>
-      <c r="H695" s="2">
-        <v>43912</v>
-      </c>
-      <c r="I695" s="2">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -30500,12 +30540,12 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -30515,12 +30555,23 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>JQ293</t>
+        </is>
+      </c>
+      <c r="H696" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I696" s="2">
+        <v>43912</v>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -30540,7 +30591,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -30550,28 +30601,12 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>NZ5717</t>
-        </is>
-      </c>
-      <c r="H697" s="2">
-        <v>43910</v>
-      </c>
-      <c r="I697" s="2">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -30591,7 +30626,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -30601,12 +30636,28 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>NZ5717</t>
+        </is>
+      </c>
+      <c r="H698" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I698" s="2">
+        <v>43910</v>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -30621,17 +30672,17 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -30661,7 +30712,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -30706,25 +30757,12 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="I701" s="2">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -30744,7 +30782,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -30754,12 +30792,25 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="I702" s="2">
+        <v>43913</v>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -30779,7 +30830,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -30954,7 +31005,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -30989,7 +31040,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -31034,28 +31085,12 @@
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H710" s="2">
-        <v>43909</v>
-      </c>
-      <c r="I710" s="2">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -31070,12 +31105,12 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -31085,12 +31120,28 @@
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H711" s="2">
+        <v>43909</v>
+      </c>
+      <c r="I711" s="2">
+        <v>43910</v>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -31145,7 +31196,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -31250,7 +31301,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -31355,7 +31406,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -31490,43 +31541,27 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Wairarapa</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F723" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>QR920</t>
-        </is>
-      </c>
-      <c r="H723" s="2">
-        <v>43916</v>
-      </c>
-      <c r="I723" s="2">
-        <v>43917</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -31546,22 +31581,38 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Wairarapa</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H724" s="2">
+        <v>43916</v>
+      </c>
+      <c r="I724" s="2">
+        <v>43917</v>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -31581,7 +31632,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -31591,28 +31642,12 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H725" s="2">
-        <v>43910</v>
-      </c>
-      <c r="I725" s="2">
-        <v>43911</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -31632,7 +31667,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -31647,19 +31682,19 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>EK450</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H726" s="2">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="I726" s="2">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="J726" t="inlineStr">
         <is>
@@ -31683,7 +31718,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -31693,12 +31728,28 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>EK450</t>
+        </is>
+      </c>
+      <c r="H727" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I727" s="2">
+        <v>43913</v>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -31718,7 +31769,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -31753,7 +31804,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -31783,12 +31834,12 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -31823,7 +31874,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -31833,28 +31884,12 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H731" s="2">
-        <v>43912</v>
-      </c>
-      <c r="I731" s="2">
-        <v>43912</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K731" t="inlineStr">
@@ -31874,7 +31909,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -31889,19 +31924,19 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>EK448</t>
         </is>
       </c>
       <c r="H732" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="I732" s="2">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="J732" t="inlineStr">
         <is>
@@ -32981,7 +33016,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -32991,20 +33026,20 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>NZ570</t>
-        </is>
-      </c>
-      <c r="H758" s="2">
-        <v>43915</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="I758" s="2">
+        <v>43909</v>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -33034,20 +33069,20 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I759" s="2">
-        <v>43897</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>NZ570</t>
+        </is>
+      </c>
+      <c r="H759" s="2">
+        <v>43915</v>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -33062,35 +33097,35 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>NZ5015</t>
-        </is>
-      </c>
-      <c r="H760" s="2">
-        <v>43912</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I760" s="2">
+        <v>43897</v>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -33110,7 +33145,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -33120,28 +33155,20 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>Australia</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>NZ104</t>
+          <t>NZ5015</t>
         </is>
       </c>
       <c r="H761" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I761" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -33156,12 +33183,12 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -33176,19 +33203,19 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>NZ5011</t>
+          <t>NZ104</t>
         </is>
       </c>
       <c r="H762" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="I762" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="J762" t="inlineStr">
         <is>
@@ -33212,7 +33239,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -33227,19 +33254,19 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>NZ104</t>
+          <t>NZ5011</t>
         </is>
       </c>
       <c r="H763" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="I763" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="J763" t="inlineStr">
         <is>
@@ -33258,17 +33285,17 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -33278,11 +33305,19 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>Fiji</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>NZ104</t>
+        </is>
+      </c>
+      <c r="H764" s="2">
+        <v>43913</v>
       </c>
       <c r="I764" s="2">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="J764" t="inlineStr">
         <is>
@@ -33306,12 +33341,12 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -33321,11 +33356,11 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="I765" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="J765" t="inlineStr">
         <is>
@@ -33349,7 +33384,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -33364,19 +33399,11 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>ANZ2283</t>
-        </is>
-      </c>
-      <c r="H766" s="2">
-        <v>43907</v>
+          <t>United States of America</t>
+        </is>
       </c>
       <c r="I766" s="2">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="J766" t="inlineStr">
         <is>
@@ -33395,12 +33422,12 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -33415,11 +33442,19 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>New Zealand</t>
-        </is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>ANZ2283</t>
+        </is>
+      </c>
+      <c r="H767" s="2">
+        <v>43907</v>
       </c>
       <c r="I767" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="J767" t="inlineStr">
         <is>
@@ -44550,7 +44585,7 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
@@ -44580,12 +44615,12 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr">
@@ -44595,12 +44630,28 @@
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1055" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1055" s="2">
+        <v>43923</v>
+      </c>
+      <c r="I1055" s="2">
+        <v>43924</v>
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -44625,33 +44676,17 @@
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1056" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>SQ281</t>
-        </is>
-      </c>
-      <c r="H1056" s="2">
-        <v>43909</v>
-      </c>
-      <c r="I1056" s="2">
-        <v>43909</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1056" t="inlineStr">
@@ -44666,7 +44701,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -44676,33 +44711,25 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Canterbury</t>
         </is>
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1057" t="inlineStr">
-        <is>
-          <t>Qatar</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>NZ5375</t>
         </is>
       </c>
       <c r="H1057" s="2">
-        <v>43923</v>
-      </c>
-      <c r="I1057" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1057" t="inlineStr">
@@ -44722,12 +44749,12 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>Bay of Plenty</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1058" t="inlineStr">
@@ -44762,21 +44789,13 @@
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>Canterbury</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr">
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>NZ5375</t>
-        </is>
-      </c>
-      <c r="H1059" s="2">
-        <v>43921</v>
       </c>
       <c r="J1059" t="inlineStr">
         <is>
@@ -44810,12 +44829,28 @@
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>QR920</t>
+        </is>
+      </c>
+      <c r="H1060" s="2">
+        <v>43920</v>
+      </c>
+      <c r="I1060" s="2">
+        <v>43921</v>
       </c>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1060" t="inlineStr">
@@ -44835,7 +44870,7 @@
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1061" t="inlineStr">
@@ -44850,19 +44885,19 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>NZ124</t>
         </is>
       </c>
       <c r="H1061" s="2">
-        <v>43920</v>
+        <v>43909</v>
       </c>
       <c r="I1061" s="2">
-        <v>43921</v>
+        <v>43909</v>
       </c>
       <c r="J1061" t="inlineStr">
         <is>
@@ -44886,7 +44921,7 @@
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr">
@@ -44901,12 +44936,12 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>NZ124</t>
+          <t>SQ281</t>
         </is>
       </c>
       <c r="H1062" s="2">
@@ -59885,7 +59920,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Indeterminate</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
@@ -61614,7 +61649,7 @@
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr">
@@ -61644,6 +61679,1671 @@
         </is>
       </c>
       <c r="K1508" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>AI1306</t>
+        </is>
+      </c>
+      <c r="H1509" s="2">
+        <v>43986</v>
+      </c>
+      <c r="I1509" s="2">
+        <v>43987</v>
+      </c>
+      <c r="J1509" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1509" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>AI1306</t>
+        </is>
+      </c>
+      <c r="H1510" s="2">
+        <v>43986</v>
+      </c>
+      <c r="I1510" s="2">
+        <v>43987</v>
+      </c>
+      <c r="J1510" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1510" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>AI1306</t>
+        </is>
+      </c>
+      <c r="H1511" s="2">
+        <v>43986</v>
+      </c>
+      <c r="I1511" s="2">
+        <v>43987</v>
+      </c>
+      <c r="J1511" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1511" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1512" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1512" s="2">
+        <v>43996</v>
+      </c>
+      <c r="I1512" s="2">
+        <v>43997</v>
+      </c>
+      <c r="J1512" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1512" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>NZ124</t>
+        </is>
+      </c>
+      <c r="H1513" s="2">
+        <v>43995</v>
+      </c>
+      <c r="I1513" s="2">
+        <v>43995</v>
+      </c>
+      <c r="J1513" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1513" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1514" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1514" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1514" s="2">
+        <v>43996</v>
+      </c>
+      <c r="I1514" s="2">
+        <v>43997</v>
+      </c>
+      <c r="J1514" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1514" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1515" s="2">
+        <v>43999</v>
+      </c>
+      <c r="I1515" s="2">
+        <v>44000</v>
+      </c>
+      <c r="J1515" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1515" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1516" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G1516" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H1516" s="2">
+        <v>43998</v>
+      </c>
+      <c r="I1516" s="2">
+        <v>44000</v>
+      </c>
+      <c r="J1516" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1516" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1517" s="2">
+        <v>43999</v>
+      </c>
+      <c r="I1517" s="2">
+        <v>44000</v>
+      </c>
+      <c r="J1517" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1517" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>NZ1935</t>
+        </is>
+      </c>
+      <c r="H1518" s="2">
+        <v>44002</v>
+      </c>
+      <c r="I1518" s="2">
+        <v>44002</v>
+      </c>
+      <c r="J1518" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1518" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>NZ124</t>
+        </is>
+      </c>
+      <c r="H1519" s="2">
+        <v>44002</v>
+      </c>
+      <c r="I1519" s="2">
+        <v>44002</v>
+      </c>
+      <c r="J1519" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1519" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1520" s="2">
+        <v>44001</v>
+      </c>
+      <c r="I1520" s="2">
+        <v>44002</v>
+      </c>
+      <c r="J1520" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1520" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1521" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>NZ142</t>
+        </is>
+      </c>
+      <c r="H1521" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I1521" s="2">
+        <v>44003</v>
+      </c>
+      <c r="J1521" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1521" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1522" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I1522" s="2">
+        <v>44004</v>
+      </c>
+      <c r="J1522" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1522" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1523" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1523" s="2">
+        <v>43999</v>
+      </c>
+      <c r="I1523" s="2">
+        <v>44000</v>
+      </c>
+      <c r="J1523" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1523" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1524" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>NZ102</t>
+        </is>
+      </c>
+      <c r="H1524" s="2">
+        <v>44005</v>
+      </c>
+      <c r="I1524" s="2">
+        <v>44005</v>
+      </c>
+      <c r="J1524" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1524" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1525" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I1525" s="2">
+        <v>44004</v>
+      </c>
+      <c r="J1525" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1525" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1526" s="2">
+        <v>43996</v>
+      </c>
+      <c r="I1526" s="2">
+        <v>43997</v>
+      </c>
+      <c r="J1526" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1526" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1527" s="2">
+        <v>44005</v>
+      </c>
+      <c r="I1527" s="2">
+        <v>44006</v>
+      </c>
+      <c r="J1527" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1527" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1528" s="2">
+        <v>44005</v>
+      </c>
+      <c r="I1528" s="2">
+        <v>44006</v>
+      </c>
+      <c r="J1528" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1528" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H1529" s="2">
+        <v>43998</v>
+      </c>
+      <c r="I1529" s="2">
+        <v>44000</v>
+      </c>
+      <c r="J1529" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1529" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>NZ5</t>
+        </is>
+      </c>
+      <c r="H1530" s="2">
+        <v>44007</v>
+      </c>
+      <c r="I1530" s="2">
+        <v>44009</v>
+      </c>
+      <c r="J1530" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1530" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1531" t="inlineStr">
+        <is>
+          <t>NZ142</t>
+        </is>
+      </c>
+      <c r="H1531" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I1531" s="2">
+        <v>44003</v>
+      </c>
+      <c r="J1531" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1531" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>SQ401</t>
+        </is>
+      </c>
+      <c r="H1532" s="2">
+        <v>44011</v>
+      </c>
+      <c r="I1532" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J1532" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1532" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>SQ401</t>
+        </is>
+      </c>
+      <c r="H1533" s="2">
+        <v>44011</v>
+      </c>
+      <c r="I1533" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J1533" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1533" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>SQ401</t>
+        </is>
+      </c>
+      <c r="H1534" s="2">
+        <v>44011</v>
+      </c>
+      <c r="I1534" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J1534" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1534" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1535" t="inlineStr">
+        <is>
+          <t>NZ1935</t>
+        </is>
+      </c>
+      <c r="H1535" s="2">
+        <v>44014</v>
+      </c>
+      <c r="I1535" s="2">
+        <v>44014</v>
+      </c>
+      <c r="J1535" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1535" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>NZ1935</t>
+        </is>
+      </c>
+      <c r="H1536" s="2">
+        <v>44014</v>
+      </c>
+      <c r="I1536" s="2">
+        <v>44014</v>
+      </c>
+      <c r="J1536" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1536" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>NZ104</t>
+        </is>
+      </c>
+      <c r="H1537" s="2">
+        <v>44016</v>
+      </c>
+      <c r="I1537" s="2">
+        <v>44016</v>
+      </c>
+      <c r="J1537" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1537" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1538" s="2">
+        <v>44015</v>
+      </c>
+      <c r="I1538" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J1538" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1538" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>AI1316</t>
+        </is>
+      </c>
+      <c r="H1539" s="2">
+        <v>44014</v>
+      </c>
+      <c r="I1539" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J1539" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1539" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I1540" s="2">
+        <v>44015</v>
+      </c>
+      <c r="J1540" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1540" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>NZ1937</t>
+        </is>
+      </c>
+      <c r="H1541" s="2">
+        <v>44016</v>
+      </c>
+      <c r="I1541" s="2">
+        <v>44016</v>
+      </c>
+      <c r="J1541" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1541" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1590"/>
+  <dimension ref="A1:K1603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32687,19 +32687,19 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>QR920</t>
+          <t>EK488</t>
         </is>
       </c>
       <c r="H750" s="2">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="I750" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="J750" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -32733,20 +32733,28 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>NZ5145</t>
+          <t>QR920</t>
         </is>
       </c>
       <c r="H751" s="2">
-        <v>43914</v>
+        <v>43917</v>
+      </c>
+      <c r="I751" s="2">
+        <v>43917</v>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -32776,28 +32784,20 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F752" t="inlineStr">
-        <is>
-          <t>England</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>NZ5145</t>
         </is>
       </c>
       <c r="H752" s="2">
-        <v>43912</v>
-      </c>
-      <c r="I752" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -32817,7 +32817,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -32832,16 +32832,19 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>Polynesia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>HA445</t>
-        </is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H753" s="2">
+        <v>43912</v>
       </c>
       <c r="I753" s="2">
-        <v>43907</v>
+        <v>43912</v>
       </c>
       <c r="J753" t="inlineStr">
         <is>
@@ -32865,22 +32868,35 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Capital and Coast</t>
+          <t>Bay of Plenty</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>Polynesia</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>HA445</t>
+        </is>
+      </c>
+      <c r="I754" s="2">
+        <v>43907</v>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -32895,35 +32911,27 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="I755" s="2">
-        <v>43907</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -32986,7 +32994,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -32996,20 +33004,20 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>NZ570</t>
-        </is>
-      </c>
-      <c r="H757" s="2">
-        <v>43915</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="I757" s="2">
+        <v>43907</v>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -33024,7 +33032,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -33082,20 +33090,20 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="I759" s="2">
-        <v>43897</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>NZ570</t>
+        </is>
+      </c>
+      <c r="H759" s="2">
+        <v>43915</v>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -33110,35 +33118,35 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Hawke's Bay</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>NZ5015</t>
-        </is>
-      </c>
-      <c r="H760" s="2">
-        <v>43912</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="I760" s="2">
+        <v>43897</v>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K760" t="inlineStr">
@@ -33158,7 +33166,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -33168,28 +33176,20 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>Australia</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>NZ104</t>
+          <t>NZ5015</t>
         </is>
       </c>
       <c r="H761" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I761" s="2">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K761" t="inlineStr">
@@ -33204,12 +33204,12 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -33224,19 +33224,19 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>NZ5011</t>
+          <t>NZ104</t>
         </is>
       </c>
       <c r="H762" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="I762" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="J762" t="inlineStr">
         <is>
@@ -33260,7 +33260,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -33275,19 +33275,19 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>NZ104</t>
+          <t>NZ5011</t>
         </is>
       </c>
       <c r="H763" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="I763" s="2">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="J763" t="inlineStr">
         <is>
@@ -33306,17 +33306,17 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>MidCentral</t>
+          <t>Hawke's Bay</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -33326,11 +33326,19 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>Fiji</t>
-        </is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>NZ104</t>
+        </is>
+      </c>
+      <c r="H764" s="2">
+        <v>43913</v>
       </c>
       <c r="I764" s="2">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="J764" t="inlineStr">
         <is>
@@ -33354,12 +33362,12 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Nelson Marlborough</t>
+          <t>MidCentral</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -33369,19 +33377,11 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>United States of America</t>
-        </is>
-      </c>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>NZ8203</t>
-        </is>
-      </c>
-      <c r="H765" s="2">
-        <v>43915</v>
+          <t>Fiji</t>
+        </is>
       </c>
       <c r="I765" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="J765" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -33420,19 +33420,19 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>ANZ2283</t>
+          <t>NZ8203</t>
         </is>
       </c>
       <c r="H766" s="2">
-        <v>43907</v>
+        <v>43915</v>
       </c>
       <c r="I766" s="2">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="J766" t="inlineStr">
         <is>
@@ -33451,12 +33451,12 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -33471,11 +33471,19 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>New Zealand</t>
-        </is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>ANZ2283</t>
+        </is>
+      </c>
+      <c r="H767" s="2">
+        <v>43907</v>
       </c>
       <c r="I767" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="J767" t="inlineStr">
         <is>
@@ -33494,27 +33502,35 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Northland</t>
+          <t>Nelson Marlborough</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="I768" s="2">
+        <v>43909</v>
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -33534,12 +33550,12 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>Northland</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -33569,7 +33585,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -33614,28 +33630,12 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F771" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>QF121</t>
-        </is>
-      </c>
-      <c r="H771" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I771" s="2">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -33655,7 +33655,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -33665,12 +33665,28 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>QF121</t>
+        </is>
+      </c>
+      <c r="H772" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I772" s="2">
+        <v>43913</v>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -33690,7 +33706,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -33805,28 +33821,12 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>QF121</t>
-        </is>
-      </c>
-      <c r="H776" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I776" s="2">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -33856,12 +33856,28 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>QF121</t>
+        </is>
+      </c>
+      <c r="H777" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I777" s="2">
+        <v>43913</v>
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K777" t="inlineStr">
@@ -33911,12 +33927,12 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -33986,7 +34002,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -34021,7 +34037,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -34066,28 +34082,12 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>QF121</t>
-        </is>
-      </c>
-      <c r="H783" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I783" s="2">
-        <v>43913</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -34102,17 +34102,17 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Taranaki</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -34122,19 +34122,19 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>SQ285</t>
+          <t>QF121</t>
         </is>
       </c>
       <c r="H784" s="2">
         <v>43913</v>
       </c>
       <c r="I784" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="J784" t="inlineStr">
         <is>
@@ -34163,17 +34163,33 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Taranaki</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>SQ285</t>
+        </is>
+      </c>
+      <c r="H785" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I785" s="2">
+        <v>43914</v>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -34193,7 +34209,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -34228,7 +34244,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -34273,23 +34289,12 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>QR146</t>
-        </is>
-      </c>
-      <c r="H788" s="2">
-        <v>43908</v>
-      </c>
-      <c r="I788" s="2">
-        <v>43910</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K788" t="inlineStr">
@@ -34304,12 +34309,12 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -34319,12 +34324,23 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>QR146</t>
+        </is>
+      </c>
+      <c r="H789" s="2">
+        <v>43908</v>
+      </c>
+      <c r="I789" s="2">
+        <v>43910</v>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K789" t="inlineStr">
@@ -34354,28 +34370,12 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F790" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>EK488</t>
-        </is>
-      </c>
-      <c r="H790" s="2">
-        <v>43913</v>
-      </c>
-      <c r="I790" s="2">
-        <v>43914</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -65066,9 +65066,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1576" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1576" t="inlineStr">
@@ -65174,22 +65179,38 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>NZ80</t>
+        </is>
+      </c>
+      <c r="H1579" s="2">
+        <v>44051</v>
+      </c>
+      <c r="I1579" s="2">
+        <v>44051</v>
       </c>
       <c r="J1579" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1579" t="inlineStr">
@@ -65209,7 +65230,7 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr">
@@ -65239,12 +65260,12 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr">
@@ -65279,7 +65300,7 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr">
@@ -65314,7 +65335,7 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr">
@@ -65349,7 +65370,7 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr">
@@ -65384,7 +65405,7 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr">
@@ -65414,43 +65435,27 @@
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1586" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>NZ80</t>
-        </is>
-      </c>
-      <c r="H1586" s="2">
-        <v>44051</v>
-      </c>
-      <c r="I1586" s="2">
-        <v>44051</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1586" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1586" t="inlineStr">
@@ -65465,17 +65470,17 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1587" t="inlineStr">
@@ -65500,12 +65505,12 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr">
@@ -65540,7 +65545,7 @@
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr">
@@ -65566,34 +65571,489 @@
     </row>
     <row r="1590">
       <c r="A1590" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1590" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1590" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2">
         <v>44056</v>
       </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C1590" t="inlineStr">
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
         <is>
           <t>50 to 59</t>
         </is>
       </c>
-      <c r="D1590" t="inlineStr">
+      <c r="D1591" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
       </c>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J1590" t="inlineStr">
-        <is>
-          <t>In New Zealand</t>
-        </is>
-      </c>
-      <c r="K1590" t="inlineStr">
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1591" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1591" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1592" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1592" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1593" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1593" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1594" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1594" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1595" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1595" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1596" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1596" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1597" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1597" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1598" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1598" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1599" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1599" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1600" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1600" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1601" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1601" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1602" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1602" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1603" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1603" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1603"/>
+  <dimension ref="A1:K1644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -64227,7 +64227,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>EK448</t>
+          <t>19A</t>
         </is>
       </c>
       <c r="H1558" s="2">
@@ -65049,11 +65049,11 @@
     </row>
     <row r="1576">
       <c r="A1576" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
@@ -65063,22 +65063,38 @@
       </c>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H1576" s="2">
+        <v>44050</v>
+      </c>
+      <c r="I1576" s="2">
+        <v>44050</v>
       </c>
       <c r="J1576" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1576" t="inlineStr">
         <is>
-          <t>Probable</t>
+          <t>Confirmed</t>
         </is>
       </c>
     </row>
@@ -65093,38 +65109,22 @@
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1577" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H1577" s="2">
-        <v>44050</v>
-      </c>
-      <c r="I1577" s="2">
-        <v>44050</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1577" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1577" t="inlineStr">
@@ -65144,22 +65144,38 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>NZ80</t>
+        </is>
+      </c>
+      <c r="H1578" s="2">
+        <v>44051</v>
+      </c>
+      <c r="I1578" s="2">
+        <v>44051</v>
       </c>
       <c r="J1578" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1578" t="inlineStr">
@@ -65179,38 +65195,17 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
-        </is>
-      </c>
-      <c r="E1579" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1579" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>NZ80</t>
-        </is>
-      </c>
-      <c r="H1579" s="2">
-        <v>44051</v>
-      </c>
-      <c r="I1579" s="2">
-        <v>44051</v>
+          <t>Counties Manukau</t>
+        </is>
       </c>
       <c r="J1579" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1579" t="inlineStr">
@@ -65230,7 +65225,7 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr">
@@ -65260,12 +65255,12 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr">
@@ -65300,7 +65295,7 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr">
@@ -65335,7 +65330,7 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr">
@@ -65343,14 +65338,9 @@
           <t>Counties Manukau</t>
         </is>
       </c>
-      <c r="E1583" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="J1583" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1583" t="inlineStr">
@@ -65370,7 +65360,7 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr">
@@ -65405,7 +65395,7 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr">
@@ -65470,17 +65460,17 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1587" t="inlineStr">
@@ -65505,12 +65495,12 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr">
@@ -65545,7 +65535,7 @@
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr">
@@ -65571,7 +65561,7 @@
     </row>
     <row r="1590">
       <c r="A1590" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
@@ -65580,22 +65570,17 @@
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>Waitematā</t>
-        </is>
-      </c>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="J1590" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1590" t="inlineStr">
@@ -65650,7 +65635,7 @@
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr">
@@ -65680,17 +65665,17 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -65755,7 +65740,7 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr">
@@ -65785,12 +65770,12 @@
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr">
@@ -65825,7 +65810,7 @@
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr">
@@ -65855,17 +65840,17 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1598" t="inlineStr">
@@ -65890,17 +65875,17 @@
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr">
@@ -66000,7 +65985,7 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr">
@@ -66030,30 +66015,1433 @@
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1603" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1603" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
           <t>40 to 49</t>
         </is>
       </c>
-      <c r="D1603" t="inlineStr">
+      <c r="D1604" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
       </c>
-      <c r="E1603" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J1603" t="inlineStr">
-        <is>
-          <t>In New Zealand</t>
-        </is>
-      </c>
-      <c r="K1603" t="inlineStr">
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1604" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1604" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1605" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1605" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1606" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1606" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1607" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1607" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1608" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1608" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1609" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1609" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1610" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="I1610" s="2">
+        <v>44046</v>
+      </c>
+      <c r="J1610" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1610" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1611" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1611" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1612" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1612" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1613" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1613" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1614" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1614" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1615" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1615" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1616" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1616" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1617" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1617" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1618" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1618" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1619" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1619" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1620" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1620" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1621" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1621" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="J1622" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1622" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1623" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1623" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="J1624" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1624" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1625" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1625" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1626" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1626" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1627" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1627" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1628" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1628" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="J1629" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1629" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="J1630" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1630" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2">
+        <v>44060</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1631" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1631" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1632" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1632" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1633" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1633" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="J1634" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1634" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1635" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1635" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1636" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1636" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1637" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1637" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1638" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1638" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="J1639" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1639" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1640" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1640" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1641" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1641" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="J1642" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K1642" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1643" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1643" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1644" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1644" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1644"/>
+  <dimension ref="A1:K1684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65058,38 +65058,22 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>EK448</t>
-        </is>
-      </c>
-      <c r="H1576" s="2">
-        <v>44050</v>
-      </c>
-      <c r="I1576" s="2">
-        <v>44050</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1576" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1576" t="inlineStr">
@@ -65109,22 +65093,38 @@
       </c>
       <c r="C1577" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H1577" s="2">
+        <v>44049</v>
+      </c>
+      <c r="I1577" s="2">
+        <v>44050</v>
       </c>
       <c r="J1577" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1577" t="inlineStr">
@@ -65144,38 +65144,22 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1578" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>NZ80</t>
-        </is>
-      </c>
-      <c r="H1578" s="2">
-        <v>44051</v>
-      </c>
-      <c r="I1578" s="2">
-        <v>44051</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1578" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1578" t="inlineStr">
@@ -65195,17 +65179,38 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
-        </is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>NZ80</t>
+        </is>
+      </c>
+      <c r="H1579" s="2">
+        <v>44051</v>
+      </c>
+      <c r="I1579" s="2">
+        <v>44051</v>
       </c>
       <c r="J1579" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1579" t="inlineStr">
@@ -65225,7 +65230,7 @@
       </c>
       <c r="C1580" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1580" t="inlineStr">
@@ -65233,14 +65238,9 @@
           <t>Counties Manukau</t>
         </is>
       </c>
-      <c r="E1580" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="J1580" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1580" t="inlineStr">
@@ -65255,12 +65255,12 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1581" t="inlineStr">
@@ -65295,7 +65295,7 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1582" t="inlineStr">
@@ -65330,7 +65330,7 @@
       </c>
       <c r="C1583" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1583" t="inlineStr">
@@ -65338,9 +65338,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1583" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1583" t="inlineStr">
@@ -65360,7 +65365,7 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1584" t="inlineStr">
@@ -65368,14 +65373,9 @@
           <t>Counties Manukau</t>
         </is>
       </c>
-      <c r="E1584" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="J1584" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K1584" t="inlineStr">
@@ -65395,7 +65395,7 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1585" t="inlineStr">
@@ -65460,17 +65460,17 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1587" t="inlineStr">
@@ -65495,12 +65495,12 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1588" t="inlineStr">
@@ -65535,7 +65535,7 @@
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1589" t="inlineStr">
@@ -65561,7 +65561,7 @@
     </row>
     <row r="1590">
       <c r="A1590" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
@@ -65570,17 +65570,22 @@
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1590" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1590" t="inlineStr">
@@ -65591,7 +65596,7 @@
     </row>
     <row r="1591">
       <c r="A1591" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
@@ -65605,7 +65610,7 @@
       </c>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1591" t="inlineStr">
@@ -65635,7 +65640,7 @@
       </c>
       <c r="C1592" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1592" t="inlineStr">
@@ -65665,17 +65670,17 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -65700,17 +65705,17 @@
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -65740,7 +65745,7 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1595" t="inlineStr">
@@ -65775,7 +65780,7 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1596" t="inlineStr">
@@ -65805,12 +65810,12 @@
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1597" t="inlineStr">
@@ -65840,12 +65845,12 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1598" t="inlineStr">
@@ -65880,7 +65885,7 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1599" t="inlineStr">
@@ -65915,12 +65920,12 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1600" t="inlineStr">
@@ -65950,12 +65955,12 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1601" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1601" t="inlineStr">
@@ -65976,21 +65981,21 @@
     </row>
     <row r="1602">
       <c r="A1602" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr">
@@ -66011,21 +66016,21 @@
     </row>
     <row r="1603">
       <c r="A1603" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1603" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1603" t="inlineStr">
@@ -66055,7 +66060,7 @@
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1604" t="inlineStr">
@@ -66085,12 +66090,12 @@
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1605" t="inlineStr">
@@ -66120,17 +66125,17 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1606" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1606" t="inlineStr">
@@ -66151,11 +66156,11 @@
     </row>
     <row r="1607">
       <c r="A1607" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr">
@@ -66186,11 +66191,11 @@
     </row>
     <row r="1608">
       <c r="A1608" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
@@ -66200,7 +66205,7 @@
       </c>
       <c r="D1608" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1608" t="inlineStr">
@@ -66230,7 +66235,7 @@
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1609" t="inlineStr">
@@ -66260,35 +66265,27 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="I1610" s="2">
-        <v>44046</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="J1610" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1610" t="inlineStr">
@@ -66303,12 +66300,12 @@
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1611" t="inlineStr">
@@ -66338,27 +66335,43 @@
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>1 to 4</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>EK448</t>
+        </is>
+      </c>
+      <c r="H1612" s="2">
+        <v>44045</v>
+      </c>
+      <c r="I1612" s="2">
+        <v>44046</v>
       </c>
       <c r="J1612" t="inlineStr">
         <is>
-          <t>In New Zealand</t>
+          <t>Overseas</t>
         </is>
       </c>
       <c r="K1612" t="inlineStr">
@@ -66373,17 +66386,17 @@
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr">
@@ -66413,7 +66426,7 @@
       </c>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>1 to 4</t>
         </is>
       </c>
       <c r="D1614" t="inlineStr">
@@ -66443,12 +66456,12 @@
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1615" t="inlineStr">
@@ -66478,12 +66491,12 @@
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1616" t="inlineStr">
@@ -66518,7 +66531,7 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>15 to 19</t>
         </is>
       </c>
       <c r="D1617" t="inlineStr">
@@ -66548,7 +66561,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
@@ -66558,7 +66571,7 @@
       </c>
       <c r="D1618" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1618" t="inlineStr">
@@ -66583,17 +66596,17 @@
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1619" t="inlineStr">
@@ -66618,12 +66631,12 @@
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1620" t="inlineStr">
@@ -66649,7 +66662,7 @@
     </row>
     <row r="1621">
       <c r="A1621" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
@@ -66658,12 +66671,12 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1621" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
         </is>
       </c>
       <c r="E1621" t="inlineStr">
@@ -66684,11 +66697,11 @@
     </row>
     <row r="1622">
       <c r="A1622" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
@@ -66698,12 +66711,17 @@
       </c>
       <c r="D1622" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1622" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1622" t="inlineStr">
@@ -66723,7 +66741,7 @@
       </c>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1623" t="inlineStr">
@@ -66753,12 +66771,12 @@
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1624" t="inlineStr">
@@ -66783,12 +66801,12 @@
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1625" t="inlineStr">
@@ -66818,12 +66836,12 @@
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1626" t="inlineStr">
@@ -66858,7 +66876,7 @@
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1627" t="inlineStr">
@@ -66888,17 +66906,17 @@
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>5 to 9</t>
         </is>
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr">
@@ -66928,17 +66946,22 @@
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1629" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1629" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1629" t="inlineStr">
@@ -66958,17 +66981,22 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>50 to 59</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1630" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1630" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1630" t="inlineStr">
@@ -66979,16 +67007,21 @@
     </row>
     <row r="1631">
       <c r="A1631" s="2">
-        <v>44060</v>
+        <v>44059</v>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="C1631" t="inlineStr">
         <is>
-          <t>70+</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1631" t="inlineStr">
@@ -67009,21 +67042,21 @@
     </row>
     <row r="1632">
       <c r="A1632" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1632" t="inlineStr">
@@ -67044,21 +67077,21 @@
     </row>
     <row r="1633">
       <c r="A1633" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>60 to 69</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1633" t="inlineStr">
@@ -67079,7 +67112,7 @@
     </row>
     <row r="1634">
       <c r="A1634" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
@@ -67093,12 +67126,17 @@
       </c>
       <c r="D1634" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="J1634" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1634" t="inlineStr">
@@ -67118,12 +67156,12 @@
       </c>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1635" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1635" t="inlineStr">
@@ -67153,12 +67191,12 @@
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>60 to 69</t>
         </is>
       </c>
       <c r="D1636" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1636" t="inlineStr">
@@ -67183,17 +67221,17 @@
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>50 to 59</t>
         </is>
       </c>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1637" t="inlineStr">
@@ -67223,12 +67261,12 @@
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>70+</t>
         </is>
       </c>
       <c r="D1638" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="E1638" t="inlineStr">
@@ -67253,12 +67291,12 @@
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>10 to 14</t>
         </is>
       </c>
       <c r="D1639" t="inlineStr">
@@ -67266,9 +67304,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1639" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1639" t="inlineStr">
@@ -67279,7 +67322,7 @@
     </row>
     <row r="1640">
       <c r="A1640" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
@@ -67288,12 +67331,12 @@
       </c>
       <c r="C1640" t="inlineStr">
         <is>
-          <t>40 to 49</t>
+          <t>20 to 29</t>
         </is>
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -67314,21 +67357,21 @@
     </row>
     <row r="1641">
       <c r="A1641" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>10 to 14</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -67349,16 +67392,16 @@
     </row>
     <row r="1642">
       <c r="A1642" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t>5 to 9</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1642" t="inlineStr">
@@ -67366,9 +67409,14 @@
           <t>Counties Manukau</t>
         </is>
       </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="J1642" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="K1642" t="inlineStr">
@@ -67379,16 +67427,16 @@
     </row>
     <row r="1643">
       <c r="A1643" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1643" t="inlineStr">
@@ -67418,30 +67466,1489 @@
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr">
         <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1644" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1644" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1645" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1645" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1646" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1646" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1647" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1647" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1648" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1648" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1649" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1649" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
           <t>30 to 39</t>
         </is>
       </c>
-      <c r="D1644" t="inlineStr">
+      <c r="D1650" t="inlineStr">
         <is>
           <t>Counties Manukau</t>
         </is>
       </c>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J1644" t="inlineStr">
-        <is>
-          <t>In New Zealand</t>
-        </is>
-      </c>
-      <c r="K1644" t="inlineStr">
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1650" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1650" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>NZ 104</t>
+        </is>
+      </c>
+      <c r="H1651" s="2">
+        <v>44057</v>
+      </c>
+      <c r="I1651" s="2">
+        <v>44057</v>
+      </c>
+      <c r="J1651" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1651" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1652" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1652" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1653" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1653" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1654" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1654" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1655" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1655" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1656" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1656" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1657" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1657" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1658" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1658" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1659" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1659" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1660" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1660" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>CX7401</t>
+        </is>
+      </c>
+      <c r="H1661" s="2">
+        <v>44057</v>
+      </c>
+      <c r="I1661" s="2">
+        <v>44058</v>
+      </c>
+      <c r="J1661" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1661" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1662" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1662" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1663" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1663" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>NZ102</t>
+        </is>
+      </c>
+      <c r="H1664" s="2">
+        <v>44061</v>
+      </c>
+      <c r="J1664" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1664" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1665" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1665" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1666" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1666" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1667" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1667" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1668" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1668" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1669" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1669" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1670" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1670" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1671" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1671" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1672" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1672" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J1673" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1673" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1674" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1674" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>CX 7401</t>
+        </is>
+      </c>
+      <c r="H1675" s="2">
+        <v>44059</v>
+      </c>
+      <c r="I1675" s="2">
+        <v>44060</v>
+      </c>
+      <c r="J1675" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1675" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1676" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1676" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I1677" s="2">
+        <v>44054</v>
+      </c>
+      <c r="J1677" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="K1677" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1678" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1678" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1679" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1679" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1680" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1680" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1681" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1681" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1682" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1682" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1683" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1683" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J1684" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="K1684" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1793"/>
+  <dimension ref="A1:G1884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58457,7 +58457,7 @@
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Counties Manukau</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr">
@@ -63067,30 +63067,3210 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr">
         <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1793" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1793" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1793" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
           <t>30 to 39</t>
         </is>
       </c>
-      <c r="D1793" t="inlineStr">
+      <c r="D1794" t="inlineStr">
         <is>
           <t>Counties Manukau</t>
         </is>
       </c>
-      <c r="E1793" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F1793" t="inlineStr">
-        <is>
-          <t>In New Zealand</t>
-        </is>
-      </c>
-      <c r="G1793" t="inlineStr">
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1794" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1794" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1795" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1795" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1795" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1796" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1796" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1796" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1797" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1797" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1797" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1798" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1798" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1798" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1799" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1799" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1799" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1800" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1800" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1800" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1801" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1801" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1801" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1802" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1802" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1802" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1803" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1803" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1804" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1804" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1804" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1805" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1805" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1805" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1806" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1806" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1806" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1807" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1807" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1808" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1808" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1809" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1809" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1810" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1810" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1811" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1811" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1812" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1812" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1813" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1813" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1814" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1814" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1815" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1815" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="F1816" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G1816" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1817" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1817" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1818" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1818" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1819" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1819" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1820" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1820" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1821" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1821" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1822" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1822" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1823" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1823" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1824" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1824" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1825" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1825" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1826" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1826" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1827" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1827" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1828" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1828" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1829" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1829" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1830" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1830" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1831" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1831" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1832" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1832" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1833" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1833" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1834" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1834" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1835" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1835" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1836" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1836" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1837" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1837" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1838" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1838" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1839" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1839" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1840" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1840" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1841" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1841" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1842" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1842" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1843" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1843" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1844" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1844" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1845" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1845" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1846" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1846" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>&lt;1</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1847" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1847" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1848" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1848" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1849" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1849" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1850" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1850" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1851" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1851" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1852" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1852" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1853" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1853" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1854" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1854" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1855" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1855" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1856" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1856" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1857" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1857" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1858" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1858" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1859" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1859" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1860" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1860" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1861" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1861" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1862" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1862" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1864" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1864" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1865" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1865" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1866" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1866" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1867" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1867" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1868" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1868" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1869" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1869" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1870" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1870" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1871" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1871" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1872" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1872" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1873" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1873" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1874" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1874" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1875" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1875" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1876" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1876" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1877" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1877" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1878" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1878" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1879" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1879" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1880" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1881" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1882" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1882" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1883" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1883" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1884" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1884" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1884"/>
+  <dimension ref="A1:G1972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58457,7 +58457,7 @@
       </c>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>Counties Manukau</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr">
@@ -64402,7 +64402,7 @@
       </c>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>Waitematā</t>
+          <t>Managed isolation &amp; quarantine</t>
         </is>
       </c>
       <c r="E1831" t="inlineStr">
@@ -66173,31 +66173,31 @@
     </row>
     <row r="1882">
       <c r="A1882" s="2">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr">
         <is>
-          <t>30 to 39</t>
+          <t>40 to 49</t>
         </is>
       </c>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>Managed isolation &amp; quarantine</t>
+          <t>Capital and Coast</t>
         </is>
       </c>
       <c r="E1882" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F1882" t="inlineStr">
         <is>
-          <t>Overseas</t>
+          <t>In New Zealand</t>
         </is>
       </c>
       <c r="G1882" t="inlineStr">
@@ -66208,7 +66208,7 @@
     </row>
     <row r="1883">
       <c r="A1883" s="2">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
@@ -66217,7 +66217,7 @@
       </c>
       <c r="C1883" t="inlineStr">
         <is>
-          <t>20 to 29</t>
+          <t>30 to 39</t>
         </is>
       </c>
       <c r="D1883" t="inlineStr">
@@ -66271,6 +66271,3086 @@
         </is>
       </c>
       <c r="G1884" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1885" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1885" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1886" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1886" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1887" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1887" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1888" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1888" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1889" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1890" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1891" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>5 to 9</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1894" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1894" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1895" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1895" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1896" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1897" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1897" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1898" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1898" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1899" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1899" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1900" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1901" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1901" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1902" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1902" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1903" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1903" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1904" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1904" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1905" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1905" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1906" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1906" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1907" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1907" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1908" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1908" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1909" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1909" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1910" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1910" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1911" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1911" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1912" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1912" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1913" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1913" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1914" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1914" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1915" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1915" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1916" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1916" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1917" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1917" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>Waitematā</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1918" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1918" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1919" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1919" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1920" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1920" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1921" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1921" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1922" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1922" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>10 to 14</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1923" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1923" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1924" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1925" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1926" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1926" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1927" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1927" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1928" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1929" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1929" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1930" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1930" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1931" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1931" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1932" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1933" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1933" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1934" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1934" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1936" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1936" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1937" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1938" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1942" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1943" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>1 to 4</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1944" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1945" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>60 to 69</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1947" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1948" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1949" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>15 to 19</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1955" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1957" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1958" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1959" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>50 to 59</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1966" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>30 to 39</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1968" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>&lt;1</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>40 to 49</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>20 to 29</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>In New Zealand</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>70+</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>Managed isolation &amp; quarantine</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F1972" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="G1972" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>
